--- a/Mussel_Cancer/R_calc_Magadn_2023/Data/summary table_Magadan_itog.xlsx
+++ b/Mussel_Cancer/R_calc_Magadn_2023/Data/summary table_Magadan_itog.xlsx
@@ -12,6 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">table!$A$2:$Z$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">data!$A$1:$M$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1345,7 +1346,7 @@
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1383,13 +1384,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1548,23 +1542,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2226,152 +2226,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2643,7 +2643,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2665,6 +2665,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3184,7 +3187,7 @@
   </sheetPr>
   <dimension ref="A1:Z68"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B51" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2:T2"/>
     </sheetView>
   </sheetViews>
@@ -3207,86 +3210,86 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:26">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="102" t="s">
+      <c r="A1" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="101" t="s">
+      <c r="E1" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="102" t="s">
+      <c r="F1" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="102" t="s">
+      <c r="G1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="101" t="s">
+      <c r="I1" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="102" t="s">
+      <c r="J1" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="102" t="s">
+      <c r="K1" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="102" t="s">
+      <c r="L1" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="102" t="s">
+      <c r="M1" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="110" t="s">
+      <c r="N1" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="110" t="s">
+      <c r="O1" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="101" t="s">
+      <c r="P1" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="128" t="s">
+      <c r="Q1" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="129"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="129"/>
-      <c r="U1" s="130" t="s">
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="131"/>
-      <c r="W1" s="131"/>
-      <c r="X1" s="131"/>
-      <c r="Y1" s="131"/>
-      <c r="Z1" s="145"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="132"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="146"/>
     </row>
     <row r="2" ht="30.75" customHeight="1" spans="1:26">
-      <c r="A2" s="104"/>
+      <c r="A2" s="105"/>
       <c r="B2" s="66"/>
       <c r="C2" s="66"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="104"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="105"/>
       <c r="F2" s="66"/>
       <c r="G2" s="66"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="104"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="105"/>
       <c r="J2" s="66"/>
       <c r="K2" s="66"/>
       <c r="L2" s="66"/>
       <c r="M2" s="66"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="104"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="105"/>
       <c r="Q2" s="65" t="s">
         <v>18</v>
       </c>
@@ -3299,22 +3302,22 @@
       <c r="T2" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="101" t="s">
+      <c r="U2" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="102" t="s">
+      <c r="V2" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="102" t="s">
+      <c r="W2" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="102" t="s">
+      <c r="X2" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="146" t="s">
+      <c r="Y2" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" s="147" t="s">
+      <c r="Z2" s="148" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3358,7 +3361,7 @@
       <c r="M3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="112" t="s">
+      <c r="N3" s="113" t="s">
         <v>28</v>
       </c>
       <c r="O3" s="4" t="s">
@@ -3379,7 +3382,7 @@
       <c r="T3" s="12">
         <v>0</v>
       </c>
-      <c r="U3" s="132"/>
+      <c r="U3" s="133"/>
       <c r="V3" s="85"/>
       <c r="W3" s="85"/>
       <c r="X3" s="85"/>
@@ -3426,7 +3429,7 @@
       <c r="M4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="113" t="s">
+      <c r="N4" s="114" t="s">
         <v>28</v>
       </c>
       <c r="O4" s="12" t="s">
@@ -3447,15 +3450,15 @@
       <c r="T4" s="12">
         <v>0</v>
       </c>
-      <c r="U4" s="133"/>
-      <c r="V4" s="134"/>
-      <c r="W4" s="134"/>
-      <c r="X4" s="134"/>
-      <c r="Y4" s="134"/>
-      <c r="Z4" s="148"/>
+      <c r="U4" s="134"/>
+      <c r="V4" s="135"/>
+      <c r="W4" s="135"/>
+      <c r="X4" s="135"/>
+      <c r="Y4" s="135"/>
+      <c r="Z4" s="149"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:26">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="107" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3494,7 +3497,7 @@
       <c r="M5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="112" t="s">
+      <c r="N5" s="113" t="s">
         <v>28</v>
       </c>
       <c r="O5" s="4" t="s">
@@ -3515,7 +3518,7 @@
       <c r="T5" s="4">
         <v>0</v>
       </c>
-      <c r="U5" s="132"/>
+      <c r="U5" s="133"/>
       <c r="V5" s="85"/>
       <c r="W5" s="85" t="s">
         <v>33</v>
@@ -3525,7 +3528,7 @@
       <c r="Z5" s="86"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:26">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="108" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -3564,7 +3567,7 @@
       <c r="M6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="113" t="s">
+      <c r="N6" s="114" t="s">
         <v>28</v>
       </c>
       <c r="O6" s="12" t="s">
@@ -3585,21 +3588,21 @@
       <c r="T6" s="12">
         <v>0</v>
       </c>
-      <c r="U6" s="135" t="s">
+      <c r="U6" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="136" t="s">
+      <c r="V6" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="W6" s="136" t="s">
+      <c r="W6" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="X6" s="136"/>
-      <c r="Y6" s="136"/>
-      <c r="Z6" s="149"/>
+      <c r="X6" s="137"/>
+      <c r="Y6" s="137"/>
+      <c r="Z6" s="150"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:26">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="109" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3638,7 +3641,7 @@
       <c r="M7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="114" t="s">
+      <c r="N7" s="115" t="s">
         <v>28</v>
       </c>
       <c r="O7" s="8" t="s">
@@ -3659,12 +3662,12 @@
       <c r="T7" s="8">
         <v>0</v>
       </c>
-      <c r="U7" s="133"/>
-      <c r="V7" s="134"/>
-      <c r="W7" s="134"/>
-      <c r="X7" s="134"/>
-      <c r="Y7" s="134"/>
-      <c r="Z7" s="148"/>
+      <c r="U7" s="134"/>
+      <c r="V7" s="135"/>
+      <c r="W7" s="135"/>
+      <c r="X7" s="135"/>
+      <c r="Y7" s="135"/>
+      <c r="Z7" s="149"/>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="47" t="s">
@@ -3706,10 +3709,10 @@
       <c r="M8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="115" t="s">
+      <c r="N8" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="116" t="s">
+      <c r="O8" s="117" t="s">
         <v>40</v>
       </c>
       <c r="P8" s="47">
@@ -3727,7 +3730,7 @@
       <c r="T8" s="4">
         <v>0</v>
       </c>
-      <c r="U8" s="132"/>
+      <c r="U8" s="133"/>
       <c r="V8" s="85"/>
       <c r="W8" s="85"/>
       <c r="X8" s="85"/>
@@ -3774,10 +3777,10 @@
       <c r="M9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="113" t="s">
+      <c r="N9" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="116" t="s">
+      <c r="O9" s="117" t="s">
         <v>40</v>
       </c>
       <c r="P9" s="48">
@@ -3795,12 +3798,12 @@
       <c r="T9" s="12">
         <v>0</v>
       </c>
-      <c r="U9" s="135"/>
-      <c r="V9" s="136"/>
-      <c r="W9" s="136"/>
-      <c r="X9" s="136"/>
-      <c r="Y9" s="136"/>
-      <c r="Z9" s="149"/>
+      <c r="U9" s="136"/>
+      <c r="V9" s="137"/>
+      <c r="W9" s="137"/>
+      <c r="X9" s="137"/>
+      <c r="Y9" s="137"/>
+      <c r="Z9" s="150"/>
     </row>
     <row r="10" ht="15.15" spans="1:26">
       <c r="A10" s="54" t="s">
@@ -3842,10 +3845,10 @@
       <c r="M10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="114" t="s">
+      <c r="N10" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="O10" s="117" t="s">
+      <c r="O10" s="118" t="s">
         <v>40</v>
       </c>
       <c r="P10" s="54">
@@ -3863,15 +3866,15 @@
       <c r="T10" s="8">
         <v>0</v>
       </c>
-      <c r="U10" s="133"/>
-      <c r="V10" s="134"/>
-      <c r="W10" s="134"/>
-      <c r="X10" s="134"/>
-      <c r="Y10" s="134"/>
-      <c r="Z10" s="148"/>
+      <c r="U10" s="134"/>
+      <c r="V10" s="135"/>
+      <c r="W10" s="135"/>
+      <c r="X10" s="135"/>
+      <c r="Y10" s="135"/>
+      <c r="Z10" s="149"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="106" t="s">
+      <c r="A11" s="107" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -3910,7 +3913,7 @@
       <c r="M11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N11" s="112" t="s">
+      <c r="N11" s="113" t="s">
         <v>28</v>
       </c>
       <c r="O11" s="4" t="s">
@@ -3931,7 +3934,7 @@
       <c r="T11" s="4">
         <v>0</v>
       </c>
-      <c r="U11" s="132"/>
+      <c r="U11" s="133"/>
       <c r="V11" s="85" t="s">
         <v>43</v>
       </c>
@@ -3941,7 +3944,7 @@
       <c r="Z11" s="86"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="108" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -3980,7 +3983,7 @@
       <c r="M12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="113" t="s">
+      <c r="N12" s="114" t="s">
         <v>28</v>
       </c>
       <c r="O12" s="12" t="s">
@@ -4001,15 +4004,15 @@
       <c r="T12" s="12">
         <v>0</v>
       </c>
-      <c r="U12" s="135"/>
-      <c r="V12" s="136"/>
-      <c r="W12" s="136"/>
-      <c r="X12" s="136"/>
-      <c r="Y12" s="136"/>
-      <c r="Z12" s="149"/>
+      <c r="U12" s="136"/>
+      <c r="V12" s="137"/>
+      <c r="W12" s="137"/>
+      <c r="X12" s="137"/>
+      <c r="Y12" s="137"/>
+      <c r="Z12" s="150"/>
     </row>
     <row r="13" ht="15.15" spans="1:26">
-      <c r="A13" s="107" t="s">
+      <c r="A13" s="108" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -4048,7 +4051,7 @@
       <c r="M13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="114" t="s">
+      <c r="N13" s="115" t="s">
         <v>28</v>
       </c>
       <c r="O13" s="8" t="s">
@@ -4069,15 +4072,15 @@
       <c r="T13" s="8">
         <v>0</v>
       </c>
-      <c r="U13" s="133"/>
-      <c r="V13" s="134"/>
-      <c r="W13" s="134"/>
-      <c r="X13" s="134"/>
-      <c r="Y13" s="134"/>
-      <c r="Z13" s="148"/>
+      <c r="U13" s="134"/>
+      <c r="V13" s="135"/>
+      <c r="W13" s="135"/>
+      <c r="X13" s="135"/>
+      <c r="Y13" s="135"/>
+      <c r="Z13" s="149"/>
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:26">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="107" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -4113,13 +4116,13 @@
       <c r="L14" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="118" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" s="119" t="s">
+      <c r="M14" s="119" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="O14" s="118" t="s">
+      <c r="O14" s="119" t="s">
         <v>48</v>
       </c>
       <c r="P14" s="70">
@@ -4137,15 +4140,15 @@
       <c r="T14" s="49">
         <v>0</v>
       </c>
-      <c r="U14" s="137"/>
-      <c r="V14" s="138"/>
-      <c r="W14" s="138"/>
-      <c r="X14" s="138"/>
-      <c r="Y14" s="138"/>
-      <c r="Z14" s="150"/>
+      <c r="U14" s="138"/>
+      <c r="V14" s="139"/>
+      <c r="W14" s="139"/>
+      <c r="X14" s="139"/>
+      <c r="Y14" s="139"/>
+      <c r="Z14" s="151"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:26">
-      <c r="A15" s="107" t="s">
+      <c r="A15" s="108" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -4184,7 +4187,7 @@
       <c r="M15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="113" t="s">
+      <c r="N15" s="114" t="s">
         <v>28</v>
       </c>
       <c r="O15" s="12" t="s">
@@ -4205,19 +4208,19 @@
       <c r="T15" s="75">
         <v>0</v>
       </c>
-      <c r="U15" s="135"/>
-      <c r="V15" s="136" t="s">
+      <c r="U15" s="136"/>
+      <c r="V15" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="W15" s="136" t="s">
+      <c r="W15" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="X15" s="136"/>
-      <c r="Y15" s="136"/>
-      <c r="Z15" s="149"/>
+      <c r="X15" s="137"/>
+      <c r="Y15" s="137"/>
+      <c r="Z15" s="150"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="107" t="s">
+      <c r="A16" s="108" t="s">
         <v>44</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -4256,7 +4259,7 @@
       <c r="M16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N16" s="113" t="s">
+      <c r="N16" s="114" t="s">
         <v>28</v>
       </c>
       <c r="O16" s="12" t="s">
@@ -4277,15 +4280,15 @@
       <c r="T16" s="12">
         <v>0</v>
       </c>
-      <c r="U16" s="135"/>
-      <c r="V16" s="136"/>
-      <c r="W16" s="136"/>
-      <c r="X16" s="136"/>
-      <c r="Y16" s="136"/>
-      <c r="Z16" s="149"/>
+      <c r="U16" s="136"/>
+      <c r="V16" s="137"/>
+      <c r="W16" s="137"/>
+      <c r="X16" s="137"/>
+      <c r="Y16" s="137"/>
+      <c r="Z16" s="150"/>
     </row>
     <row r="17" ht="15.15" spans="1:26">
-      <c r="A17" s="108" t="s">
+      <c r="A17" s="109" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -4324,7 +4327,7 @@
       <c r="M17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N17" s="114" t="s">
+      <c r="N17" s="115" t="s">
         <v>28</v>
       </c>
       <c r="O17" s="8" t="s">
@@ -4345,15 +4348,15 @@
       <c r="T17" s="8">
         <v>0</v>
       </c>
-      <c r="U17" s="133"/>
-      <c r="V17" s="134"/>
-      <c r="W17" s="134"/>
-      <c r="X17" s="134"/>
-      <c r="Y17" s="134"/>
-      <c r="Z17" s="148"/>
+      <c r="U17" s="134"/>
+      <c r="V17" s="135"/>
+      <c r="W17" s="135"/>
+      <c r="X17" s="135"/>
+      <c r="Y17" s="135"/>
+      <c r="Z17" s="149"/>
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:26">
-      <c r="A18" s="107" t="s">
+      <c r="A18" s="108" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="18" t="s">
@@ -4392,7 +4395,7 @@
       <c r="M18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N18" s="112" t="s">
+      <c r="N18" s="113" t="s">
         <v>47</v>
       </c>
       <c r="O18" s="4" t="s">
@@ -4413,7 +4416,7 @@
       <c r="T18" s="35">
         <v>0</v>
       </c>
-      <c r="U18" s="132"/>
+      <c r="U18" s="133"/>
       <c r="V18" s="85">
         <v>52</v>
       </c>
@@ -4423,7 +4426,7 @@
       <c r="Z18" s="86"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="107" t="s">
+      <c r="A19" s="108" t="s">
         <v>51</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -4462,7 +4465,7 @@
       <c r="M19" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="120" t="s">
+      <c r="N19" s="121" t="s">
         <v>54</v>
       </c>
       <c r="O19" s="64" t="s">
@@ -4483,21 +4486,21 @@
       <c r="T19" s="40">
         <v>0</v>
       </c>
-      <c r="U19" s="135" t="s">
+      <c r="U19" s="136" t="s">
         <v>56</v>
       </c>
-      <c r="V19" s="136">
+      <c r="V19" s="137">
         <v>13</v>
       </c>
-      <c r="W19" s="136">
+      <c r="W19" s="137">
         <v>49</v>
       </c>
-      <c r="X19" s="136"/>
-      <c r="Y19" s="136"/>
-      <c r="Z19" s="149"/>
+      <c r="X19" s="137"/>
+      <c r="Y19" s="137"/>
+      <c r="Z19" s="150"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="107" t="s">
+      <c r="A20" s="108" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="18" t="s">
@@ -4533,13 +4536,13 @@
       <c r="L20" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="M20" s="121" t="s">
-        <v>29</v>
-      </c>
-      <c r="N20" s="122" t="s">
+      <c r="M20" s="122" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="O20" s="123" t="s">
+      <c r="O20" s="124" t="s">
         <v>55</v>
       </c>
       <c r="P20" s="79">
@@ -4557,7 +4560,7 @@
       <c r="T20" s="38">
         <v>0</v>
       </c>
-      <c r="U20" s="139" t="s">
+      <c r="U20" s="140" t="s">
         <v>58</v>
       </c>
       <c r="V20" s="87"/>
@@ -4567,7 +4570,7 @@
       <c r="Z20" s="88"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="107" t="s">
+      <c r="A21" s="108" t="s">
         <v>51</v>
       </c>
       <c r="B21" s="18" t="s">
@@ -4606,7 +4609,7 @@
       <c r="M21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N21" s="113" t="s">
+      <c r="N21" s="114" t="s">
         <v>28</v>
       </c>
       <c r="O21" s="12" t="s">
@@ -4627,19 +4630,19 @@
       <c r="T21" s="12">
         <v>1</v>
       </c>
-      <c r="U21" s="135"/>
-      <c r="V21" s="136"/>
-      <c r="W21" s="136"/>
-      <c r="X21" s="136" t="s">
+      <c r="U21" s="136"/>
+      <c r="V21" s="137"/>
+      <c r="W21" s="137"/>
+      <c r="X21" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="Y21" s="136" t="s">
+      <c r="Y21" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="Z21" s="149"/>
+      <c r="Z21" s="150"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="107" t="s">
+      <c r="A22" s="108" t="s">
         <v>51</v>
       </c>
       <c r="B22" s="18" t="s">
@@ -4678,7 +4681,7 @@
       <c r="M22" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N22" s="113" t="s">
+      <c r="N22" s="114" t="s">
         <v>28</v>
       </c>
       <c r="O22" s="12" t="s">
@@ -4699,19 +4702,19 @@
       <c r="T22" s="12">
         <v>0</v>
       </c>
-      <c r="U22" s="135"/>
-      <c r="V22" s="136"/>
-      <c r="W22" s="136" t="s">
+      <c r="U22" s="136"/>
+      <c r="V22" s="137"/>
+      <c r="W22" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="X22" s="136"/>
-      <c r="Y22" s="136" t="s">
+      <c r="X22" s="137"/>
+      <c r="Y22" s="137" t="s">
         <v>62</v>
       </c>
-      <c r="Z22" s="149"/>
+      <c r="Z22" s="150"/>
     </row>
     <row r="23" ht="15.15" spans="1:26">
-      <c r="A23" s="107" t="s">
+      <c r="A23" s="108" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="18" t="s">
@@ -4750,7 +4753,7 @@
       <c r="M23" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N23" s="114" t="s">
+      <c r="N23" s="115" t="s">
         <v>28</v>
       </c>
       <c r="O23" s="8" t="s">
@@ -4771,19 +4774,19 @@
       <c r="T23" s="12">
         <v>0</v>
       </c>
-      <c r="U23" s="133"/>
-      <c r="V23" s="134"/>
-      <c r="W23" s="140" t="s">
+      <c r="U23" s="134"/>
+      <c r="V23" s="135"/>
+      <c r="W23" s="141" t="s">
         <v>63</v>
       </c>
-      <c r="X23" s="134"/>
-      <c r="Y23" s="134" t="s">
+      <c r="X23" s="135"/>
+      <c r="Y23" s="135" t="s">
         <v>64</v>
       </c>
-      <c r="Z23" s="148"/>
+      <c r="Z23" s="149"/>
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:26">
-      <c r="A24" s="109" t="s">
+      <c r="A24" s="110" t="s">
         <v>65</v>
       </c>
       <c r="B24" s="30" t="s">
@@ -4822,7 +4825,7 @@
       <c r="M24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N24" s="119" t="s">
+      <c r="N24" s="120" t="s">
         <v>47</v>
       </c>
       <c r="O24" s="35" t="s">
@@ -4843,7 +4846,7 @@
       <c r="T24" s="58">
         <v>0</v>
       </c>
-      <c r="U24" s="141"/>
+      <c r="U24" s="142"/>
       <c r="V24" s="95">
         <v>29</v>
       </c>
@@ -4892,7 +4895,7 @@
       <c r="M25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N25" s="112" t="s">
+      <c r="N25" s="113" t="s">
         <v>47</v>
       </c>
       <c r="O25" s="4" t="s">
@@ -4913,7 +4916,7 @@
       <c r="T25" s="35">
         <v>0</v>
       </c>
-      <c r="U25" s="132">
+      <c r="U25" s="133">
         <v>43</v>
       </c>
       <c r="V25" s="85">
@@ -4964,10 +4967,10 @@
       <c r="M26" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="N26" s="122" t="s">
+      <c r="N26" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="O26" s="123" t="s">
+      <c r="O26" s="124" t="s">
         <v>55</v>
       </c>
       <c r="P26" s="79">
@@ -4985,7 +4988,7 @@
       <c r="T26" s="38">
         <v>0</v>
       </c>
-      <c r="U26" s="139">
+      <c r="U26" s="140">
         <v>30</v>
       </c>
       <c r="V26" s="87" t="s">
@@ -5038,7 +5041,7 @@
       <c r="M27" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N27" s="113" t="s">
+      <c r="N27" s="114" t="s">
         <v>28</v>
       </c>
       <c r="O27" s="12" t="s">
@@ -5059,12 +5062,12 @@
       <c r="T27" s="40">
         <v>0</v>
       </c>
-      <c r="U27" s="135"/>
-      <c r="V27" s="136"/>
-      <c r="W27" s="136"/>
-      <c r="X27" s="136"/>
-      <c r="Y27" s="136"/>
-      <c r="Z27" s="149"/>
+      <c r="U27" s="136"/>
+      <c r="V27" s="137"/>
+      <c r="W27" s="137"/>
+      <c r="X27" s="137"/>
+      <c r="Y27" s="137"/>
+      <c r="Z27" s="150"/>
     </row>
     <row r="28" spans="1:26">
       <c r="A28" s="48" t="s">
@@ -5106,7 +5109,7 @@
       <c r="M28" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N28" s="113" t="s">
+      <c r="N28" s="114" t="s">
         <v>28</v>
       </c>
       <c r="O28" s="12" t="s">
@@ -5127,12 +5130,12 @@
       <c r="T28" s="40">
         <v>0</v>
       </c>
-      <c r="U28" s="135"/>
-      <c r="V28" s="136"/>
-      <c r="W28" s="136"/>
-      <c r="X28" s="136"/>
-      <c r="Y28" s="136"/>
-      <c r="Z28" s="149"/>
+      <c r="U28" s="136"/>
+      <c r="V28" s="137"/>
+      <c r="W28" s="137"/>
+      <c r="X28" s="137"/>
+      <c r="Y28" s="137"/>
+      <c r="Z28" s="150"/>
     </row>
     <row r="29" spans="1:26">
       <c r="A29" s="48" t="s">
@@ -5174,7 +5177,7 @@
       <c r="M29" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N29" s="113" t="s">
+      <c r="N29" s="114" t="s">
         <v>28</v>
       </c>
       <c r="O29" s="12" t="s">
@@ -5195,16 +5198,16 @@
       <c r="T29" s="40">
         <v>0</v>
       </c>
-      <c r="U29" s="135" t="s">
+      <c r="U29" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="V29" s="136" t="s">
+      <c r="V29" s="137" t="s">
         <v>72</v>
       </c>
-      <c r="W29" s="136"/>
-      <c r="X29" s="136"/>
-      <c r="Y29" s="136"/>
-      <c r="Z29" s="149"/>
+      <c r="W29" s="137"/>
+      <c r="X29" s="137"/>
+      <c r="Y29" s="137"/>
+      <c r="Z29" s="150"/>
     </row>
     <row r="30" spans="1:26">
       <c r="A30" s="48" t="s">
@@ -5246,7 +5249,7 @@
       <c r="M30" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N30" s="113" t="s">
+      <c r="N30" s="114" t="s">
         <v>28</v>
       </c>
       <c r="O30" s="12" t="s">
@@ -5267,16 +5270,16 @@
       <c r="T30" s="12">
         <v>0</v>
       </c>
-      <c r="U30" s="135"/>
-      <c r="V30" s="136" t="s">
+      <c r="U30" s="136"/>
+      <c r="V30" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="W30" s="136" t="s">
+      <c r="W30" s="137" t="s">
         <v>75</v>
       </c>
-      <c r="X30" s="136"/>
-      <c r="Y30" s="136"/>
-      <c r="Z30" s="149"/>
+      <c r="X30" s="137"/>
+      <c r="Y30" s="137"/>
+      <c r="Z30" s="150"/>
     </row>
     <row r="31" ht="15.15" spans="1:26">
       <c r="A31" s="48" t="s">
@@ -5318,7 +5321,7 @@
       <c r="M31" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N31" s="114" t="s">
+      <c r="N31" s="115" t="s">
         <v>28</v>
       </c>
       <c r="O31" s="8" t="s">
@@ -5339,17 +5342,17 @@
       <c r="T31" s="8">
         <v>0</v>
       </c>
-      <c r="U31" s="133" t="s">
+      <c r="U31" s="134" t="s">
         <v>77</v>
       </c>
-      <c r="V31" s="134"/>
-      <c r="W31" s="134"/>
-      <c r="X31" s="134"/>
-      <c r="Y31" s="134"/>
-      <c r="Z31" s="148"/>
+      <c r="V31" s="135"/>
+      <c r="W31" s="135"/>
+      <c r="X31" s="135"/>
+      <c r="Y31" s="135"/>
+      <c r="Z31" s="149"/>
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:26">
-      <c r="A32" s="106" t="s">
+      <c r="A32" s="107" t="s">
         <v>78</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -5388,7 +5391,7 @@
       <c r="M32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N32" s="112" t="s">
+      <c r="N32" s="113" t="s">
         <v>47</v>
       </c>
       <c r="O32" s="4" t="s">
@@ -5409,7 +5412,7 @@
       <c r="T32" s="35">
         <v>0</v>
       </c>
-      <c r="U32" s="132">
+      <c r="U32" s="133">
         <v>59</v>
       </c>
       <c r="V32" s="85"/>
@@ -5419,7 +5422,7 @@
       <c r="Z32" s="86"/>
     </row>
     <row r="33" ht="15.15" spans="1:26">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="109" t="s">
         <v>78</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -5458,10 +5461,10 @@
       <c r="M33" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N33" s="124" t="s">
+      <c r="N33" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="O33" s="91" t="s">
+      <c r="O33" s="99" t="s">
         <v>55</v>
       </c>
       <c r="P33" s="72">
@@ -5479,15 +5482,15 @@
       <c r="T33" s="40">
         <v>0</v>
       </c>
-      <c r="U33" s="133"/>
-      <c r="V33" s="134"/>
-      <c r="W33" s="134"/>
-      <c r="X33" s="134"/>
-      <c r="Y33" s="134"/>
-      <c r="Z33" s="148"/>
+      <c r="U33" s="134"/>
+      <c r="V33" s="135"/>
+      <c r="W33" s="135"/>
+      <c r="X33" s="135"/>
+      <c r="Y33" s="135"/>
+      <c r="Z33" s="149"/>
     </row>
     <row r="34" spans="1:26">
-      <c r="A34" s="107" t="s">
+      <c r="A34" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B34" s="11" t="s">
@@ -5526,10 +5529,10 @@
       <c r="M34" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="N34" s="119" t="s">
+      <c r="N34" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="118" t="s">
+      <c r="O34" s="119" t="s">
         <v>48</v>
       </c>
       <c r="P34" s="70">
@@ -5547,19 +5550,19 @@
       <c r="T34" s="49">
         <v>0</v>
       </c>
-      <c r="U34" s="137">
+      <c r="U34" s="138">
         <v>41</v>
       </c>
-      <c r="V34" s="138"/>
-      <c r="W34" s="138"/>
-      <c r="X34" s="138"/>
-      <c r="Y34" s="138" t="s">
+      <c r="V34" s="139"/>
+      <c r="W34" s="139"/>
+      <c r="X34" s="139"/>
+      <c r="Y34" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="Z34" s="150"/>
+      <c r="Z34" s="151"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="107" t="s">
+      <c r="A35" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B35" s="11" t="s">
@@ -5583,7 +5586,7 @@
       <c r="H35" s="46">
         <v>32</v>
       </c>
-      <c r="I35" s="125" t="s">
+      <c r="I35" s="126" t="s">
         <v>29</v>
       </c>
       <c r="J35" s="26" t="s">
@@ -5598,10 +5601,10 @@
       <c r="M35" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="N35" s="113" t="s">
+      <c r="N35" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="O35" s="126" t="s">
+      <c r="O35" s="127" t="s">
         <v>48</v>
       </c>
       <c r="P35" s="72">
@@ -5619,17 +5622,17 @@
       <c r="T35" s="12">
         <v>0</v>
       </c>
-      <c r="U35" s="135"/>
-      <c r="V35" s="136"/>
-      <c r="W35" s="136"/>
-      <c r="X35" s="136"/>
-      <c r="Y35" s="136" t="s">
+      <c r="U35" s="136"/>
+      <c r="V35" s="137"/>
+      <c r="W35" s="137"/>
+      <c r="X35" s="137"/>
+      <c r="Y35" s="137" t="s">
         <v>83</v>
       </c>
-      <c r="Z35" s="149"/>
+      <c r="Z35" s="150"/>
     </row>
     <row r="36" spans="1:26">
-      <c r="A36" s="107" t="s">
+      <c r="A36" s="108" t="s">
         <v>80</v>
       </c>
       <c r="B36" s="11" t="s">
@@ -5668,7 +5671,7 @@
       <c r="M36" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N36" s="113" t="s">
+      <c r="N36" s="114" t="s">
         <v>28</v>
       </c>
       <c r="O36" s="12" t="s">
@@ -5689,17 +5692,17 @@
       <c r="T36" s="12">
         <v>0</v>
       </c>
-      <c r="U36" s="135" t="s">
+      <c r="U36" s="136" t="s">
         <v>84</v>
       </c>
-      <c r="V36" s="136"/>
-      <c r="W36" s="136"/>
-      <c r="X36" s="136"/>
-      <c r="Y36" s="136"/>
-      <c r="Z36" s="149"/>
+      <c r="V36" s="137"/>
+      <c r="W36" s="137"/>
+      <c r="X36" s="137"/>
+      <c r="Y36" s="137"/>
+      <c r="Z36" s="150"/>
     </row>
     <row r="37" ht="15.15" spans="1:26">
-      <c r="A37" s="108" t="s">
+      <c r="A37" s="109" t="s">
         <v>80</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -5738,7 +5741,7 @@
       <c r="M37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N37" s="114" t="s">
+      <c r="N37" s="115" t="s">
         <v>28</v>
       </c>
       <c r="O37" s="8" t="s">
@@ -5759,12 +5762,12 @@
       <c r="T37" s="8">
         <v>0</v>
       </c>
-      <c r="U37" s="133"/>
-      <c r="V37" s="134"/>
-      <c r="W37" s="134"/>
-      <c r="X37" s="134"/>
-      <c r="Y37" s="134"/>
-      <c r="Z37" s="148"/>
+      <c r="U37" s="134"/>
+      <c r="V37" s="135"/>
+      <c r="W37" s="135"/>
+      <c r="X37" s="135"/>
+      <c r="Y37" s="135"/>
+      <c r="Z37" s="149"/>
     </row>
     <row r="38" spans="1:26">
       <c r="A38" s="47" t="s">
@@ -5806,7 +5809,7 @@
       <c r="M38" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N38" s="112" t="s">
+      <c r="N38" s="113" t="s">
         <v>28</v>
       </c>
       <c r="O38" s="4" t="s">
@@ -5827,7 +5830,7 @@
       <c r="T38" s="4">
         <v>0</v>
       </c>
-      <c r="U38" s="132"/>
+      <c r="U38" s="133"/>
       <c r="V38" s="85"/>
       <c r="W38" s="85"/>
       <c r="X38" s="85"/>
@@ -5874,7 +5877,7 @@
       <c r="M39" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N39" s="113" t="s">
+      <c r="N39" s="114" t="s">
         <v>28</v>
       </c>
       <c r="O39" s="12" t="s">
@@ -5895,12 +5898,12 @@
       <c r="T39" s="12">
         <v>0</v>
       </c>
-      <c r="U39" s="135"/>
-      <c r="V39" s="136"/>
-      <c r="W39" s="136"/>
-      <c r="X39" s="136"/>
-      <c r="Y39" s="136"/>
-      <c r="Z39" s="149"/>
+      <c r="U39" s="136"/>
+      <c r="V39" s="137"/>
+      <c r="W39" s="137"/>
+      <c r="X39" s="137"/>
+      <c r="Y39" s="137"/>
+      <c r="Z39" s="150"/>
     </row>
     <row r="40" ht="15.15" spans="1:26">
       <c r="A40" s="48" t="s">
@@ -5942,7 +5945,7 @@
       <c r="M40" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N40" s="114" t="s">
+      <c r="N40" s="115" t="s">
         <v>28</v>
       </c>
       <c r="O40" s="12" t="s">
@@ -5963,15 +5966,15 @@
       <c r="T40" s="8">
         <v>0</v>
       </c>
-      <c r="U40" s="133"/>
-      <c r="V40" s="134"/>
-      <c r="W40" s="134"/>
-      <c r="X40" s="134"/>
-      <c r="Y40" s="134"/>
-      <c r="Z40" s="148"/>
+      <c r="U40" s="134"/>
+      <c r="V40" s="135"/>
+      <c r="W40" s="135"/>
+      <c r="X40" s="135"/>
+      <c r="Y40" s="135"/>
+      <c r="Z40" s="149"/>
     </row>
     <row r="41" spans="1:26">
-      <c r="A41" s="106" t="s">
+      <c r="A41" s="107" t="s">
         <v>87</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -6010,10 +6013,10 @@
       <c r="M41" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="N41" s="119" t="s">
+      <c r="N41" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="O41" s="118" t="s">
+      <c r="O41" s="119" t="s">
         <v>48</v>
       </c>
       <c r="P41" s="70">
@@ -6031,17 +6034,17 @@
       <c r="T41" s="49">
         <v>0</v>
       </c>
-      <c r="U41" s="137" t="s">
+      <c r="U41" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="V41" s="138"/>
-      <c r="W41" s="138"/>
-      <c r="X41" s="138"/>
-      <c r="Y41" s="138"/>
-      <c r="Z41" s="150"/>
+      <c r="V41" s="139"/>
+      <c r="W41" s="139"/>
+      <c r="X41" s="139"/>
+      <c r="Y41" s="139"/>
+      <c r="Z41" s="151"/>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="107" t="s">
+      <c r="A42" s="108" t="s">
         <v>87</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -6080,7 +6083,7 @@
       <c r="M42" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N42" s="113" t="s">
+      <c r="N42" s="114" t="s">
         <v>28</v>
       </c>
       <c r="O42" s="12" t="s">
@@ -6101,15 +6104,15 @@
       <c r="T42" s="40">
         <v>0</v>
       </c>
-      <c r="U42" s="135"/>
-      <c r="V42" s="136"/>
-      <c r="W42" s="136"/>
-      <c r="X42" s="136"/>
-      <c r="Y42" s="136"/>
-      <c r="Z42" s="149"/>
+      <c r="U42" s="136"/>
+      <c r="V42" s="137"/>
+      <c r="W42" s="137"/>
+      <c r="X42" s="137"/>
+      <c r="Y42" s="137"/>
+      <c r="Z42" s="150"/>
     </row>
     <row r="43" spans="1:26">
-      <c r="A43" s="107" t="s">
+      <c r="A43" s="108" t="s">
         <v>87</v>
       </c>
       <c r="B43" s="11" t="s">
@@ -6148,7 +6151,7 @@
       <c r="M43" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N43" s="113" t="s">
+      <c r="N43" s="114" t="s">
         <v>28</v>
       </c>
       <c r="O43" s="12" t="s">
@@ -6169,17 +6172,17 @@
       <c r="T43" s="40">
         <v>0</v>
       </c>
-      <c r="U43" s="135" t="s">
+      <c r="U43" s="136" t="s">
         <v>84</v>
       </c>
-      <c r="V43" s="136"/>
-      <c r="W43" s="136"/>
-      <c r="X43" s="136"/>
-      <c r="Y43" s="136"/>
-      <c r="Z43" s="149"/>
+      <c r="V43" s="137"/>
+      <c r="W43" s="137"/>
+      <c r="X43" s="137"/>
+      <c r="Y43" s="137"/>
+      <c r="Z43" s="150"/>
     </row>
     <row r="44" ht="15.15" spans="1:26">
-      <c r="A44" s="108" t="s">
+      <c r="A44" s="109" t="s">
         <v>87</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -6218,7 +6221,7 @@
       <c r="M44" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N44" s="114" t="s">
+      <c r="N44" s="115" t="s">
         <v>28</v>
       </c>
       <c r="O44" s="8" t="s">
@@ -6239,17 +6242,17 @@
       <c r="T44" s="44">
         <v>0</v>
       </c>
-      <c r="U44" s="133"/>
-      <c r="V44" s="134" t="s">
+      <c r="U44" s="134"/>
+      <c r="V44" s="135" t="s">
         <v>90</v>
       </c>
-      <c r="W44" s="134"/>
-      <c r="X44" s="134"/>
-      <c r="Y44" s="134"/>
-      <c r="Z44" s="148"/>
+      <c r="W44" s="135"/>
+      <c r="X44" s="135"/>
+      <c r="Y44" s="135"/>
+      <c r="Z44" s="149"/>
     </row>
     <row r="45" ht="15.15" spans="1:26">
-      <c r="A45" s="109" t="s">
+      <c r="A45" s="110" t="s">
         <v>91</v>
       </c>
       <c r="B45" s="55" t="s">
@@ -6288,7 +6291,7 @@
       <c r="M45" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="N45" s="127" t="s">
+      <c r="N45" s="128" t="s">
         <v>47</v>
       </c>
       <c r="O45" s="92" t="s">
@@ -6309,7 +6312,7 @@
       <c r="T45" s="58">
         <v>0</v>
       </c>
-      <c r="U45" s="141" t="s">
+      <c r="U45" s="142" t="s">
         <v>93</v>
       </c>
       <c r="V45" s="95" t="s">
@@ -6362,7 +6365,7 @@
       <c r="M46" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N46" s="112" t="s">
+      <c r="N46" s="113" t="s">
         <v>28</v>
       </c>
       <c r="O46" s="12" t="s">
@@ -6383,7 +6386,7 @@
       <c r="T46" s="4">
         <v>0</v>
       </c>
-      <c r="U46" s="132"/>
+      <c r="U46" s="133"/>
       <c r="V46" s="85"/>
       <c r="W46" s="85"/>
       <c r="X46" s="85"/>
@@ -6430,7 +6433,7 @@
       <c r="M47" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N47" s="113" t="s">
+      <c r="N47" s="114" t="s">
         <v>28</v>
       </c>
       <c r="O47" s="12" t="s">
@@ -6451,18 +6454,18 @@
       <c r="T47" s="12">
         <v>0</v>
       </c>
-      <c r="U47" s="142" t="s">
+      <c r="U47" s="143" t="s">
         <v>97</v>
       </c>
-      <c r="V47" s="136" t="s">
+      <c r="V47" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="W47" s="136" t="s">
+      <c r="W47" s="137" t="s">
         <v>99</v>
       </c>
-      <c r="X47" s="136"/>
-      <c r="Y47" s="136"/>
-      <c r="Z47" s="149"/>
+      <c r="X47" s="137"/>
+      <c r="Y47" s="137"/>
+      <c r="Z47" s="150"/>
     </row>
     <row r="48" ht="15.15" spans="1:26">
       <c r="A48" s="54" t="s">
@@ -6504,7 +6507,7 @@
       <c r="M48" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="114" t="s">
+      <c r="N48" s="115" t="s">
         <v>28</v>
       </c>
       <c r="O48" s="8" t="s">
@@ -6525,14 +6528,14 @@
       <c r="T48" s="8">
         <v>0</v>
       </c>
-      <c r="U48" s="133" t="s">
+      <c r="U48" s="134" t="s">
         <v>100</v>
       </c>
-      <c r="V48" s="134"/>
-      <c r="W48" s="134"/>
-      <c r="X48" s="134"/>
-      <c r="Y48" s="134"/>
-      <c r="Z48" s="148"/>
+      <c r="V48" s="135"/>
+      <c r="W48" s="135"/>
+      <c r="X48" s="135"/>
+      <c r="Y48" s="135"/>
+      <c r="Z48" s="149"/>
     </row>
     <row r="49" spans="1:26">
       <c r="A49" s="47" t="s">
@@ -6574,7 +6577,7 @@
       <c r="M49" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N49" s="112" t="s">
+      <c r="N49" s="113" t="s">
         <v>28</v>
       </c>
       <c r="O49" s="4" t="s">
@@ -6595,7 +6598,7 @@
       <c r="T49" s="4">
         <v>0</v>
       </c>
-      <c r="U49" s="132" t="s">
+      <c r="U49" s="133" t="s">
         <v>103</v>
       </c>
       <c r="V49" s="85"/>
@@ -6646,7 +6649,7 @@
       <c r="M50" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N50" s="113" t="s">
+      <c r="N50" s="114" t="s">
         <v>28</v>
       </c>
       <c r="O50" s="12" t="s">
@@ -6667,14 +6670,14 @@
       <c r="T50" s="12">
         <v>0</v>
       </c>
-      <c r="U50" s="135"/>
-      <c r="V50" s="136" t="s">
+      <c r="U50" s="136"/>
+      <c r="V50" s="137" t="s">
         <v>105</v>
       </c>
-      <c r="W50" s="136"/>
-      <c r="X50" s="136"/>
-      <c r="Y50" s="136"/>
-      <c r="Z50" s="149"/>
+      <c r="W50" s="137"/>
+      <c r="X50" s="137"/>
+      <c r="Y50" s="137"/>
+      <c r="Z50" s="150"/>
     </row>
     <row r="51" ht="15.15" spans="1:26">
       <c r="A51" s="54" t="s">
@@ -6716,7 +6719,7 @@
       <c r="M51" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N51" s="114" t="s">
+      <c r="N51" s="115" t="s">
         <v>28</v>
       </c>
       <c r="O51" s="8" t="s">
@@ -6737,19 +6740,19 @@
       <c r="T51" s="8">
         <v>0</v>
       </c>
-      <c r="U51" s="133" t="s">
+      <c r="U51" s="134" t="s">
         <v>106</v>
       </c>
-      <c r="V51" s="134"/>
-      <c r="W51" s="134"/>
-      <c r="X51" s="134"/>
-      <c r="Y51" s="134" t="s">
+      <c r="V51" s="135"/>
+      <c r="W51" s="135"/>
+      <c r="X51" s="135"/>
+      <c r="Y51" s="135" t="s">
         <v>107</v>
       </c>
-      <c r="Z51" s="148"/>
+      <c r="Z51" s="149"/>
     </row>
     <row r="52" ht="15" customHeight="1" spans="1:26">
-      <c r="A52" s="106" t="s">
+      <c r="A52" s="107" t="s">
         <v>108</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -6788,7 +6791,7 @@
       <c r="M52" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N52" s="112" t="s">
+      <c r="N52" s="113" t="s">
         <v>28</v>
       </c>
       <c r="O52" s="4" t="s">
@@ -6809,7 +6812,7 @@
       <c r="T52" s="4">
         <v>0</v>
       </c>
-      <c r="U52" s="143" t="s">
+      <c r="U52" s="144" t="s">
         <v>110</v>
       </c>
       <c r="V52" s="85" t="s">
@@ -6823,7 +6826,7 @@
       <c r="Z52" s="86"/>
     </row>
     <row r="53" spans="1:26">
-      <c r="A53" s="107" t="s">
+      <c r="A53" s="108" t="s">
         <v>108</v>
       </c>
       <c r="B53" s="11" t="s">
@@ -6862,7 +6865,7 @@
       <c r="M53" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N53" s="113" t="s">
+      <c r="N53" s="114" t="s">
         <v>28</v>
       </c>
       <c r="O53" s="12" t="s">
@@ -6883,19 +6886,19 @@
       <c r="T53" s="12">
         <v>0</v>
       </c>
-      <c r="U53" s="135"/>
-      <c r="V53" s="136"/>
-      <c r="W53" s="136" t="s">
+      <c r="U53" s="136"/>
+      <c r="V53" s="137"/>
+      <c r="W53" s="137" t="s">
         <v>112</v>
       </c>
-      <c r="X53" s="136"/>
-      <c r="Y53" s="136" t="s">
+      <c r="X53" s="137"/>
+      <c r="Y53" s="137" t="s">
         <v>113</v>
       </c>
-      <c r="Z53" s="149"/>
+      <c r="Z53" s="150"/>
     </row>
     <row r="54" ht="15.15" spans="1:26">
-      <c r="A54" s="108" t="s">
+      <c r="A54" s="109" t="s">
         <v>108</v>
       </c>
       <c r="B54" s="7" t="s">
@@ -6934,7 +6937,7 @@
       <c r="M54" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N54" s="114" t="s">
+      <c r="N54" s="115" t="s">
         <v>28</v>
       </c>
       <c r="O54" s="8" t="s">
@@ -6955,14 +6958,14 @@
       <c r="T54" s="8">
         <v>0</v>
       </c>
-      <c r="U54" s="133" t="s">
+      <c r="U54" s="134" t="s">
         <v>114</v>
       </c>
-      <c r="V54" s="134"/>
-      <c r="W54" s="134"/>
-      <c r="X54" s="134"/>
-      <c r="Y54" s="134"/>
-      <c r="Z54" s="148"/>
+      <c r="V54" s="135"/>
+      <c r="W54" s="135"/>
+      <c r="X54" s="135"/>
+      <c r="Y54" s="135"/>
+      <c r="Z54" s="149"/>
     </row>
     <row r="55" spans="1:26">
       <c r="A55" s="47" t="s">
@@ -7004,7 +7007,7 @@
       <c r="M55" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N55" s="112" t="s">
+      <c r="N55" s="113" t="s">
         <v>28</v>
       </c>
       <c r="O55" s="4" t="s">
@@ -7025,7 +7028,7 @@
       <c r="T55" s="4">
         <v>0</v>
       </c>
-      <c r="U55" s="132"/>
+      <c r="U55" s="133"/>
       <c r="V55" s="85" t="s">
         <v>33</v>
       </c>
@@ -7076,7 +7079,7 @@
       <c r="M56" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N56" s="113" t="s">
+      <c r="N56" s="114" t="s">
         <v>28</v>
       </c>
       <c r="O56" s="12" t="s">
@@ -7097,14 +7100,14 @@
       <c r="T56" s="12">
         <v>0</v>
       </c>
-      <c r="U56" s="135"/>
-      <c r="V56" s="136" t="s">
+      <c r="U56" s="136"/>
+      <c r="V56" s="137" t="s">
         <v>118</v>
       </c>
-      <c r="W56" s="136"/>
-      <c r="X56" s="136"/>
-      <c r="Y56" s="136"/>
-      <c r="Z56" s="149"/>
+      <c r="W56" s="137"/>
+      <c r="X56" s="137"/>
+      <c r="Y56" s="137"/>
+      <c r="Z56" s="150"/>
     </row>
     <row r="57" ht="15.15" spans="1:26">
       <c r="A57" s="54" t="s">
@@ -7146,7 +7149,7 @@
       <c r="M57" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N57" s="114" t="s">
+      <c r="N57" s="115" t="s">
         <v>28</v>
       </c>
       <c r="O57" s="8" t="s">
@@ -7167,21 +7170,21 @@
       <c r="T57" s="8">
         <v>0</v>
       </c>
-      <c r="U57" s="133" t="s">
+      <c r="U57" s="134" t="s">
         <v>119</v>
       </c>
-      <c r="V57" s="134" t="s">
+      <c r="V57" s="135" t="s">
         <v>120</v>
       </c>
-      <c r="W57" s="134"/>
-      <c r="X57" s="134"/>
-      <c r="Y57" s="134" t="s">
+      <c r="W57" s="135"/>
+      <c r="X57" s="135"/>
+      <c r="Y57" s="135" t="s">
         <v>121</v>
       </c>
-      <c r="Z57" s="148"/>
+      <c r="Z57" s="149"/>
     </row>
     <row r="58" spans="1:26">
-      <c r="A58" s="106" t="s">
+      <c r="A58" s="107" t="s">
         <v>122</v>
       </c>
       <c r="B58" s="59" t="s">
@@ -7220,7 +7223,7 @@
       <c r="M58" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N58" s="112" t="s">
+      <c r="N58" s="113" t="s">
         <v>28</v>
       </c>
       <c r="O58" s="4" t="s">
@@ -7241,7 +7244,7 @@
       <c r="T58" s="4">
         <v>0</v>
       </c>
-      <c r="U58" s="132" t="s">
+      <c r="U58" s="133" t="s">
         <v>124</v>
       </c>
       <c r="V58" s="85" t="s">
@@ -7257,7 +7260,7 @@
       <c r="Z58" s="86"/>
     </row>
     <row r="59" spans="1:26">
-      <c r="A59" s="107" t="s">
+      <c r="A59" s="108" t="s">
         <v>122</v>
       </c>
       <c r="B59" s="61" t="s">
@@ -7296,7 +7299,7 @@
       <c r="M59" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N59" s="113" t="s">
+      <c r="N59" s="114" t="s">
         <v>28</v>
       </c>
       <c r="O59" s="12" t="s">
@@ -7317,17 +7320,17 @@
       <c r="T59" s="12">
         <v>0</v>
       </c>
-      <c r="U59" s="135"/>
-      <c r="V59" s="136"/>
-      <c r="W59" s="136" t="s">
+      <c r="U59" s="136"/>
+      <c r="V59" s="137"/>
+      <c r="W59" s="137" t="s">
         <v>128</v>
       </c>
-      <c r="X59" s="136"/>
-      <c r="Y59" s="136"/>
-      <c r="Z59" s="149"/>
+      <c r="X59" s="137"/>
+      <c r="Y59" s="137"/>
+      <c r="Z59" s="150"/>
     </row>
     <row r="60" ht="15.15" spans="1:26">
-      <c r="A60" s="107" t="s">
+      <c r="A60" s="108" t="s">
         <v>122</v>
       </c>
       <c r="B60" s="61" t="s">
@@ -7366,7 +7369,7 @@
       <c r="M60" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N60" s="114" t="s">
+      <c r="N60" s="115" t="s">
         <v>28</v>
       </c>
       <c r="O60" s="12" t="s">
@@ -7387,14 +7390,14 @@
       <c r="T60" s="8">
         <v>0</v>
       </c>
-      <c r="U60" s="133" t="s">
+      <c r="U60" s="134" t="s">
         <v>129</v>
       </c>
-      <c r="V60" s="134"/>
-      <c r="W60" s="134"/>
-      <c r="X60" s="134"/>
-      <c r="Y60" s="134"/>
-      <c r="Z60" s="148"/>
+      <c r="V60" s="135"/>
+      <c r="W60" s="135"/>
+      <c r="X60" s="135"/>
+      <c r="Y60" s="135"/>
+      <c r="Z60" s="149"/>
     </row>
     <row r="61" spans="1:26">
       <c r="A61" s="47" t="s">
@@ -7436,7 +7439,7 @@
       <c r="M61" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N61" s="112" t="s">
+      <c r="N61" s="113" t="s">
         <v>47</v>
       </c>
       <c r="O61" s="4" t="s">
@@ -7457,7 +7460,7 @@
       <c r="T61" s="86">
         <v>0</v>
       </c>
-      <c r="U61" s="132">
+      <c r="U61" s="133">
         <v>56</v>
       </c>
       <c r="V61" s="85">
@@ -7508,7 +7511,7 @@
       <c r="M62" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N62" s="120" t="s">
+      <c r="N62" s="121" t="s">
         <v>54</v>
       </c>
       <c r="O62" s="64" t="s">
@@ -7529,7 +7532,7 @@
       <c r="T62" s="12">
         <v>0</v>
       </c>
-      <c r="U62" s="144" t="s">
+      <c r="U62" s="145" t="s">
         <v>132</v>
       </c>
       <c r="V62" s="11" t="s">
@@ -7582,10 +7585,10 @@
       <c r="M63" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="N63" s="122" t="s">
+      <c r="N63" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="O63" s="123" t="s">
+      <c r="O63" s="124" t="s">
         <v>55</v>
       </c>
       <c r="P63" s="79">
@@ -7603,7 +7606,7 @@
       <c r="T63" s="88">
         <v>0</v>
       </c>
-      <c r="U63" s="139" t="s">
+      <c r="U63" s="140" t="s">
         <v>134</v>
       </c>
       <c r="V63" s="87">
@@ -7656,7 +7659,7 @@
       <c r="M64" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N64" s="120" t="s">
+      <c r="N64" s="121" t="s">
         <v>28</v>
       </c>
       <c r="O64" s="75" t="s">
@@ -7677,16 +7680,16 @@
       <c r="T64" s="64">
         <v>0</v>
       </c>
-      <c r="U64" s="135">
+      <c r="U64" s="136">
         <v>23</v>
       </c>
-      <c r="V64" s="136" t="s">
+      <c r="V64" s="137" t="s">
         <v>136</v>
       </c>
-      <c r="W64" s="136"/>
-      <c r="X64" s="136"/>
-      <c r="Y64" s="136"/>
-      <c r="Z64" s="149">
+      <c r="W64" s="137"/>
+      <c r="X64" s="137"/>
+      <c r="Y64" s="137"/>
+      <c r="Z64" s="150">
         <v>9</v>
       </c>
     </row>
@@ -7730,7 +7733,7 @@
       <c r="M65" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N65" s="120" t="s">
+      <c r="N65" s="121" t="s">
         <v>28</v>
       </c>
       <c r="O65" s="75" t="s">
@@ -7751,14 +7754,14 @@
       <c r="T65" s="64">
         <v>0</v>
       </c>
-      <c r="U65" s="135">
+      <c r="U65" s="136">
         <v>80</v>
       </c>
-      <c r="V65" s="136"/>
-      <c r="W65" s="136"/>
-      <c r="X65" s="136"/>
-      <c r="Y65" s="136"/>
-      <c r="Z65" s="149" t="s">
+      <c r="V65" s="137"/>
+      <c r="W65" s="137"/>
+      <c r="X65" s="137"/>
+      <c r="Y65" s="137"/>
+      <c r="Z65" s="150" t="s">
         <v>137</v>
       </c>
     </row>
@@ -7784,7 +7787,7 @@
       <c r="G66" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H66" s="91">
+      <c r="H66" s="99">
         <v>54</v>
       </c>
       <c r="I66" s="54" t="s">
@@ -7802,10 +7805,10 @@
       <c r="M66" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N66" s="151" t="s">
+      <c r="N66" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="O66" s="152" t="s">
+      <c r="O66" s="153" t="s">
         <v>55</v>
       </c>
       <c r="P66" s="97">
@@ -7820,24 +7823,24 @@
       <c r="S66" s="19">
         <v>0</v>
       </c>
-      <c r="T66" s="91">
-        <v>0</v>
-      </c>
-      <c r="U66" s="133" t="s">
+      <c r="T66" s="99">
+        <v>0</v>
+      </c>
+      <c r="U66" s="134" t="s">
         <v>138</v>
       </c>
-      <c r="V66" s="134"/>
-      <c r="W66" s="134"/>
-      <c r="X66" s="134"/>
-      <c r="Y66" s="134">
+      <c r="V66" s="135"/>
+      <c r="W66" s="135"/>
+      <c r="X66" s="135"/>
+      <c r="Y66" s="135">
         <v>150</v>
       </c>
-      <c r="Z66" s="153" t="s">
+      <c r="Z66" s="154" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="67" ht="15.15" spans="1:26">
-      <c r="A67" s="109" t="s">
+      <c r="A67" s="110" t="s">
         <v>140</v>
       </c>
       <c r="B67" s="55" t="s">
@@ -7876,7 +7879,7 @@
       <c r="M67" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="N67" s="127" t="s">
+      <c r="N67" s="128" t="s">
         <v>47</v>
       </c>
       <c r="O67" s="92" t="s">
@@ -7885,7 +7888,7 @@
       <c r="P67" s="93">
         <v>1</v>
       </c>
-      <c r="Q67" s="99">
+      <c r="Q67" s="100">
         <v>1</v>
       </c>
       <c r="R67" s="55">
@@ -7897,7 +7900,7 @@
       <c r="T67" s="92">
         <v>0</v>
       </c>
-      <c r="U67" s="141">
+      <c r="U67" s="142">
         <v>7</v>
       </c>
       <c r="V67" s="95"/>
@@ -7907,7 +7910,7 @@
       <c r="Z67" s="96"/>
     </row>
     <row r="68" ht="15.15" spans="1:26">
-      <c r="A68" s="141" t="s">
+      <c r="A68" s="142" t="s">
         <v>142</v>
       </c>
       <c r="B68" s="95" t="s">
@@ -7946,7 +7949,7 @@
       <c r="M68" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="N68" s="127" t="s">
+      <c r="N68" s="128" t="s">
         <v>47</v>
       </c>
       <c r="O68" s="92" t="s">
@@ -7955,7 +7958,7 @@
       <c r="P68" s="93">
         <v>2</v>
       </c>
-      <c r="Q68" s="99">
+      <c r="Q68" s="100">
         <v>1</v>
       </c>
       <c r="R68" s="55">
@@ -7964,10 +7967,10 @@
       <c r="S68" s="30">
         <v>0</v>
       </c>
-      <c r="T68" s="100">
-        <v>0</v>
-      </c>
-      <c r="U68" s="141">
+      <c r="T68" s="101">
+        <v>0</v>
+      </c>
+      <c r="U68" s="142">
         <v>12</v>
       </c>
       <c r="V68" s="95"/>
@@ -8011,11 +8014,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -8025,7 +8028,7 @@
     <col min="13" max="13" width="11.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.55" spans="1:13">
+    <row r="1" ht="15.15" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8066,7 +8069,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" hidden="1" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -8107,7 +8110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="15.15" spans="1:13">
+    <row r="3" ht="15.15" hidden="1" spans="1:13">
       <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
@@ -8148,7 +8151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="43.2" spans="1:13">
+    <row r="4" ht="28.8" hidden="1" spans="1:13">
       <c r="A4" s="9" t="s">
         <v>31</v>
       </c>
@@ -8189,7 +8192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="43.2" spans="1:13">
+    <row r="5" ht="28.8" hidden="1" spans="1:13">
       <c r="A5" s="10" t="s">
         <v>31</v>
       </c>
@@ -8230,7 +8233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="43.95" spans="1:13">
+    <row r="6" ht="29.55" hidden="1" spans="1:13">
       <c r="A6" s="14" t="s">
         <v>31</v>
       </c>
@@ -8271,7 +8274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" hidden="1" spans="1:13">
       <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
@@ -8312,7 +8315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" hidden="1" spans="1:13">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
@@ -8353,7 +8356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="15.15" spans="1:13">
+    <row r="9" ht="15.15" hidden="1" spans="1:13">
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
@@ -8394,7 +8397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="43.2" spans="1:13">
+    <row r="10" ht="28.8" hidden="1" spans="1:13">
       <c r="A10" s="9" t="s">
         <v>41</v>
       </c>
@@ -8435,7 +8438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="43.2" spans="1:13">
+    <row r="11" ht="28.8" hidden="1" spans="1:13">
       <c r="A11" s="10" t="s">
         <v>41</v>
       </c>
@@ -8476,7 +8479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="43.95" spans="1:13">
+    <row r="12" ht="29.55" hidden="1" spans="1:13">
       <c r="A12" s="10" t="s">
         <v>41</v>
       </c>
@@ -8517,7 +8520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="57.6" spans="1:13">
+    <row r="13" ht="29.55" spans="1:13">
       <c r="A13" s="9" t="s">
         <v>44</v>
       </c>
@@ -8558,7 +8561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="57.6" spans="1:13">
+    <row r="14" ht="28.8" hidden="1" spans="1:13">
       <c r="A14" s="10" t="s">
         <v>44</v>
       </c>
@@ -8599,7 +8602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="57.6" spans="1:13">
+    <row r="15" ht="28.8" hidden="1" spans="1:13">
       <c r="A15" s="10" t="s">
         <v>44</v>
       </c>
@@ -8640,7 +8643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="58.35" spans="1:13">
+    <row r="16" ht="29.55" hidden="1" spans="1:13">
       <c r="A16" s="14" t="s">
         <v>44</v>
       </c>
@@ -8763,7 +8766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="28.8" spans="1:13">
+    <row r="19" ht="29.55" spans="1:13">
       <c r="A19" s="10" t="s">
         <v>51</v>
       </c>
@@ -8804,7 +8807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="28.8" spans="1:13">
+    <row r="20" ht="28.8" hidden="1" spans="1:13">
       <c r="A20" s="10" t="s">
         <v>51</v>
       </c>
@@ -8845,7 +8848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="28.8" spans="1:13">
+    <row r="21" ht="28.8" hidden="1" spans="1:13">
       <c r="A21" s="10" t="s">
         <v>51</v>
       </c>
@@ -8886,7 +8889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="29.55" spans="1:13">
+    <row r="22" ht="29.55" hidden="1" spans="1:13">
       <c r="A22" s="10" t="s">
         <v>51</v>
       </c>
@@ -8927,7 +8930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="58.35" spans="1:13">
+    <row r="23" ht="28.8" spans="1:13">
       <c r="A23" s="29" t="s">
         <v>65</v>
       </c>
@@ -9009,7 +9012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" ht="15.15" spans="1:13">
       <c r="A25" s="17" t="s">
         <v>67</v>
       </c>
@@ -9050,7 +9053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" hidden="1" spans="1:13">
       <c r="A26" s="17" t="s">
         <v>67</v>
       </c>
@@ -9091,7 +9094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" hidden="1" spans="1:13">
       <c r="A27" s="17" t="s">
         <v>67</v>
       </c>
@@ -9132,7 +9135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" hidden="1" spans="1:13">
       <c r="A28" s="17" t="s">
         <v>67</v>
       </c>
@@ -9173,7 +9176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" hidden="1" spans="1:13">
       <c r="A29" s="17" t="s">
         <v>67</v>
       </c>
@@ -9214,7 +9217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="15.15" spans="1:13">
+    <row r="30" ht="15.15" hidden="1" spans="1:13">
       <c r="A30" s="17" t="s">
         <v>67</v>
       </c>
@@ -9255,7 +9258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="57.6" spans="1:13">
+    <row r="31" ht="28.8" spans="1:13">
       <c r="A31" s="9" t="s">
         <v>78</v>
       </c>
@@ -9296,7 +9299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="58.35" spans="1:13">
+    <row r="32" ht="29.55" spans="1:13">
       <c r="A32" s="14" t="s">
         <v>78</v>
       </c>
@@ -9337,7 +9340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="57.6" spans="1:13">
+    <row r="33" ht="29.55" spans="1:13">
       <c r="A33" s="10" t="s">
         <v>80</v>
       </c>
@@ -9378,7 +9381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="57.6" spans="1:13">
+    <row r="34" ht="28.8" hidden="1" spans="1:13">
       <c r="A34" s="10" t="s">
         <v>80</v>
       </c>
@@ -9419,7 +9422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="57.6" spans="1:13">
+    <row r="35" ht="28.8" hidden="1" spans="1:13">
       <c r="A35" s="10" t="s">
         <v>80</v>
       </c>
@@ -9460,7 +9463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="58.35" spans="1:13">
+    <row r="36" ht="29.55" hidden="1" spans="1:13">
       <c r="A36" s="14" t="s">
         <v>80</v>
       </c>
@@ -9501,7 +9504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" hidden="1" spans="1:13">
       <c r="A37" s="2" t="s">
         <v>85</v>
       </c>
@@ -9542,7 +9545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" hidden="1" spans="1:13">
       <c r="A38" s="17" t="s">
         <v>85</v>
       </c>
@@ -9583,7 +9586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="15.15" spans="1:13">
+    <row r="39" ht="15.15" hidden="1" spans="1:13">
       <c r="A39" s="17" t="s">
         <v>85</v>
       </c>
@@ -9624,7 +9627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="57.6" spans="1:13">
+    <row r="40" ht="29.55" spans="1:13">
       <c r="A40" s="9" t="s">
         <v>87</v>
       </c>
@@ -9665,7 +9668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="57.6" spans="1:13">
+    <row r="41" ht="28.8" hidden="1" spans="1:13">
       <c r="A41" s="10" t="s">
         <v>87</v>
       </c>
@@ -9706,7 +9709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="57.6" spans="1:13">
+    <row r="42" ht="28.8" hidden="1" spans="1:13">
       <c r="A42" s="10" t="s">
         <v>87</v>
       </c>
@@ -9747,7 +9750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="58.35" spans="1:13">
+    <row r="43" ht="29.55" hidden="1" spans="1:13">
       <c r="A43" s="14" t="s">
         <v>87</v>
       </c>
@@ -9788,7 +9791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="58.35" spans="1:13">
+    <row r="44" ht="29.55" spans="1:13">
       <c r="A44" s="29" t="s">
         <v>91</v>
       </c>
@@ -9829,7 +9832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" hidden="1" spans="1:13">
       <c r="A45" s="17" t="s">
         <v>95</v>
       </c>
@@ -9870,7 +9873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" hidden="1" spans="1:13">
       <c r="A46" s="17" t="s">
         <v>95</v>
       </c>
@@ -9911,7 +9914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="15.15" spans="1:13">
+    <row r="47" ht="15.15" hidden="1" spans="1:13">
       <c r="A47" s="6" t="s">
         <v>95</v>
       </c>
@@ -9952,7 +9955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" hidden="1" spans="1:13">
       <c r="A48" s="2" t="s">
         <v>101</v>
       </c>
@@ -9993,7 +9996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" hidden="1" spans="1:13">
       <c r="A49" s="17" t="s">
         <v>101</v>
       </c>
@@ -10034,7 +10037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="15.15" spans="1:13">
+    <row r="50" ht="15.15" hidden="1" spans="1:13">
       <c r="A50" s="6" t="s">
         <v>101</v>
       </c>
@@ -10075,7 +10078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" ht="72" spans="1:13">
+    <row r="51" ht="43.2" hidden="1" spans="1:13">
       <c r="A51" s="9" t="s">
         <v>108</v>
       </c>
@@ -10116,7 +10119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="72" spans="1:13">
+    <row r="52" ht="43.2" hidden="1" spans="1:13">
       <c r="A52" s="10" t="s">
         <v>108</v>
       </c>
@@ -10157,7 +10160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" ht="72.75" spans="1:13">
+    <row r="53" ht="43.95" hidden="1" spans="1:13">
       <c r="A53" s="14" t="s">
         <v>108</v>
       </c>
@@ -10198,7 +10201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" hidden="1" spans="1:13">
       <c r="A54" s="2" t="s">
         <v>115</v>
       </c>
@@ -10239,7 +10242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" hidden="1" spans="1:13">
       <c r="A55" s="17" t="s">
         <v>115</v>
       </c>
@@ -10280,7 +10283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" ht="15.15" spans="1:13">
+    <row r="56" ht="15.15" hidden="1" spans="1:13">
       <c r="A56" s="6" t="s">
         <v>115</v>
       </c>
@@ -10321,7 +10324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="72" spans="1:13">
+    <row r="57" ht="28.8" hidden="1" spans="1:13">
       <c r="A57" s="9" t="s">
         <v>122</v>
       </c>
@@ -10362,7 +10365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" ht="72" spans="1:13">
+    <row r="58" ht="28.8" hidden="1" spans="1:13">
       <c r="A58" s="10" t="s">
         <v>122</v>
       </c>
@@ -10403,7 +10406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" ht="72.75" spans="1:13">
+    <row r="59" ht="29.55" hidden="1" spans="1:13">
       <c r="A59" s="10" t="s">
         <v>122</v>
       </c>
@@ -10526,7 +10529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" ht="15.15" spans="1:13">
       <c r="A62" s="17" t="s">
         <v>130</v>
       </c>
@@ -10567,7 +10570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" hidden="1" spans="1:13">
       <c r="A63" s="17" t="s">
         <v>130</v>
       </c>
@@ -10608,7 +10611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" hidden="1" spans="1:13">
       <c r="A64" s="17" t="s">
         <v>130</v>
       </c>
@@ -10649,7 +10652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" ht="15.15" spans="1:13">
+    <row r="65" ht="15.15" hidden="1" spans="1:13">
       <c r="A65" s="6" t="s">
         <v>130</v>
       </c>
@@ -10672,7 +10675,7 @@
         <v>37</v>
       </c>
       <c r="H65" s="91">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I65" s="97">
         <v>7</v>
@@ -10686,11 +10689,11 @@
       <c r="L65" s="19">
         <v>0</v>
       </c>
-      <c r="M65" s="91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" ht="58.35" spans="1:13">
+      <c r="M65" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" ht="29.55" spans="1:13">
       <c r="A66" s="29" t="s">
         <v>140</v>
       </c>
@@ -10718,7 +10721,7 @@
       <c r="I66" s="93">
         <v>1</v>
       </c>
-      <c r="J66" s="99">
+      <c r="J66" s="100">
         <v>1</v>
       </c>
       <c r="K66" s="55">
@@ -10759,7 +10762,7 @@
       <c r="I67" s="93">
         <v>2</v>
       </c>
-      <c r="J67" s="99">
+      <c r="J67" s="100">
         <v>1</v>
       </c>
       <c r="K67" s="55">
@@ -10768,11 +10771,19 @@
       <c r="L67" s="30">
         <v>0</v>
       </c>
-      <c r="M67" s="100">
+      <c r="M67" s="101">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:M67" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="2021"/>
+      </filters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>

--- a/Mussel_Cancer/R_calc_Magadn_2023/Data/summary table_Magadan_itog.xlsx
+++ b/Mussel_Cancer/R_calc_Magadn_2023/Data/summary table_Magadan_itog.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">table!$A$2:$Z$68</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">data!$A$1:$M$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">data!$A$1:$N$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -868,7 +868,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="149">
   <si>
     <t>Site</t>
   </si>
@@ -1332,7 +1332,10 @@
     <t>Lon</t>
   </si>
   <si>
-    <t xml:space="preserve">BTN2.SAM       </t>
+    <t>Double</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTN_X3      </t>
   </si>
 </sst>
 </file>
@@ -1542,23 +1545,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1629,12 +1644,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2247,7 +2256,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2271,16 +2280,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2289,89 +2298,89 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2571,225 +2580,309 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2799,6 +2892,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2808,6 +2904,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2831,6 +2930,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3210,86 +3315,86 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.15" spans="1:26">
-      <c r="A1" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="103" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="103" t="s">
+      <c r="A1" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="102" t="s">
+      <c r="E1" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="104" t="s">
+      <c r="H1" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="102" t="s">
+      <c r="I1" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="J1" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="103" t="s">
+      <c r="K1" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="103" t="s">
+      <c r="L1" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="103" t="s">
+      <c r="M1" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="111" t="s">
+      <c r="N1" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="111" t="s">
+      <c r="O1" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="102" t="s">
+      <c r="P1" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="129" t="s">
+      <c r="Q1" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
-      <c r="T1" s="130"/>
-      <c r="U1" s="131" t="s">
+      <c r="R1" s="154"/>
+      <c r="S1" s="154"/>
+      <c r="T1" s="154"/>
+      <c r="U1" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="146"/>
+      <c r="V1" s="156"/>
+      <c r="W1" s="156"/>
+      <c r="X1" s="156"/>
+      <c r="Y1" s="156"/>
+      <c r="Z1" s="176"/>
     </row>
     <row r="2" ht="30.75" customHeight="1" spans="1:26">
-      <c r="A2" s="105"/>
+      <c r="A2" s="125"/>
       <c r="B2" s="66"/>
       <c r="C2" s="66"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="105"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="125"/>
       <c r="F2" s="66"/>
       <c r="G2" s="66"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="105"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="125"/>
       <c r="J2" s="66"/>
       <c r="K2" s="66"/>
       <c r="L2" s="66"/>
       <c r="M2" s="66"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="105"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="125"/>
       <c r="Q2" s="65" t="s">
         <v>18</v>
       </c>
@@ -3302,22 +3407,22 @@
       <c r="T2" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="102" t="s">
+      <c r="U2" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="103" t="s">
+      <c r="V2" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="W2" s="103" t="s">
+      <c r="W2" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="103" t="s">
+      <c r="X2" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="147" t="s">
+      <c r="Y2" s="177" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" s="148" t="s">
+      <c r="Z2" s="178" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3361,7 +3466,7 @@
       <c r="M3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="113" t="s">
+      <c r="N3" s="133" t="s">
         <v>28</v>
       </c>
       <c r="O3" s="4" t="s">
@@ -3370,7 +3475,7 @@
       <c r="P3" s="48">
         <v>0</v>
       </c>
-      <c r="Q3" s="67">
+      <c r="Q3" s="157">
         <v>0</v>
       </c>
       <c r="R3" s="11">
@@ -3382,12 +3487,12 @@
       <c r="T3" s="12">
         <v>0</v>
       </c>
-      <c r="U3" s="133"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="86"/>
+      <c r="U3" s="158"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="102"/>
     </row>
     <row r="4" ht="15.15" spans="1:26">
       <c r="A4" s="54" t="s">
@@ -3429,7 +3534,7 @@
       <c r="M4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="114" t="s">
+      <c r="N4" s="134" t="s">
         <v>28</v>
       </c>
       <c r="O4" s="12" t="s">
@@ -3438,7 +3543,7 @@
       <c r="P4" s="54">
         <v>0</v>
       </c>
-      <c r="Q4" s="68">
+      <c r="Q4" s="159">
         <v>0</v>
       </c>
       <c r="R4" s="7">
@@ -3450,15 +3555,15 @@
       <c r="T4" s="12">
         <v>0</v>
       </c>
-      <c r="U4" s="134"/>
-      <c r="V4" s="135"/>
-      <c r="W4" s="135"/>
-      <c r="X4" s="135"/>
-      <c r="Y4" s="135"/>
-      <c r="Z4" s="149"/>
+      <c r="U4" s="160"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="161"/>
+      <c r="Z4" s="179"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:26">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="127" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3497,7 +3602,7 @@
       <c r="M5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="113" t="s">
+      <c r="N5" s="133" t="s">
         <v>28</v>
       </c>
       <c r="O5" s="4" t="s">
@@ -3506,7 +3611,7 @@
       <c r="P5" s="47">
         <v>1</v>
       </c>
-      <c r="Q5" s="69">
+      <c r="Q5" s="162">
         <v>0</v>
       </c>
       <c r="R5" s="3">
@@ -3518,17 +3623,17 @@
       <c r="T5" s="4">
         <v>0</v>
       </c>
-      <c r="U5" s="133"/>
-      <c r="V5" s="85"/>
-      <c r="W5" s="85" t="s">
+      <c r="U5" s="158"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="85"/>
-      <c r="Z5" s="86"/>
+      <c r="X5" s="101"/>
+      <c r="Y5" s="101"/>
+      <c r="Z5" s="102"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:26">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="128" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -3567,7 +3672,7 @@
       <c r="M6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="114" t="s">
+      <c r="N6" s="134" t="s">
         <v>28</v>
       </c>
       <c r="O6" s="12" t="s">
@@ -3576,7 +3681,7 @@
       <c r="P6" s="48">
         <v>4</v>
       </c>
-      <c r="Q6" s="67">
+      <c r="Q6" s="157">
         <v>2</v>
       </c>
       <c r="R6" s="11">
@@ -3588,21 +3693,21 @@
       <c r="T6" s="12">
         <v>0</v>
       </c>
-      <c r="U6" s="136" t="s">
+      <c r="U6" s="163" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="137" t="s">
+      <c r="V6" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="W6" s="137" t="s">
+      <c r="W6" s="164" t="s">
         <v>36</v>
       </c>
-      <c r="X6" s="137"/>
-      <c r="Y6" s="137"/>
-      <c r="Z6" s="150"/>
+      <c r="X6" s="164"/>
+      <c r="Y6" s="164"/>
+      <c r="Z6" s="180"/>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:26">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="129" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3641,7 +3746,7 @@
       <c r="M7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="115" t="s">
+      <c r="N7" s="135" t="s">
         <v>28</v>
       </c>
       <c r="O7" s="8" t="s">
@@ -3650,7 +3755,7 @@
       <c r="P7" s="54">
         <v>0</v>
       </c>
-      <c r="Q7" s="68">
+      <c r="Q7" s="159">
         <v>0</v>
       </c>
       <c r="R7" s="7">
@@ -3662,12 +3767,12 @@
       <c r="T7" s="8">
         <v>0</v>
       </c>
-      <c r="U7" s="134"/>
-      <c r="V7" s="135"/>
-      <c r="W7" s="135"/>
-      <c r="X7" s="135"/>
-      <c r="Y7" s="135"/>
-      <c r="Z7" s="149"/>
+      <c r="U7" s="160"/>
+      <c r="V7" s="161"/>
+      <c r="W7" s="161"/>
+      <c r="X7" s="161"/>
+      <c r="Y7" s="161"/>
+      <c r="Z7" s="179"/>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="47" t="s">
@@ -3709,16 +3814,16 @@
       <c r="M8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="116" t="s">
+      <c r="N8" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="117" t="s">
+      <c r="O8" s="137" t="s">
         <v>40</v>
       </c>
       <c r="P8" s="47">
         <v>0</v>
       </c>
-      <c r="Q8" s="69">
+      <c r="Q8" s="162">
         <v>0</v>
       </c>
       <c r="R8" s="3">
@@ -3730,12 +3835,12 @@
       <c r="T8" s="4">
         <v>0</v>
       </c>
-      <c r="U8" s="133"/>
-      <c r="V8" s="85"/>
-      <c r="W8" s="85"/>
-      <c r="X8" s="85"/>
-      <c r="Y8" s="85"/>
-      <c r="Z8" s="86"/>
+      <c r="U8" s="158"/>
+      <c r="V8" s="101"/>
+      <c r="W8" s="101"/>
+      <c r="X8" s="101"/>
+      <c r="Y8" s="101"/>
+      <c r="Z8" s="102"/>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="48" t="s">
@@ -3777,16 +3882,16 @@
       <c r="M9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="114" t="s">
+      <c r="N9" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="117" t="s">
+      <c r="O9" s="137" t="s">
         <v>40</v>
       </c>
       <c r="P9" s="48">
         <v>0</v>
       </c>
-      <c r="Q9" s="67">
+      <c r="Q9" s="157">
         <v>0</v>
       </c>
       <c r="R9" s="11">
@@ -3798,12 +3903,12 @@
       <c r="T9" s="12">
         <v>0</v>
       </c>
-      <c r="U9" s="136"/>
-      <c r="V9" s="137"/>
-      <c r="W9" s="137"/>
-      <c r="X9" s="137"/>
-      <c r="Y9" s="137"/>
-      <c r="Z9" s="150"/>
+      <c r="U9" s="163"/>
+      <c r="V9" s="164"/>
+      <c r="W9" s="164"/>
+      <c r="X9" s="164"/>
+      <c r="Y9" s="164"/>
+      <c r="Z9" s="180"/>
     </row>
     <row r="10" ht="15.15" spans="1:26">
       <c r="A10" s="54" t="s">
@@ -3845,16 +3950,16 @@
       <c r="M10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="115" t="s">
+      <c r="N10" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="O10" s="118" t="s">
+      <c r="O10" s="138" t="s">
         <v>40</v>
       </c>
       <c r="P10" s="54">
         <v>0</v>
       </c>
-      <c r="Q10" s="68">
+      <c r="Q10" s="159">
         <v>0</v>
       </c>
       <c r="R10" s="7">
@@ -3866,15 +3971,15 @@
       <c r="T10" s="8">
         <v>0</v>
       </c>
-      <c r="U10" s="134"/>
-      <c r="V10" s="135"/>
-      <c r="W10" s="135"/>
-      <c r="X10" s="135"/>
-      <c r="Y10" s="135"/>
-      <c r="Z10" s="149"/>
+      <c r="U10" s="160"/>
+      <c r="V10" s="161"/>
+      <c r="W10" s="161"/>
+      <c r="X10" s="161"/>
+      <c r="Y10" s="161"/>
+      <c r="Z10" s="179"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="127" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -3913,7 +4018,7 @@
       <c r="M11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N11" s="113" t="s">
+      <c r="N11" s="133" t="s">
         <v>28</v>
       </c>
       <c r="O11" s="4" t="s">
@@ -3922,7 +4027,7 @@
       <c r="P11" s="47">
         <v>1</v>
       </c>
-      <c r="Q11" s="69">
+      <c r="Q11" s="162">
         <v>0</v>
       </c>
       <c r="R11" s="3">
@@ -3934,17 +4039,17 @@
       <c r="T11" s="4">
         <v>0</v>
       </c>
-      <c r="U11" s="133"/>
-      <c r="V11" s="85" t="s">
+      <c r="U11" s="158"/>
+      <c r="V11" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="W11" s="85"/>
-      <c r="X11" s="85"/>
-      <c r="Y11" s="85"/>
-      <c r="Z11" s="86"/>
+      <c r="W11" s="101"/>
+      <c r="X11" s="101"/>
+      <c r="Y11" s="101"/>
+      <c r="Z11" s="102"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="128" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -3983,7 +4088,7 @@
       <c r="M12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="114" t="s">
+      <c r="N12" s="134" t="s">
         <v>28</v>
       </c>
       <c r="O12" s="12" t="s">
@@ -3992,7 +4097,7 @@
       <c r="P12" s="48">
         <v>0</v>
       </c>
-      <c r="Q12" s="67">
+      <c r="Q12" s="157">
         <v>0</v>
       </c>
       <c r="R12" s="11">
@@ -4004,15 +4109,15 @@
       <c r="T12" s="12">
         <v>0</v>
       </c>
-      <c r="U12" s="136"/>
-      <c r="V12" s="137"/>
-      <c r="W12" s="137"/>
-      <c r="X12" s="137"/>
-      <c r="Y12" s="137"/>
-      <c r="Z12" s="150"/>
+      <c r="U12" s="163"/>
+      <c r="V12" s="164"/>
+      <c r="W12" s="164"/>
+      <c r="X12" s="164"/>
+      <c r="Y12" s="164"/>
+      <c r="Z12" s="180"/>
     </row>
     <row r="13" ht="15.15" spans="1:26">
-      <c r="A13" s="108" t="s">
+      <c r="A13" s="128" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -4051,7 +4156,7 @@
       <c r="M13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="115" t="s">
+      <c r="N13" s="135" t="s">
         <v>28</v>
       </c>
       <c r="O13" s="8" t="s">
@@ -4060,7 +4165,7 @@
       <c r="P13" s="54">
         <v>0</v>
       </c>
-      <c r="Q13" s="68">
+      <c r="Q13" s="159">
         <v>0</v>
       </c>
       <c r="R13" s="7">
@@ -4072,15 +4177,15 @@
       <c r="T13" s="8">
         <v>0</v>
       </c>
-      <c r="U13" s="134"/>
-      <c r="V13" s="135"/>
-      <c r="W13" s="135"/>
-      <c r="X13" s="135"/>
-      <c r="Y13" s="135"/>
-      <c r="Z13" s="149"/>
+      <c r="U13" s="160"/>
+      <c r="V13" s="161"/>
+      <c r="W13" s="161"/>
+      <c r="X13" s="161"/>
+      <c r="Y13" s="161"/>
+      <c r="Z13" s="179"/>
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:26">
-      <c r="A14" s="107" t="s">
+      <c r="A14" s="127" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -4116,19 +4221,19 @@
       <c r="L14" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="119" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" s="120" t="s">
+      <c r="M14" s="139" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="O14" s="119" t="s">
+      <c r="O14" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="P14" s="70">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="71">
+      <c r="P14" s="80">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="81">
         <v>0</v>
       </c>
       <c r="R14" s="23">
@@ -4140,15 +4245,15 @@
       <c r="T14" s="49">
         <v>0</v>
       </c>
-      <c r="U14" s="138"/>
-      <c r="V14" s="139"/>
-      <c r="W14" s="139"/>
-      <c r="X14" s="139"/>
-      <c r="Y14" s="139"/>
-      <c r="Z14" s="151"/>
+      <c r="U14" s="165"/>
+      <c r="V14" s="166"/>
+      <c r="W14" s="166"/>
+      <c r="X14" s="166"/>
+      <c r="Y14" s="166"/>
+      <c r="Z14" s="181"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:26">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="128" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -4187,40 +4292,40 @@
       <c r="M15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N15" s="114" t="s">
+      <c r="N15" s="134" t="s">
         <v>28</v>
       </c>
       <c r="O15" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P15" s="72">
+      <c r="P15" s="88">
         <v>2</v>
       </c>
-      <c r="Q15" s="73">
+      <c r="Q15" s="89">
         <v>0</v>
       </c>
       <c r="R15" s="24">
         <v>1</v>
       </c>
-      <c r="S15" s="74">
-        <v>1</v>
-      </c>
-      <c r="T15" s="75">
-        <v>0</v>
-      </c>
-      <c r="U15" s="136"/>
-      <c r="V15" s="137" t="s">
+      <c r="S15" s="167">
+        <v>1</v>
+      </c>
+      <c r="T15" s="151">
+        <v>0</v>
+      </c>
+      <c r="U15" s="163"/>
+      <c r="V15" s="164" t="s">
         <v>49</v>
       </c>
-      <c r="W15" s="137" t="s">
+      <c r="W15" s="164" t="s">
         <v>50</v>
       </c>
-      <c r="X15" s="137"/>
-      <c r="Y15" s="137"/>
-      <c r="Z15" s="150"/>
+      <c r="X15" s="164"/>
+      <c r="Y15" s="164"/>
+      <c r="Z15" s="180"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="128" t="s">
         <v>44</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -4259,16 +4364,16 @@
       <c r="M16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N16" s="114" t="s">
+      <c r="N16" s="134" t="s">
         <v>28</v>
       </c>
       <c r="O16" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P16" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="67">
+      <c r="P16" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="157">
         <v>0</v>
       </c>
       <c r="R16" s="11">
@@ -4280,15 +4385,15 @@
       <c r="T16" s="12">
         <v>0</v>
       </c>
-      <c r="U16" s="136"/>
-      <c r="V16" s="137"/>
-      <c r="W16" s="137"/>
-      <c r="X16" s="137"/>
-      <c r="Y16" s="137"/>
-      <c r="Z16" s="150"/>
+      <c r="U16" s="163"/>
+      <c r="V16" s="164"/>
+      <c r="W16" s="164"/>
+      <c r="X16" s="164"/>
+      <c r="Y16" s="164"/>
+      <c r="Z16" s="180"/>
     </row>
     <row r="17" ht="15.15" spans="1:26">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="129" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -4327,16 +4432,16 @@
       <c r="M17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N17" s="115" t="s">
+      <c r="N17" s="135" t="s">
         <v>28</v>
       </c>
       <c r="O17" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="P17" s="76">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="68">
+      <c r="P17" s="141">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="159">
         <v>0</v>
       </c>
       <c r="R17" s="7">
@@ -4348,15 +4453,15 @@
       <c r="T17" s="8">
         <v>0</v>
       </c>
-      <c r="U17" s="134"/>
-      <c r="V17" s="135"/>
-      <c r="W17" s="135"/>
-      <c r="X17" s="135"/>
-      <c r="Y17" s="135"/>
-      <c r="Z17" s="149"/>
+      <c r="U17" s="160"/>
+      <c r="V17" s="161"/>
+      <c r="W17" s="161"/>
+      <c r="X17" s="161"/>
+      <c r="Y17" s="161"/>
+      <c r="Z17" s="179"/>
     </row>
     <row r="18" ht="15" customHeight="1" spans="1:26">
-      <c r="A18" s="108" t="s">
+      <c r="A18" s="128" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="18" t="s">
@@ -4395,16 +4500,16 @@
       <c r="M18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N18" s="113" t="s">
+      <c r="N18" s="133" t="s">
         <v>47</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P18" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="78">
+      <c r="P18" s="85">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="86">
         <v>0</v>
       </c>
       <c r="R18" s="34">
@@ -4416,17 +4521,17 @@
       <c r="T18" s="35">
         <v>0</v>
       </c>
-      <c r="U18" s="133"/>
-      <c r="V18" s="85">
+      <c r="U18" s="158"/>
+      <c r="V18" s="101">
         <v>52</v>
       </c>
-      <c r="W18" s="85"/>
-      <c r="X18" s="85"/>
-      <c r="Y18" s="85"/>
-      <c r="Z18" s="86"/>
+      <c r="W18" s="101"/>
+      <c r="X18" s="101"/>
+      <c r="Y18" s="101"/>
+      <c r="Z18" s="102"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="128" t="s">
         <v>51</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -4465,16 +4570,16 @@
       <c r="M19" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="121" t="s">
+      <c r="N19" s="142" t="s">
         <v>54</v>
       </c>
       <c r="O19" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="P19" s="72">
+      <c r="P19" s="88">
         <v>4</v>
       </c>
-      <c r="Q19" s="73">
+      <c r="Q19" s="89">
         <v>2</v>
       </c>
       <c r="R19" s="24">
@@ -4486,21 +4591,21 @@
       <c r="T19" s="40">
         <v>0</v>
       </c>
-      <c r="U19" s="136" t="s">
+      <c r="U19" s="163" t="s">
         <v>56</v>
       </c>
-      <c r="V19" s="137">
+      <c r="V19" s="164">
         <v>13</v>
       </c>
-      <c r="W19" s="137">
+      <c r="W19" s="164">
         <v>49</v>
       </c>
-      <c r="X19" s="137"/>
-      <c r="Y19" s="137"/>
-      <c r="Z19" s="150"/>
+      <c r="X19" s="164"/>
+      <c r="Y19" s="164"/>
+      <c r="Z19" s="180"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="128" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="18" t="s">
@@ -4536,41 +4641,41 @@
       <c r="L20" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="M20" s="122" t="s">
-        <v>29</v>
-      </c>
-      <c r="N20" s="123" t="s">
+      <c r="M20" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="O20" s="124" t="s">
+      <c r="O20" s="145" t="s">
         <v>55</v>
       </c>
-      <c r="P20" s="79">
+      <c r="P20" s="91">
         <v>2</v>
       </c>
-      <c r="Q20" s="80">
+      <c r="Q20" s="92">
         <v>2</v>
       </c>
-      <c r="R20" s="81">
-        <v>0</v>
-      </c>
-      <c r="S20" s="81">
+      <c r="R20" s="94">
+        <v>0</v>
+      </c>
+      <c r="S20" s="94">
         <v>0</v>
       </c>
       <c r="T20" s="38">
         <v>0</v>
       </c>
-      <c r="U20" s="140" t="s">
+      <c r="U20" s="168" t="s">
         <v>58</v>
       </c>
-      <c r="V20" s="87"/>
-      <c r="W20" s="87"/>
-      <c r="X20" s="87"/>
-      <c r="Y20" s="87"/>
-      <c r="Z20" s="88"/>
+      <c r="V20" s="103"/>
+      <c r="W20" s="103"/>
+      <c r="X20" s="103"/>
+      <c r="Y20" s="103"/>
+      <c r="Z20" s="104"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="108" t="s">
+      <c r="A21" s="128" t="s">
         <v>51</v>
       </c>
       <c r="B21" s="18" t="s">
@@ -4609,16 +4714,16 @@
       <c r="M21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N21" s="114" t="s">
+      <c r="N21" s="134" t="s">
         <v>28</v>
       </c>
       <c r="O21" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P21" s="72">
+      <c r="P21" s="88">
         <v>3</v>
       </c>
-      <c r="Q21" s="73">
+      <c r="Q21" s="89">
         <v>0</v>
       </c>
       <c r="R21" s="24">
@@ -4630,19 +4735,19 @@
       <c r="T21" s="12">
         <v>1</v>
       </c>
-      <c r="U21" s="136"/>
-      <c r="V21" s="137"/>
-      <c r="W21" s="137"/>
-      <c r="X21" s="137" t="s">
+      <c r="U21" s="163"/>
+      <c r="V21" s="164"/>
+      <c r="W21" s="164"/>
+      <c r="X21" s="164" t="s">
         <v>59</v>
       </c>
-      <c r="Y21" s="137" t="s">
+      <c r="Y21" s="164" t="s">
         <v>60</v>
       </c>
-      <c r="Z21" s="150"/>
+      <c r="Z21" s="180"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="108" t="s">
+      <c r="A22" s="128" t="s">
         <v>51</v>
       </c>
       <c r="B22" s="18" t="s">
@@ -4681,16 +4786,16 @@
       <c r="M22" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N22" s="114" t="s">
+      <c r="N22" s="134" t="s">
         <v>28</v>
       </c>
       <c r="O22" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P22" s="72">
+      <c r="P22" s="88">
         <v>3</v>
       </c>
-      <c r="Q22" s="73">
+      <c r="Q22" s="89">
         <v>0</v>
       </c>
       <c r="R22" s="24">
@@ -4702,19 +4807,19 @@
       <c r="T22" s="12">
         <v>0</v>
       </c>
-      <c r="U22" s="136"/>
-      <c r="V22" s="137"/>
-      <c r="W22" s="137" t="s">
+      <c r="U22" s="163"/>
+      <c r="V22" s="164"/>
+      <c r="W22" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="X22" s="137"/>
-      <c r="Y22" s="137" t="s">
+      <c r="X22" s="164"/>
+      <c r="Y22" s="164" t="s">
         <v>62</v>
       </c>
-      <c r="Z22" s="150"/>
+      <c r="Z22" s="180"/>
     </row>
     <row r="23" ht="15.15" spans="1:26">
-      <c r="A23" s="108" t="s">
+      <c r="A23" s="128" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="18" t="s">
@@ -4753,16 +4858,16 @@
       <c r="M23" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N23" s="115" t="s">
+      <c r="N23" s="135" t="s">
         <v>28</v>
       </c>
       <c r="O23" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="P23" s="72">
+      <c r="P23" s="88">
         <v>5</v>
       </c>
-      <c r="Q23" s="73">
+      <c r="Q23" s="89">
         <v>0</v>
       </c>
       <c r="R23" s="24">
@@ -4774,19 +4879,19 @@
       <c r="T23" s="12">
         <v>0</v>
       </c>
-      <c r="U23" s="134"/>
-      <c r="V23" s="135"/>
-      <c r="W23" s="141" t="s">
+      <c r="U23" s="160"/>
+      <c r="V23" s="161"/>
+      <c r="W23" s="169" t="s">
         <v>63</v>
       </c>
-      <c r="X23" s="135"/>
-      <c r="Y23" s="135" t="s">
+      <c r="X23" s="161"/>
+      <c r="Y23" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="Z23" s="149"/>
+      <c r="Z23" s="179"/>
     </row>
     <row r="24" ht="15" customHeight="1" spans="1:26">
-      <c r="A24" s="110" t="s">
+      <c r="A24" s="130" t="s">
         <v>65</v>
       </c>
       <c r="B24" s="30" t="s">
@@ -4825,16 +4930,16 @@
       <c r="M24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N24" s="120" t="s">
+      <c r="N24" s="140" t="s">
         <v>47</v>
       </c>
       <c r="O24" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="P24" s="82">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="83">
+      <c r="P24" s="95">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="96">
         <v>0</v>
       </c>
       <c r="R24" s="57">
@@ -4846,14 +4951,14 @@
       <c r="T24" s="58">
         <v>0</v>
       </c>
-      <c r="U24" s="142"/>
-      <c r="V24" s="95">
-        <v>29</v>
-      </c>
-      <c r="W24" s="95"/>
-      <c r="X24" s="95"/>
-      <c r="Y24" s="95"/>
-      <c r="Z24" s="96"/>
+      <c r="U24" s="170"/>
+      <c r="V24" s="113">
+        <v>29</v>
+      </c>
+      <c r="W24" s="113"/>
+      <c r="X24" s="113"/>
+      <c r="Y24" s="113"/>
+      <c r="Z24" s="114"/>
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="47" t="s">
@@ -4895,16 +5000,16 @@
       <c r="M25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N25" s="113" t="s">
+      <c r="N25" s="133" t="s">
         <v>47</v>
       </c>
       <c r="O25" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P25" s="77">
+      <c r="P25" s="85">
         <v>2</v>
       </c>
-      <c r="Q25" s="78">
+      <c r="Q25" s="86">
         <v>1</v>
       </c>
       <c r="R25" s="34">
@@ -4916,16 +5021,16 @@
       <c r="T25" s="35">
         <v>0</v>
       </c>
-      <c r="U25" s="133">
+      <c r="U25" s="158">
         <v>43</v>
       </c>
-      <c r="V25" s="85">
+      <c r="V25" s="101">
         <v>20</v>
       </c>
-      <c r="W25" s="85"/>
-      <c r="X25" s="85"/>
-      <c r="Y25" s="85"/>
-      <c r="Z25" s="86"/>
+      <c r="W25" s="101"/>
+      <c r="X25" s="101"/>
+      <c r="Y25" s="101"/>
+      <c r="Z25" s="102"/>
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="48" t="s">
@@ -4967,39 +5072,39 @@
       <c r="M26" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="N26" s="123" t="s">
+      <c r="N26" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="O26" s="124" t="s">
+      <c r="O26" s="145" t="s">
         <v>55</v>
       </c>
-      <c r="P26" s="79">
+      <c r="P26" s="91">
         <v>6</v>
       </c>
-      <c r="Q26" s="80">
-        <v>1</v>
-      </c>
-      <c r="R26" s="81">
+      <c r="Q26" s="92">
+        <v>1</v>
+      </c>
+      <c r="R26" s="94">
         <v>3</v>
       </c>
-      <c r="S26" s="81">
+      <c r="S26" s="94">
         <v>2</v>
       </c>
       <c r="T26" s="38">
         <v>0</v>
       </c>
-      <c r="U26" s="140">
+      <c r="U26" s="168">
         <v>30</v>
       </c>
-      <c r="V26" s="87" t="s">
+      <c r="V26" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="W26" s="87" t="s">
+      <c r="W26" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="X26" s="87"/>
-      <c r="Y26" s="87"/>
-      <c r="Z26" s="88"/>
+      <c r="X26" s="103"/>
+      <c r="Y26" s="103"/>
+      <c r="Z26" s="104"/>
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="48" t="s">
@@ -5041,16 +5146,16 @@
       <c r="M27" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N27" s="114" t="s">
+      <c r="N27" s="134" t="s">
         <v>28</v>
       </c>
       <c r="O27" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="P27" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="73">
+      <c r="P27" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="89">
         <v>0</v>
       </c>
       <c r="R27" s="24">
@@ -5062,12 +5167,12 @@
       <c r="T27" s="40">
         <v>0</v>
       </c>
-      <c r="U27" s="136"/>
-      <c r="V27" s="137"/>
-      <c r="W27" s="137"/>
-      <c r="X27" s="137"/>
-      <c r="Y27" s="137"/>
-      <c r="Z27" s="150"/>
+      <c r="U27" s="163"/>
+      <c r="V27" s="164"/>
+      <c r="W27" s="164"/>
+      <c r="X27" s="164"/>
+      <c r="Y27" s="164"/>
+      <c r="Z27" s="180"/>
     </row>
     <row r="28" spans="1:26">
       <c r="A28" s="48" t="s">
@@ -5109,16 +5214,16 @@
       <c r="M28" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N28" s="114" t="s">
+      <c r="N28" s="134" t="s">
         <v>28</v>
       </c>
       <c r="O28" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="P28" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="73">
+      <c r="P28" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="89">
         <v>0</v>
       </c>
       <c r="R28" s="24">
@@ -5130,12 +5235,12 @@
       <c r="T28" s="40">
         <v>0</v>
       </c>
-      <c r="U28" s="136"/>
-      <c r="V28" s="137"/>
-      <c r="W28" s="137"/>
-      <c r="X28" s="137"/>
-      <c r="Y28" s="137"/>
-      <c r="Z28" s="150"/>
+      <c r="U28" s="163"/>
+      <c r="V28" s="164"/>
+      <c r="W28" s="164"/>
+      <c r="X28" s="164"/>
+      <c r="Y28" s="164"/>
+      <c r="Z28" s="180"/>
     </row>
     <row r="29" spans="1:26">
       <c r="A29" s="48" t="s">
@@ -5177,16 +5282,16 @@
       <c r="M29" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N29" s="114" t="s">
+      <c r="N29" s="134" t="s">
         <v>28</v>
       </c>
       <c r="O29" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="P29" s="72">
+      <c r="P29" s="88">
         <v>2</v>
       </c>
-      <c r="Q29" s="73">
+      <c r="Q29" s="89">
         <v>1</v>
       </c>
       <c r="R29" s="24">
@@ -5198,16 +5303,16 @@
       <c r="T29" s="40">
         <v>0</v>
       </c>
-      <c r="U29" s="136" t="s">
+      <c r="U29" s="163" t="s">
         <v>71</v>
       </c>
-      <c r="V29" s="137" t="s">
+      <c r="V29" s="164" t="s">
         <v>72</v>
       </c>
-      <c r="W29" s="137"/>
-      <c r="X29" s="137"/>
-      <c r="Y29" s="137"/>
-      <c r="Z29" s="150"/>
+      <c r="W29" s="164"/>
+      <c r="X29" s="164"/>
+      <c r="Y29" s="164"/>
+      <c r="Z29" s="180"/>
     </row>
     <row r="30" spans="1:26">
       <c r="A30" s="48" t="s">
@@ -5249,16 +5354,16 @@
       <c r="M30" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N30" s="114" t="s">
+      <c r="N30" s="134" t="s">
         <v>28</v>
       </c>
       <c r="O30" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="P30" s="72">
+      <c r="P30" s="88">
         <v>2</v>
       </c>
-      <c r="Q30" s="73">
+      <c r="Q30" s="89">
         <v>0</v>
       </c>
       <c r="R30" s="24">
@@ -5270,16 +5375,16 @@
       <c r="T30" s="12">
         <v>0</v>
       </c>
-      <c r="U30" s="136"/>
-      <c r="V30" s="137" t="s">
+      <c r="U30" s="163"/>
+      <c r="V30" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="W30" s="137" t="s">
+      <c r="W30" s="164" t="s">
         <v>75</v>
       </c>
-      <c r="X30" s="137"/>
-      <c r="Y30" s="137"/>
-      <c r="Z30" s="150"/>
+      <c r="X30" s="164"/>
+      <c r="Y30" s="164"/>
+      <c r="Z30" s="180"/>
     </row>
     <row r="31" ht="15.15" spans="1:26">
       <c r="A31" s="48" t="s">
@@ -5321,16 +5426,16 @@
       <c r="M31" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N31" s="115" t="s">
+      <c r="N31" s="135" t="s">
         <v>28</v>
       </c>
       <c r="O31" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="P31" s="76">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="84">
+      <c r="P31" s="141">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="171">
         <v>1</v>
       </c>
       <c r="R31" s="25">
@@ -5342,17 +5447,17 @@
       <c r="T31" s="8">
         <v>0</v>
       </c>
-      <c r="U31" s="134" t="s">
+      <c r="U31" s="160" t="s">
         <v>77</v>
       </c>
-      <c r="V31" s="135"/>
-      <c r="W31" s="135"/>
-      <c r="X31" s="135"/>
-      <c r="Y31" s="135"/>
-      <c r="Z31" s="149"/>
+      <c r="V31" s="161"/>
+      <c r="W31" s="161"/>
+      <c r="X31" s="161"/>
+      <c r="Y31" s="161"/>
+      <c r="Z31" s="179"/>
     </row>
     <row r="32" ht="15" customHeight="1" spans="1:26">
-      <c r="A32" s="107" t="s">
+      <c r="A32" s="127" t="s">
         <v>78</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -5391,16 +5496,16 @@
       <c r="M32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N32" s="113" t="s">
+      <c r="N32" s="133" t="s">
         <v>47</v>
       </c>
       <c r="O32" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P32" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="78">
+      <c r="P32" s="85">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="86">
         <v>1</v>
       </c>
       <c r="R32" s="34">
@@ -5412,17 +5517,17 @@
       <c r="T32" s="35">
         <v>0</v>
       </c>
-      <c r="U32" s="133">
+      <c r="U32" s="158">
         <v>59</v>
       </c>
-      <c r="V32" s="85"/>
-      <c r="W32" s="85"/>
-      <c r="X32" s="85"/>
-      <c r="Y32" s="85"/>
-      <c r="Z32" s="86"/>
+      <c r="V32" s="101"/>
+      <c r="W32" s="101"/>
+      <c r="X32" s="101"/>
+      <c r="Y32" s="101"/>
+      <c r="Z32" s="102"/>
     </row>
     <row r="33" ht="15.15" spans="1:26">
-      <c r="A33" s="109" t="s">
+      <c r="A33" s="129" t="s">
         <v>78</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -5461,16 +5566,16 @@
       <c r="M33" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N33" s="125" t="s">
+      <c r="N33" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="O33" s="99" t="s">
+      <c r="O33" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="P33" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="73">
+      <c r="P33" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="89">
         <v>0</v>
       </c>
       <c r="R33" s="24">
@@ -5482,15 +5587,15 @@
       <c r="T33" s="40">
         <v>0</v>
       </c>
-      <c r="U33" s="134"/>
-      <c r="V33" s="135"/>
-      <c r="W33" s="135"/>
-      <c r="X33" s="135"/>
-      <c r="Y33" s="135"/>
-      <c r="Z33" s="149"/>
+      <c r="U33" s="160"/>
+      <c r="V33" s="161"/>
+      <c r="W33" s="161"/>
+      <c r="X33" s="161"/>
+      <c r="Y33" s="161"/>
+      <c r="Z33" s="179"/>
     </row>
     <row r="34" spans="1:26">
-      <c r="A34" s="108" t="s">
+      <c r="A34" s="128" t="s">
         <v>80</v>
       </c>
       <c r="B34" s="11" t="s">
@@ -5529,16 +5634,16 @@
       <c r="M34" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="N34" s="120" t="s">
+      <c r="N34" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="119" t="s">
+      <c r="O34" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="P34" s="70">
+      <c r="P34" s="80">
         <v>3</v>
       </c>
-      <c r="Q34" s="71">
+      <c r="Q34" s="81">
         <v>1</v>
       </c>
       <c r="R34" s="23">
@@ -5550,19 +5655,19 @@
       <c r="T34" s="49">
         <v>0</v>
       </c>
-      <c r="U34" s="138">
+      <c r="U34" s="165">
         <v>41</v>
       </c>
-      <c r="V34" s="139"/>
-      <c r="W34" s="139"/>
-      <c r="X34" s="139"/>
-      <c r="Y34" s="139" t="s">
+      <c r="V34" s="166"/>
+      <c r="W34" s="166"/>
+      <c r="X34" s="166"/>
+      <c r="Y34" s="166" t="s">
         <v>82</v>
       </c>
-      <c r="Z34" s="151"/>
+      <c r="Z34" s="181"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="108" t="s">
+      <c r="A35" s="128" t="s">
         <v>80</v>
       </c>
       <c r="B35" s="11" t="s">
@@ -5586,7 +5691,7 @@
       <c r="H35" s="46">
         <v>32</v>
       </c>
-      <c r="I35" s="126" t="s">
+      <c r="I35" s="148" t="s">
         <v>29</v>
       </c>
       <c r="J35" s="26" t="s">
@@ -5601,16 +5706,16 @@
       <c r="M35" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="N35" s="114" t="s">
+      <c r="N35" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="O35" s="127" t="s">
+      <c r="O35" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="P35" s="72">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="73">
+      <c r="P35" s="88">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="89">
         <v>0</v>
       </c>
       <c r="R35" s="24">
@@ -5622,17 +5727,17 @@
       <c r="T35" s="12">
         <v>0</v>
       </c>
-      <c r="U35" s="136"/>
-      <c r="V35" s="137"/>
-      <c r="W35" s="137"/>
-      <c r="X35" s="137"/>
-      <c r="Y35" s="137" t="s">
+      <c r="U35" s="163"/>
+      <c r="V35" s="164"/>
+      <c r="W35" s="164"/>
+      <c r="X35" s="164"/>
+      <c r="Y35" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="Z35" s="150"/>
+      <c r="Z35" s="180"/>
     </row>
     <row r="36" spans="1:26">
-      <c r="A36" s="108" t="s">
+      <c r="A36" s="128" t="s">
         <v>80</v>
       </c>
       <c r="B36" s="11" t="s">
@@ -5671,16 +5776,16 @@
       <c r="M36" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N36" s="114" t="s">
+      <c r="N36" s="134" t="s">
         <v>28</v>
       </c>
       <c r="O36" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P36" s="72">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="73">
+      <c r="P36" s="88">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="89">
         <v>1</v>
       </c>
       <c r="R36" s="24">
@@ -5692,17 +5797,17 @@
       <c r="T36" s="12">
         <v>0</v>
       </c>
-      <c r="U36" s="136" t="s">
+      <c r="U36" s="163" t="s">
         <v>84</v>
       </c>
-      <c r="V36" s="137"/>
-      <c r="W36" s="137"/>
-      <c r="X36" s="137"/>
-      <c r="Y36" s="137"/>
-      <c r="Z36" s="150"/>
+      <c r="V36" s="164"/>
+      <c r="W36" s="164"/>
+      <c r="X36" s="164"/>
+      <c r="Y36" s="164"/>
+      <c r="Z36" s="180"/>
     </row>
     <row r="37" ht="15.15" spans="1:26">
-      <c r="A37" s="109" t="s">
+      <c r="A37" s="129" t="s">
         <v>80</v>
       </c>
       <c r="B37" s="7" t="s">
@@ -5741,16 +5846,16 @@
       <c r="M37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N37" s="115" t="s">
+      <c r="N37" s="135" t="s">
         <v>28</v>
       </c>
       <c r="O37" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="P37" s="76">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="84">
+      <c r="P37" s="141">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="171">
         <v>0</v>
       </c>
       <c r="R37" s="25">
@@ -5762,12 +5867,12 @@
       <c r="T37" s="8">
         <v>0</v>
       </c>
-      <c r="U37" s="134"/>
-      <c r="V37" s="135"/>
-      <c r="W37" s="135"/>
-      <c r="X37" s="135"/>
-      <c r="Y37" s="135"/>
-      <c r="Z37" s="149"/>
+      <c r="U37" s="160"/>
+      <c r="V37" s="161"/>
+      <c r="W37" s="161"/>
+      <c r="X37" s="161"/>
+      <c r="Y37" s="161"/>
+      <c r="Z37" s="179"/>
     </row>
     <row r="38" spans="1:26">
       <c r="A38" s="47" t="s">
@@ -5809,16 +5914,16 @@
       <c r="M38" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N38" s="113" t="s">
+      <c r="N38" s="133" t="s">
         <v>28</v>
       </c>
       <c r="O38" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P38" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="69">
+      <c r="P38" s="85">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="162">
         <v>0</v>
       </c>
       <c r="R38" s="3">
@@ -5830,12 +5935,12 @@
       <c r="T38" s="4">
         <v>0</v>
       </c>
-      <c r="U38" s="133"/>
-      <c r="V38" s="85"/>
-      <c r="W38" s="85"/>
-      <c r="X38" s="85"/>
-      <c r="Y38" s="85"/>
-      <c r="Z38" s="86"/>
+      <c r="U38" s="158"/>
+      <c r="V38" s="101"/>
+      <c r="W38" s="101"/>
+      <c r="X38" s="101"/>
+      <c r="Y38" s="101"/>
+      <c r="Z38" s="102"/>
     </row>
     <row r="39" spans="1:26">
       <c r="A39" s="48" t="s">
@@ -5877,16 +5982,16 @@
       <c r="M39" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N39" s="114" t="s">
+      <c r="N39" s="134" t="s">
         <v>28</v>
       </c>
       <c r="O39" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P39" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="67">
+      <c r="P39" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="157">
         <v>0</v>
       </c>
       <c r="R39" s="11">
@@ -5898,12 +6003,12 @@
       <c r="T39" s="12">
         <v>0</v>
       </c>
-      <c r="U39" s="136"/>
-      <c r="V39" s="137"/>
-      <c r="W39" s="137"/>
-      <c r="X39" s="137"/>
-      <c r="Y39" s="137"/>
-      <c r="Z39" s="150"/>
+      <c r="U39" s="163"/>
+      <c r="V39" s="164"/>
+      <c r="W39" s="164"/>
+      <c r="X39" s="164"/>
+      <c r="Y39" s="164"/>
+      <c r="Z39" s="180"/>
     </row>
     <row r="40" ht="15.15" spans="1:26">
       <c r="A40" s="48" t="s">
@@ -5945,16 +6050,16 @@
       <c r="M40" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N40" s="115" t="s">
+      <c r="N40" s="135" t="s">
         <v>28</v>
       </c>
       <c r="O40" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P40" s="76">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="68">
+      <c r="P40" s="141">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="159">
         <v>0</v>
       </c>
       <c r="R40" s="7">
@@ -5966,15 +6071,15 @@
       <c r="T40" s="8">
         <v>0</v>
       </c>
-      <c r="U40" s="134"/>
-      <c r="V40" s="135"/>
-      <c r="W40" s="135"/>
-      <c r="X40" s="135"/>
-      <c r="Y40" s="135"/>
-      <c r="Z40" s="149"/>
+      <c r="U40" s="160"/>
+      <c r="V40" s="161"/>
+      <c r="W40" s="161"/>
+      <c r="X40" s="161"/>
+      <c r="Y40" s="161"/>
+      <c r="Z40" s="179"/>
     </row>
     <row r="41" spans="1:26">
-      <c r="A41" s="107" t="s">
+      <c r="A41" s="127" t="s">
         <v>87</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -6013,16 +6118,16 @@
       <c r="M41" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="N41" s="120" t="s">
+      <c r="N41" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="O41" s="119" t="s">
+      <c r="O41" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="P41" s="70">
+      <c r="P41" s="80">
         <v>3</v>
       </c>
-      <c r="Q41" s="71">
+      <c r="Q41" s="81">
         <v>3</v>
       </c>
       <c r="R41" s="23">
@@ -6034,17 +6139,17 @@
       <c r="T41" s="49">
         <v>0</v>
       </c>
-      <c r="U41" s="138" t="s">
+      <c r="U41" s="165" t="s">
         <v>89</v>
       </c>
-      <c r="V41" s="139"/>
-      <c r="W41" s="139"/>
-      <c r="X41" s="139"/>
-      <c r="Y41" s="139"/>
-      <c r="Z41" s="151"/>
+      <c r="V41" s="166"/>
+      <c r="W41" s="166"/>
+      <c r="X41" s="166"/>
+      <c r="Y41" s="166"/>
+      <c r="Z41" s="181"/>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="108" t="s">
+      <c r="A42" s="128" t="s">
         <v>87</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -6083,16 +6188,16 @@
       <c r="M42" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N42" s="114" t="s">
+      <c r="N42" s="134" t="s">
         <v>28</v>
       </c>
       <c r="O42" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P42" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="73">
+      <c r="P42" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="89">
         <v>0</v>
       </c>
       <c r="R42" s="24">
@@ -6104,15 +6209,15 @@
       <c r="T42" s="40">
         <v>0</v>
       </c>
-      <c r="U42" s="136"/>
-      <c r="V42" s="137"/>
-      <c r="W42" s="137"/>
-      <c r="X42" s="137"/>
-      <c r="Y42" s="137"/>
-      <c r="Z42" s="150"/>
+      <c r="U42" s="163"/>
+      <c r="V42" s="164"/>
+      <c r="W42" s="164"/>
+      <c r="X42" s="164"/>
+      <c r="Y42" s="164"/>
+      <c r="Z42" s="180"/>
     </row>
     <row r="43" spans="1:26">
-      <c r="A43" s="108" t="s">
+      <c r="A43" s="128" t="s">
         <v>87</v>
       </c>
       <c r="B43" s="11" t="s">
@@ -6151,16 +6256,16 @@
       <c r="M43" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N43" s="114" t="s">
+      <c r="N43" s="134" t="s">
         <v>28</v>
       </c>
       <c r="O43" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P43" s="72">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="73">
+      <c r="P43" s="88">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="89">
         <v>1</v>
       </c>
       <c r="R43" s="24">
@@ -6172,17 +6277,17 @@
       <c r="T43" s="40">
         <v>0</v>
       </c>
-      <c r="U43" s="136" t="s">
+      <c r="U43" s="163" t="s">
         <v>84</v>
       </c>
-      <c r="V43" s="137"/>
-      <c r="W43" s="137"/>
-      <c r="X43" s="137"/>
-      <c r="Y43" s="137"/>
-      <c r="Z43" s="150"/>
+      <c r="V43" s="164"/>
+      <c r="W43" s="164"/>
+      <c r="X43" s="164"/>
+      <c r="Y43" s="164"/>
+      <c r="Z43" s="180"/>
     </row>
     <row r="44" ht="15.15" spans="1:26">
-      <c r="A44" s="109" t="s">
+      <c r="A44" s="129" t="s">
         <v>87</v>
       </c>
       <c r="B44" s="7" t="s">
@@ -6221,16 +6326,16 @@
       <c r="M44" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N44" s="115" t="s">
+      <c r="N44" s="135" t="s">
         <v>28</v>
       </c>
       <c r="O44" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="P44" s="76">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="84">
+      <c r="P44" s="141">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="171">
         <v>0</v>
       </c>
       <c r="R44" s="25">
@@ -6242,17 +6347,17 @@
       <c r="T44" s="44">
         <v>0</v>
       </c>
-      <c r="U44" s="134"/>
-      <c r="V44" s="135" t="s">
+      <c r="U44" s="160"/>
+      <c r="V44" s="161" t="s">
         <v>90</v>
       </c>
-      <c r="W44" s="135"/>
-      <c r="X44" s="135"/>
-      <c r="Y44" s="135"/>
-      <c r="Z44" s="149"/>
+      <c r="W44" s="161"/>
+      <c r="X44" s="161"/>
+      <c r="Y44" s="161"/>
+      <c r="Z44" s="179"/>
     </row>
     <row r="45" ht="15.15" spans="1:26">
-      <c r="A45" s="110" t="s">
+      <c r="A45" s="130" t="s">
         <v>91</v>
       </c>
       <c r="B45" s="55" t="s">
@@ -6276,7 +6381,7 @@
       <c r="H45" s="58">
         <v>64</v>
       </c>
-      <c r="I45" s="93" t="s">
+      <c r="I45" s="111" t="s">
         <v>29</v>
       </c>
       <c r="J45" s="55" t="s">
@@ -6291,16 +6396,16 @@
       <c r="M45" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="N45" s="128" t="s">
+      <c r="N45" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="O45" s="92" t="s">
+      <c r="O45" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="P45" s="82">
+      <c r="P45" s="95">
         <v>6</v>
       </c>
-      <c r="Q45" s="83">
+      <c r="Q45" s="96">
         <v>3</v>
       </c>
       <c r="R45" s="57">
@@ -6312,18 +6417,18 @@
       <c r="T45" s="58">
         <v>0</v>
       </c>
-      <c r="U45" s="142" t="s">
+      <c r="U45" s="170" t="s">
         <v>93</v>
       </c>
-      <c r="V45" s="95" t="s">
+      <c r="V45" s="113" t="s">
         <v>94</v>
       </c>
-      <c r="W45" s="95">
+      <c r="W45" s="113">
         <v>32</v>
       </c>
-      <c r="X45" s="95"/>
-      <c r="Y45" s="95"/>
-      <c r="Z45" s="96"/>
+      <c r="X45" s="113"/>
+      <c r="Y45" s="113"/>
+      <c r="Z45" s="114"/>
     </row>
     <row r="46" spans="1:26">
       <c r="A46" s="48" t="s">
@@ -6365,16 +6470,16 @@
       <c r="M46" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N46" s="113" t="s">
+      <c r="N46" s="133" t="s">
         <v>28</v>
       </c>
       <c r="O46" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P46" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="78">
+      <c r="P46" s="85">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="86">
         <v>0</v>
       </c>
       <c r="R46" s="34">
@@ -6386,12 +6491,12 @@
       <c r="T46" s="4">
         <v>0</v>
       </c>
-      <c r="U46" s="133"/>
-      <c r="V46" s="85"/>
-      <c r="W46" s="85"/>
-      <c r="X46" s="85"/>
-      <c r="Y46" s="85"/>
-      <c r="Z46" s="86"/>
+      <c r="U46" s="158"/>
+      <c r="V46" s="101"/>
+      <c r="W46" s="101"/>
+      <c r="X46" s="101"/>
+      <c r="Y46" s="101"/>
+      <c r="Z46" s="102"/>
     </row>
     <row r="47" spans="1:26">
       <c r="A47" s="48" t="s">
@@ -6433,16 +6538,16 @@
       <c r="M47" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N47" s="114" t="s">
+      <c r="N47" s="134" t="s">
         <v>28</v>
       </c>
       <c r="O47" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P47" s="72">
+      <c r="P47" s="88">
         <v>7</v>
       </c>
-      <c r="Q47" s="73">
+      <c r="Q47" s="89">
         <v>4</v>
       </c>
       <c r="R47" s="24">
@@ -6454,18 +6559,18 @@
       <c r="T47" s="12">
         <v>0</v>
       </c>
-      <c r="U47" s="143" t="s">
+      <c r="U47" s="172" t="s">
         <v>97</v>
       </c>
-      <c r="V47" s="137" t="s">
+      <c r="V47" s="164" t="s">
         <v>98</v>
       </c>
-      <c r="W47" s="137" t="s">
+      <c r="W47" s="164" t="s">
         <v>99</v>
       </c>
-      <c r="X47" s="137"/>
-      <c r="Y47" s="137"/>
-      <c r="Z47" s="150"/>
+      <c r="X47" s="164"/>
+      <c r="Y47" s="164"/>
+      <c r="Z47" s="180"/>
     </row>
     <row r="48" ht="15.15" spans="1:26">
       <c r="A48" s="54" t="s">
@@ -6507,16 +6612,16 @@
       <c r="M48" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="115" t="s">
+      <c r="N48" s="135" t="s">
         <v>28</v>
       </c>
       <c r="O48" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="P48" s="76">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="84">
+      <c r="P48" s="141">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="171">
         <v>1</v>
       </c>
       <c r="R48" s="25">
@@ -6528,14 +6633,14 @@
       <c r="T48" s="8">
         <v>0</v>
       </c>
-      <c r="U48" s="134" t="s">
+      <c r="U48" s="160" t="s">
         <v>100</v>
       </c>
-      <c r="V48" s="135"/>
-      <c r="W48" s="135"/>
-      <c r="X48" s="135"/>
-      <c r="Y48" s="135"/>
-      <c r="Z48" s="149"/>
+      <c r="V48" s="161"/>
+      <c r="W48" s="161"/>
+      <c r="X48" s="161"/>
+      <c r="Y48" s="161"/>
+      <c r="Z48" s="179"/>
     </row>
     <row r="49" spans="1:26">
       <c r="A49" s="47" t="s">
@@ -6577,16 +6682,16 @@
       <c r="M49" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N49" s="113" t="s">
+      <c r="N49" s="133" t="s">
         <v>28</v>
       </c>
       <c r="O49" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P49" s="77">
+      <c r="P49" s="85">
         <v>4</v>
       </c>
-      <c r="Q49" s="78">
+      <c r="Q49" s="86">
         <v>3</v>
       </c>
       <c r="R49" s="34">
@@ -6598,16 +6703,16 @@
       <c r="T49" s="4">
         <v>0</v>
       </c>
-      <c r="U49" s="133" t="s">
+      <c r="U49" s="158" t="s">
         <v>103</v>
       </c>
-      <c r="V49" s="85"/>
-      <c r="W49" s="85"/>
-      <c r="X49" s="85"/>
-      <c r="Y49" s="85" t="s">
+      <c r="V49" s="101"/>
+      <c r="W49" s="101"/>
+      <c r="X49" s="101"/>
+      <c r="Y49" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="Z49" s="86"/>
+      <c r="Z49" s="102"/>
     </row>
     <row r="50" spans="1:26">
       <c r="A50" s="48" t="s">
@@ -6649,16 +6754,16 @@
       <c r="M50" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N50" s="114" t="s">
+      <c r="N50" s="134" t="s">
         <v>28</v>
       </c>
       <c r="O50" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P50" s="72">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="73">
+      <c r="P50" s="88">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="89">
         <v>0</v>
       </c>
       <c r="R50" s="24">
@@ -6670,14 +6775,14 @@
       <c r="T50" s="12">
         <v>0</v>
       </c>
-      <c r="U50" s="136"/>
-      <c r="V50" s="137" t="s">
+      <c r="U50" s="163"/>
+      <c r="V50" s="164" t="s">
         <v>105</v>
       </c>
-      <c r="W50" s="137"/>
-      <c r="X50" s="137"/>
-      <c r="Y50" s="137"/>
-      <c r="Z50" s="150"/>
+      <c r="W50" s="164"/>
+      <c r="X50" s="164"/>
+      <c r="Y50" s="164"/>
+      <c r="Z50" s="180"/>
     </row>
     <row r="51" ht="15.15" spans="1:26">
       <c r="A51" s="54" t="s">
@@ -6719,16 +6824,16 @@
       <c r="M51" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N51" s="115" t="s">
+      <c r="N51" s="135" t="s">
         <v>28</v>
       </c>
       <c r="O51" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="P51" s="76">
+      <c r="P51" s="141">
         <v>2</v>
       </c>
-      <c r="Q51" s="84">
+      <c r="Q51" s="171">
         <v>1</v>
       </c>
       <c r="R51" s="25">
@@ -6740,19 +6845,19 @@
       <c r="T51" s="8">
         <v>0</v>
       </c>
-      <c r="U51" s="134" t="s">
+      <c r="U51" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="V51" s="135"/>
-      <c r="W51" s="135"/>
-      <c r="X51" s="135"/>
-      <c r="Y51" s="135" t="s">
+      <c r="V51" s="161"/>
+      <c r="W51" s="161"/>
+      <c r="X51" s="161"/>
+      <c r="Y51" s="161" t="s">
         <v>107</v>
       </c>
-      <c r="Z51" s="149"/>
+      <c r="Z51" s="179"/>
     </row>
     <row r="52" ht="15" customHeight="1" spans="1:26">
-      <c r="A52" s="107" t="s">
+      <c r="A52" s="127" t="s">
         <v>108</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -6791,16 +6896,16 @@
       <c r="M52" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N52" s="113" t="s">
+      <c r="N52" s="133" t="s">
         <v>28</v>
       </c>
       <c r="O52" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P52" s="77">
+      <c r="P52" s="85">
         <v>6</v>
       </c>
-      <c r="Q52" s="78">
+      <c r="Q52" s="86">
         <v>4</v>
       </c>
       <c r="R52" s="34">
@@ -6812,21 +6917,21 @@
       <c r="T52" s="4">
         <v>0</v>
       </c>
-      <c r="U52" s="144" t="s">
+      <c r="U52" s="173" t="s">
         <v>110</v>
       </c>
-      <c r="V52" s="85" t="s">
+      <c r="V52" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="W52" s="85" t="s">
+      <c r="W52" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="X52" s="85"/>
-      <c r="Y52" s="85"/>
-      <c r="Z52" s="86"/>
+      <c r="X52" s="101"/>
+      <c r="Y52" s="101"/>
+      <c r="Z52" s="102"/>
     </row>
     <row r="53" spans="1:26">
-      <c r="A53" s="108" t="s">
+      <c r="A53" s="128" t="s">
         <v>108</v>
       </c>
       <c r="B53" s="11" t="s">
@@ -6865,16 +6970,16 @@
       <c r="M53" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N53" s="114" t="s">
+      <c r="N53" s="134" t="s">
         <v>28</v>
       </c>
       <c r="O53" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P53" s="72">
+      <c r="P53" s="88">
         <v>2</v>
       </c>
-      <c r="Q53" s="73">
+      <c r="Q53" s="89">
         <v>0</v>
       </c>
       <c r="R53" s="24">
@@ -6886,19 +6991,19 @@
       <c r="T53" s="12">
         <v>0</v>
       </c>
-      <c r="U53" s="136"/>
-      <c r="V53" s="137"/>
-      <c r="W53" s="137" t="s">
+      <c r="U53" s="163"/>
+      <c r="V53" s="164"/>
+      <c r="W53" s="164" t="s">
         <v>112</v>
       </c>
-      <c r="X53" s="137"/>
-      <c r="Y53" s="137" t="s">
+      <c r="X53" s="164"/>
+      <c r="Y53" s="164" t="s">
         <v>113</v>
       </c>
-      <c r="Z53" s="150"/>
+      <c r="Z53" s="180"/>
     </row>
     <row r="54" ht="15.15" spans="1:26">
-      <c r="A54" s="109" t="s">
+      <c r="A54" s="129" t="s">
         <v>108</v>
       </c>
       <c r="B54" s="7" t="s">
@@ -6937,16 +7042,16 @@
       <c r="M54" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N54" s="115" t="s">
+      <c r="N54" s="135" t="s">
         <v>28</v>
       </c>
       <c r="O54" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="P54" s="76">
+      <c r="P54" s="141">
         <v>3</v>
       </c>
-      <c r="Q54" s="84">
+      <c r="Q54" s="171">
         <v>3</v>
       </c>
       <c r="R54" s="25">
@@ -6958,14 +7063,14 @@
       <c r="T54" s="8">
         <v>0</v>
       </c>
-      <c r="U54" s="134" t="s">
+      <c r="U54" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="V54" s="135"/>
-      <c r="W54" s="135"/>
-      <c r="X54" s="135"/>
-      <c r="Y54" s="135"/>
-      <c r="Z54" s="149"/>
+      <c r="V54" s="161"/>
+      <c r="W54" s="161"/>
+      <c r="X54" s="161"/>
+      <c r="Y54" s="161"/>
+      <c r="Z54" s="179"/>
     </row>
     <row r="55" spans="1:26">
       <c r="A55" s="47" t="s">
@@ -7007,16 +7112,16 @@
       <c r="M55" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N55" s="113" t="s">
+      <c r="N55" s="133" t="s">
         <v>28</v>
       </c>
       <c r="O55" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P55" s="77">
+      <c r="P55" s="85">
         <v>2</v>
       </c>
-      <c r="Q55" s="78">
+      <c r="Q55" s="86">
         <v>0</v>
       </c>
       <c r="R55" s="34">
@@ -7028,16 +7133,16 @@
       <c r="T55" s="4">
         <v>0</v>
       </c>
-      <c r="U55" s="133"/>
-      <c r="V55" s="85" t="s">
+      <c r="U55" s="158"/>
+      <c r="V55" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="W55" s="85"/>
-      <c r="X55" s="85"/>
-      <c r="Y55" s="85" t="s">
+      <c r="W55" s="101"/>
+      <c r="X55" s="101"/>
+      <c r="Y55" s="101" t="s">
         <v>117</v>
       </c>
-      <c r="Z55" s="86"/>
+      <c r="Z55" s="102"/>
     </row>
     <row r="56" spans="1:26">
       <c r="A56" s="48" t="s">
@@ -7079,16 +7184,16 @@
       <c r="M56" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N56" s="114" t="s">
+      <c r="N56" s="134" t="s">
         <v>28</v>
       </c>
       <c r="O56" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P56" s="72">
-        <v>1</v>
-      </c>
-      <c r="Q56" s="73">
+      <c r="P56" s="88">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="89">
         <v>0</v>
       </c>
       <c r="R56" s="24">
@@ -7100,14 +7205,14 @@
       <c r="T56" s="12">
         <v>0</v>
       </c>
-      <c r="U56" s="136"/>
-      <c r="V56" s="137" t="s">
+      <c r="U56" s="163"/>
+      <c r="V56" s="164" t="s">
         <v>118</v>
       </c>
-      <c r="W56" s="137"/>
-      <c r="X56" s="137"/>
-      <c r="Y56" s="137"/>
-      <c r="Z56" s="150"/>
+      <c r="W56" s="164"/>
+      <c r="X56" s="164"/>
+      <c r="Y56" s="164"/>
+      <c r="Z56" s="180"/>
     </row>
     <row r="57" ht="15.15" spans="1:26">
       <c r="A57" s="54" t="s">
@@ -7149,16 +7254,16 @@
       <c r="M57" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N57" s="115" t="s">
+      <c r="N57" s="135" t="s">
         <v>28</v>
       </c>
       <c r="O57" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="P57" s="76">
+      <c r="P57" s="141">
         <v>5</v>
       </c>
-      <c r="Q57" s="84">
+      <c r="Q57" s="171">
         <v>1</v>
       </c>
       <c r="R57" s="25">
@@ -7170,21 +7275,21 @@
       <c r="T57" s="8">
         <v>0</v>
       </c>
-      <c r="U57" s="134" t="s">
+      <c r="U57" s="160" t="s">
         <v>119</v>
       </c>
-      <c r="V57" s="135" t="s">
+      <c r="V57" s="161" t="s">
         <v>120</v>
       </c>
-      <c r="W57" s="135"/>
-      <c r="X57" s="135"/>
-      <c r="Y57" s="135" t="s">
+      <c r="W57" s="161"/>
+      <c r="X57" s="161"/>
+      <c r="Y57" s="161" t="s">
         <v>121</v>
       </c>
-      <c r="Z57" s="149"/>
+      <c r="Z57" s="179"/>
     </row>
     <row r="58" spans="1:26">
-      <c r="A58" s="107" t="s">
+      <c r="A58" s="127" t="s">
         <v>122</v>
       </c>
       <c r="B58" s="59" t="s">
@@ -7223,16 +7328,16 @@
       <c r="M58" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N58" s="113" t="s">
+      <c r="N58" s="133" t="s">
         <v>28</v>
       </c>
       <c r="O58" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P58" s="77">
+      <c r="P58" s="85">
         <v>6</v>
       </c>
-      <c r="Q58" s="78">
+      <c r="Q58" s="86">
         <v>2</v>
       </c>
       <c r="R58" s="34">
@@ -7244,23 +7349,23 @@
       <c r="T58" s="4">
         <v>0</v>
       </c>
-      <c r="U58" s="133" t="s">
+      <c r="U58" s="158" t="s">
         <v>124</v>
       </c>
-      <c r="V58" s="85" t="s">
+      <c r="V58" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="W58" s="85" t="s">
+      <c r="W58" s="101" t="s">
         <v>126</v>
       </c>
-      <c r="X58" s="85"/>
-      <c r="Y58" s="85" t="s">
+      <c r="X58" s="101"/>
+      <c r="Y58" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="Z58" s="86"/>
+      <c r="Z58" s="102"/>
     </row>
     <row r="59" spans="1:26">
-      <c r="A59" s="108" t="s">
+      <c r="A59" s="128" t="s">
         <v>122</v>
       </c>
       <c r="B59" s="61" t="s">
@@ -7299,16 +7404,16 @@
       <c r="M59" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N59" s="114" t="s">
+      <c r="N59" s="134" t="s">
         <v>28</v>
       </c>
       <c r="O59" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P59" s="72">
-        <v>1</v>
-      </c>
-      <c r="Q59" s="73">
+      <c r="P59" s="88">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="89">
         <v>0</v>
       </c>
       <c r="R59" s="24">
@@ -7320,17 +7425,17 @@
       <c r="T59" s="12">
         <v>0</v>
       </c>
-      <c r="U59" s="136"/>
-      <c r="V59" s="137"/>
-      <c r="W59" s="137" t="s">
+      <c r="U59" s="163"/>
+      <c r="V59" s="164"/>
+      <c r="W59" s="164" t="s">
         <v>128</v>
       </c>
-      <c r="X59" s="137"/>
-      <c r="Y59" s="137"/>
-      <c r="Z59" s="150"/>
+      <c r="X59" s="164"/>
+      <c r="Y59" s="164"/>
+      <c r="Z59" s="180"/>
     </row>
     <row r="60" ht="15.15" spans="1:26">
-      <c r="A60" s="108" t="s">
+      <c r="A60" s="128" t="s">
         <v>122</v>
       </c>
       <c r="B60" s="61" t="s">
@@ -7369,16 +7474,16 @@
       <c r="M60" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N60" s="115" t="s">
+      <c r="N60" s="135" t="s">
         <v>28</v>
       </c>
       <c r="O60" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P60" s="76">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="84">
+      <c r="P60" s="141">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="171">
         <v>1</v>
       </c>
       <c r="R60" s="25">
@@ -7390,14 +7495,14 @@
       <c r="T60" s="8">
         <v>0</v>
       </c>
-      <c r="U60" s="134" t="s">
+      <c r="U60" s="160" t="s">
         <v>129</v>
       </c>
-      <c r="V60" s="135"/>
-      <c r="W60" s="135"/>
-      <c r="X60" s="135"/>
-      <c r="Y60" s="135"/>
-      <c r="Z60" s="149"/>
+      <c r="V60" s="161"/>
+      <c r="W60" s="161"/>
+      <c r="X60" s="161"/>
+      <c r="Y60" s="161"/>
+      <c r="Z60" s="179"/>
     </row>
     <row r="61" spans="1:26">
       <c r="A61" s="47" t="s">
@@ -7439,37 +7544,37 @@
       <c r="M61" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N61" s="113" t="s">
+      <c r="N61" s="133" t="s">
         <v>47</v>
       </c>
       <c r="O61" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P61" s="77">
+      <c r="P61" s="85">
         <v>2</v>
       </c>
-      <c r="Q61" s="78">
+      <c r="Q61" s="86">
         <v>1</v>
       </c>
       <c r="R61" s="34">
         <v>1</v>
       </c>
-      <c r="S61" s="85">
-        <v>0</v>
-      </c>
-      <c r="T61" s="86">
-        <v>0</v>
-      </c>
-      <c r="U61" s="133">
+      <c r="S61" s="101">
+        <v>0</v>
+      </c>
+      <c r="T61" s="102">
+        <v>0</v>
+      </c>
+      <c r="U61" s="158">
         <v>56</v>
       </c>
-      <c r="V61" s="85">
+      <c r="V61" s="101">
         <v>43</v>
       </c>
-      <c r="W61" s="85"/>
-      <c r="X61" s="85"/>
-      <c r="Y61" s="85"/>
-      <c r="Z61" s="86"/>
+      <c r="W61" s="101"/>
+      <c r="X61" s="101"/>
+      <c r="Y61" s="101"/>
+      <c r="Z61" s="102"/>
     </row>
     <row r="62" ht="20.4" spans="1:26">
       <c r="A62" s="48" t="s">
@@ -7511,16 +7616,16 @@
       <c r="M62" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N62" s="121" t="s">
+      <c r="N62" s="142" t="s">
         <v>54</v>
       </c>
       <c r="O62" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="P62" s="72">
+      <c r="P62" s="88">
         <v>12</v>
       </c>
-      <c r="Q62" s="73">
+      <c r="Q62" s="89">
         <v>9</v>
       </c>
       <c r="R62" s="24">
@@ -7532,7 +7637,7 @@
       <c r="T62" s="12">
         <v>0</v>
       </c>
-      <c r="U62" s="145" t="s">
+      <c r="U62" s="174" t="s">
         <v>132</v>
       </c>
       <c r="V62" s="11" t="s">
@@ -7585,39 +7690,39 @@
       <c r="M63" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="N63" s="123" t="s">
+      <c r="N63" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="O63" s="124" t="s">
+      <c r="O63" s="145" t="s">
         <v>55</v>
       </c>
-      <c r="P63" s="79">
+      <c r="P63" s="91">
         <v>5</v>
       </c>
-      <c r="Q63" s="80">
+      <c r="Q63" s="92">
         <v>2</v>
       </c>
-      <c r="R63" s="81">
-        <v>1</v>
-      </c>
-      <c r="S63" s="87">
+      <c r="R63" s="94">
+        <v>1</v>
+      </c>
+      <c r="S63" s="103">
         <v>2</v>
       </c>
-      <c r="T63" s="88">
-        <v>0</v>
-      </c>
-      <c r="U63" s="140" t="s">
+      <c r="T63" s="104">
+        <v>0</v>
+      </c>
+      <c r="U63" s="168" t="s">
         <v>134</v>
       </c>
-      <c r="V63" s="87">
+      <c r="V63" s="103">
         <v>320</v>
       </c>
-      <c r="W63" s="87" t="s">
+      <c r="W63" s="103" t="s">
         <v>135</v>
       </c>
-      <c r="X63" s="87"/>
-      <c r="Y63" s="87"/>
-      <c r="Z63" s="88"/>
+      <c r="X63" s="103"/>
+      <c r="Y63" s="103"/>
+      <c r="Z63" s="104"/>
     </row>
     <row r="64" ht="15" customHeight="1" spans="1:26">
       <c r="A64" s="48" t="s">
@@ -7659,16 +7764,16 @@
       <c r="M64" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N64" s="121" t="s">
+      <c r="N64" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="O64" s="75" t="s">
+      <c r="O64" s="151" t="s">
         <v>55</v>
       </c>
-      <c r="P64" s="89">
+      <c r="P64" s="152">
         <v>5</v>
       </c>
-      <c r="Q64" s="90">
+      <c r="Q64" s="175">
         <v>1</v>
       </c>
       <c r="R64" s="18">
@@ -7680,16 +7785,16 @@
       <c r="T64" s="64">
         <v>0</v>
       </c>
-      <c r="U64" s="136">
+      <c r="U64" s="163">
         <v>23</v>
       </c>
-      <c r="V64" s="137" t="s">
+      <c r="V64" s="164" t="s">
         <v>136</v>
       </c>
-      <c r="W64" s="137"/>
-      <c r="X64" s="137"/>
-      <c r="Y64" s="137"/>
-      <c r="Z64" s="150">
+      <c r="W64" s="164"/>
+      <c r="X64" s="164"/>
+      <c r="Y64" s="164"/>
+      <c r="Z64" s="180">
         <v>9</v>
       </c>
     </row>
@@ -7733,16 +7838,16 @@
       <c r="M65" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N65" s="121" t="s">
+      <c r="N65" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="O65" s="75" t="s">
+      <c r="O65" s="151" t="s">
         <v>55</v>
       </c>
-      <c r="P65" s="89">
+      <c r="P65" s="152">
         <v>3</v>
       </c>
-      <c r="Q65" s="90">
+      <c r="Q65" s="175">
         <v>1</v>
       </c>
       <c r="R65" s="18">
@@ -7754,14 +7859,14 @@
       <c r="T65" s="64">
         <v>0</v>
       </c>
-      <c r="U65" s="136">
+      <c r="U65" s="163">
         <v>80</v>
       </c>
-      <c r="V65" s="137"/>
-      <c r="W65" s="137"/>
-      <c r="X65" s="137"/>
-      <c r="Y65" s="137"/>
-      <c r="Z65" s="150" t="s">
+      <c r="V65" s="164"/>
+      <c r="W65" s="164"/>
+      <c r="X65" s="164"/>
+      <c r="Y65" s="164"/>
+      <c r="Z65" s="180" t="s">
         <v>137</v>
       </c>
     </row>
@@ -7787,7 +7892,7 @@
       <c r="G66" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H66" s="99">
+      <c r="H66" s="147">
         <v>54</v>
       </c>
       <c r="I66" s="54" t="s">
@@ -7805,16 +7910,16 @@
       <c r="M66" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N66" s="152" t="s">
+      <c r="N66" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="O66" s="153" t="s">
+      <c r="O66" s="183" t="s">
         <v>55</v>
       </c>
-      <c r="P66" s="97">
+      <c r="P66" s="184">
         <v>7</v>
       </c>
-      <c r="Q66" s="98">
+      <c r="Q66" s="185">
         <v>2</v>
       </c>
       <c r="R66" s="19">
@@ -7823,24 +7928,24 @@
       <c r="S66" s="19">
         <v>0</v>
       </c>
-      <c r="T66" s="99">
-        <v>0</v>
-      </c>
-      <c r="U66" s="134" t="s">
+      <c r="T66" s="147">
+        <v>0</v>
+      </c>
+      <c r="U66" s="160" t="s">
         <v>138</v>
       </c>
-      <c r="V66" s="135"/>
-      <c r="W66" s="135"/>
-      <c r="X66" s="135"/>
-      <c r="Y66" s="135">
+      <c r="V66" s="161"/>
+      <c r="W66" s="161"/>
+      <c r="X66" s="161"/>
+      <c r="Y66" s="161">
         <v>150</v>
       </c>
-      <c r="Z66" s="154" t="s">
+      <c r="Z66" s="186" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="67" ht="15.15" spans="1:26">
-      <c r="A67" s="110" t="s">
+      <c r="A67" s="130" t="s">
         <v>140</v>
       </c>
       <c r="B67" s="55" t="s">
@@ -7849,10 +7954,10 @@
       <c r="C67" s="55">
         <v>59.56098</v>
       </c>
-      <c r="D67" s="92">
+      <c r="D67" s="110">
         <v>150.924676</v>
       </c>
-      <c r="E67" s="93">
+      <c r="E67" s="111">
         <v>2021</v>
       </c>
       <c r="F67" s="56">
@@ -7861,10 +7966,10 @@
       <c r="G67" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="H67" s="92">
+      <c r="H67" s="110">
         <v>64</v>
       </c>
-      <c r="I67" s="93" t="s">
+      <c r="I67" s="111" t="s">
         <v>29</v>
       </c>
       <c r="J67" s="55" t="s">
@@ -7879,16 +7984,16 @@
       <c r="M67" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="N67" s="128" t="s">
+      <c r="N67" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="O67" s="92" t="s">
+      <c r="O67" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="P67" s="93">
-        <v>1</v>
-      </c>
-      <c r="Q67" s="100">
+      <c r="P67" s="111">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="119">
         <v>1</v>
       </c>
       <c r="R67" s="55">
@@ -7897,32 +8002,32 @@
       <c r="S67" s="55">
         <v>0</v>
       </c>
-      <c r="T67" s="92">
-        <v>0</v>
-      </c>
-      <c r="U67" s="142">
+      <c r="T67" s="110">
+        <v>0</v>
+      </c>
+      <c r="U67" s="170">
         <v>7</v>
       </c>
-      <c r="V67" s="95"/>
-      <c r="W67" s="95"/>
-      <c r="X67" s="95"/>
-      <c r="Y67" s="95"/>
-      <c r="Z67" s="96"/>
+      <c r="V67" s="113"/>
+      <c r="W67" s="113"/>
+      <c r="X67" s="113"/>
+      <c r="Y67" s="113"/>
+      <c r="Z67" s="114"/>
     </row>
     <row r="68" ht="15.15" spans="1:26">
-      <c r="A68" s="142" t="s">
+      <c r="A68" s="170" t="s">
         <v>142</v>
       </c>
-      <c r="B68" s="95" t="s">
+      <c r="B68" s="113" t="s">
         <v>143</v>
       </c>
-      <c r="C68" s="95">
+      <c r="C68" s="113">
         <v>59.558174</v>
       </c>
-      <c r="D68" s="96">
+      <c r="D68" s="114">
         <v>150.929357</v>
       </c>
-      <c r="E68" s="93">
+      <c r="E68" s="111">
         <v>2021</v>
       </c>
       <c r="F68" s="56">
@@ -7931,10 +8036,10 @@
       <c r="G68" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="H68" s="92">
+      <c r="H68" s="110">
         <v>64</v>
       </c>
-      <c r="I68" s="93" t="s">
+      <c r="I68" s="111" t="s">
         <v>29</v>
       </c>
       <c r="J68" s="55" t="s">
@@ -7949,16 +8054,16 @@
       <c r="M68" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="N68" s="128" t="s">
+      <c r="N68" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="O68" s="92" t="s">
+      <c r="O68" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="P68" s="93">
+      <c r="P68" s="111">
         <v>2</v>
       </c>
-      <c r="Q68" s="100">
+      <c r="Q68" s="119">
         <v>1</v>
       </c>
       <c r="R68" s="55">
@@ -7967,17 +8072,17 @@
       <c r="S68" s="30">
         <v>0</v>
       </c>
-      <c r="T68" s="101">
-        <v>0</v>
-      </c>
-      <c r="U68" s="142">
+      <c r="T68" s="121">
+        <v>0</v>
+      </c>
+      <c r="U68" s="170">
         <v>12</v>
       </c>
-      <c r="V68" s="95"/>
-      <c r="W68" s="95"/>
-      <c r="X68" s="95"/>
-      <c r="Y68" s="95"/>
-      <c r="Z68" s="96">
+      <c r="V68" s="113"/>
+      <c r="W68" s="113"/>
+      <c r="X68" s="113"/>
+      <c r="Y68" s="113"/>
+      <c r="Z68" s="114">
         <v>7</v>
       </c>
     </row>
@@ -8015,20 +8120,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.7777777777778" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.7777777777778" customWidth="1"/>
-    <col min="13" max="13" width="11.8888888888889" customWidth="1"/>
+    <col min="14" max="14" width="11.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15" spans="1:13">
+    <row r="1" ht="15.15" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8059,17 +8164,20 @@
       <c r="J1" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="L1" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="M1" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="66" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" hidden="1" spans="1:13">
+      <c r="N1" s="66" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -8094,23 +8202,26 @@
       <c r="H2" s="3">
         <v>48</v>
       </c>
-      <c r="I2" s="48">
-        <v>0</v>
-      </c>
-      <c r="J2" s="67">
-        <v>0</v>
-      </c>
-      <c r="K2" s="11">
-        <v>0</v>
-      </c>
-      <c r="L2" s="11">
-        <v>0</v>
-      </c>
-      <c r="M2" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" ht="15.15" hidden="1" spans="1:13">
+      <c r="I2" s="67">
+        <v>0</v>
+      </c>
+      <c r="J2" s="68">
+        <v>0</v>
+      </c>
+      <c r="K2" s="69">
+        <v>0</v>
+      </c>
+      <c r="L2" s="70">
+        <v>0</v>
+      </c>
+      <c r="M2" s="70">
+        <v>0</v>
+      </c>
+      <c r="N2" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="15.15" spans="1:14">
       <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
@@ -8135,23 +8246,26 @@
       <c r="H3" s="7">
         <v>48</v>
       </c>
-      <c r="I3" s="54">
-        <v>0</v>
-      </c>
-      <c r="J3" s="68">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" ht="28.8" hidden="1" spans="1:13">
+      <c r="I3" s="72">
+        <v>0</v>
+      </c>
+      <c r="J3" s="73">
+        <v>0</v>
+      </c>
+      <c r="K3" s="69">
+        <v>0</v>
+      </c>
+      <c r="L3" s="74">
+        <v>0</v>
+      </c>
+      <c r="M3" s="74">
+        <v>0</v>
+      </c>
+      <c r="N3" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="1:14">
       <c r="A4" s="9" t="s">
         <v>31</v>
       </c>
@@ -8176,23 +8290,26 @@
       <c r="H4" s="3">
         <v>32</v>
       </c>
-      <c r="I4" s="47">
-        <v>1</v>
-      </c>
-      <c r="J4" s="69">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="28.8" hidden="1" spans="1:13">
+      <c r="I4" s="75">
+        <v>1</v>
+      </c>
+      <c r="J4" s="76">
+        <v>0</v>
+      </c>
+      <c r="K4" s="69">
+        <v>0</v>
+      </c>
+      <c r="L4" s="77">
+        <v>0</v>
+      </c>
+      <c r="M4" s="77">
+        <v>1</v>
+      </c>
+      <c r="N4" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="1:14">
       <c r="A5" s="10" t="s">
         <v>31</v>
       </c>
@@ -8217,23 +8334,26 @@
       <c r="H5" s="11">
         <v>32</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="67">
         <v>4</v>
       </c>
-      <c r="J5" s="67">
+      <c r="J5" s="68">
         <v>2</v>
       </c>
-      <c r="K5" s="11">
-        <v>1</v>
-      </c>
-      <c r="L5" s="11">
-        <v>1</v>
-      </c>
-      <c r="M5" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="29.55" hidden="1" spans="1:13">
+      <c r="K5" s="69">
+        <v>0</v>
+      </c>
+      <c r="L5" s="70">
+        <v>1</v>
+      </c>
+      <c r="M5" s="70">
+        <v>1</v>
+      </c>
+      <c r="N5" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="29.55" spans="1:14">
       <c r="A6" s="14" t="s">
         <v>31</v>
       </c>
@@ -8258,23 +8378,26 @@
       <c r="H6" s="7">
         <v>32</v>
       </c>
-      <c r="I6" s="54">
-        <v>0</v>
-      </c>
-      <c r="J6" s="68">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" hidden="1" spans="1:13">
+      <c r="I6" s="72">
+        <v>0</v>
+      </c>
+      <c r="J6" s="73">
+        <v>0</v>
+      </c>
+      <c r="K6" s="69">
+        <v>0</v>
+      </c>
+      <c r="L6" s="74">
+        <v>0</v>
+      </c>
+      <c r="M6" s="74">
+        <v>0</v>
+      </c>
+      <c r="N6" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
@@ -8299,23 +8422,26 @@
       <c r="H7" s="16">
         <v>96</v>
       </c>
-      <c r="I7" s="47">
-        <v>0</v>
-      </c>
-      <c r="J7" s="69">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" hidden="1" spans="1:13">
+      <c r="I7" s="75">
+        <v>0</v>
+      </c>
+      <c r="J7" s="76">
+        <v>0</v>
+      </c>
+      <c r="K7" s="69">
+        <v>0</v>
+      </c>
+      <c r="L7" s="77">
+        <v>0</v>
+      </c>
+      <c r="M7" s="77">
+        <v>0</v>
+      </c>
+      <c r="N7" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
@@ -8340,23 +8466,26 @@
       <c r="H8" s="18">
         <v>59</v>
       </c>
-      <c r="I8" s="48">
-        <v>0</v>
-      </c>
-      <c r="J8" s="67">
-        <v>0</v>
-      </c>
-      <c r="K8" s="11">
-        <v>0</v>
-      </c>
-      <c r="L8" s="11">
-        <v>0</v>
-      </c>
-      <c r="M8" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="15.15" hidden="1" spans="1:13">
+      <c r="I8" s="67">
+        <v>0</v>
+      </c>
+      <c r="J8" s="68">
+        <v>0</v>
+      </c>
+      <c r="K8" s="69">
+        <v>0</v>
+      </c>
+      <c r="L8" s="70">
+        <v>0</v>
+      </c>
+      <c r="M8" s="70">
+        <v>0</v>
+      </c>
+      <c r="N8" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.15" spans="1:14">
       <c r="A9" s="6" t="s">
         <v>38</v>
       </c>
@@ -8381,23 +8510,26 @@
       <c r="H9" s="19">
         <v>64</v>
       </c>
-      <c r="I9" s="54">
-        <v>0</v>
-      </c>
-      <c r="J9" s="68">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="28.8" hidden="1" spans="1:13">
+      <c r="I9" s="72">
+        <v>0</v>
+      </c>
+      <c r="J9" s="73">
+        <v>0</v>
+      </c>
+      <c r="K9" s="69">
+        <v>0</v>
+      </c>
+      <c r="L9" s="74">
+        <v>0</v>
+      </c>
+      <c r="M9" s="74">
+        <v>0</v>
+      </c>
+      <c r="N9" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="28.8" spans="1:14">
       <c r="A10" s="9" t="s">
         <v>41</v>
       </c>
@@ -8422,23 +8554,26 @@
       <c r="H10" s="3">
         <v>32</v>
       </c>
-      <c r="I10" s="47">
-        <v>1</v>
-      </c>
-      <c r="J10" s="69">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="28.8" hidden="1" spans="1:13">
+      <c r="I10" s="75">
+        <v>1</v>
+      </c>
+      <c r="J10" s="76">
+        <v>0</v>
+      </c>
+      <c r="K10" s="69">
+        <v>0</v>
+      </c>
+      <c r="L10" s="77">
+        <v>1</v>
+      </c>
+      <c r="M10" s="77">
+        <v>0</v>
+      </c>
+      <c r="N10" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="28.8" spans="1:14">
       <c r="A11" s="10" t="s">
         <v>41</v>
       </c>
@@ -8463,23 +8598,26 @@
       <c r="H11" s="11">
         <v>32</v>
       </c>
-      <c r="I11" s="48">
-        <v>0</v>
-      </c>
-      <c r="J11" s="67">
-        <v>0</v>
-      </c>
-      <c r="K11" s="11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="29.55" hidden="1" spans="1:13">
+      <c r="I11" s="67">
+        <v>0</v>
+      </c>
+      <c r="J11" s="68">
+        <v>0</v>
+      </c>
+      <c r="K11" s="69">
+        <v>0</v>
+      </c>
+      <c r="L11" s="70">
+        <v>0</v>
+      </c>
+      <c r="M11" s="70">
+        <v>0</v>
+      </c>
+      <c r="N11" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="29.55" spans="1:14">
       <c r="A12" s="10" t="s">
         <v>41</v>
       </c>
@@ -8504,23 +8642,26 @@
       <c r="H12" s="11">
         <v>32</v>
       </c>
-      <c r="I12" s="54">
-        <v>0</v>
-      </c>
-      <c r="J12" s="68">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7">
-        <v>0</v>
-      </c>
-      <c r="M12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="29.55" spans="1:13">
+      <c r="I12" s="72">
+        <v>0</v>
+      </c>
+      <c r="J12" s="73">
+        <v>0</v>
+      </c>
+      <c r="K12" s="69">
+        <v>0</v>
+      </c>
+      <c r="L12" s="74">
+        <v>0</v>
+      </c>
+      <c r="M12" s="74">
+        <v>0</v>
+      </c>
+      <c r="N12" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="28.8" hidden="1" spans="1:14">
       <c r="A13" s="9" t="s">
         <v>44</v>
       </c>
@@ -8545,23 +8686,24 @@
       <c r="H13" s="23">
         <v>64</v>
       </c>
-      <c r="I13" s="70">
-        <v>0</v>
-      </c>
-      <c r="J13" s="71">
-        <v>0</v>
-      </c>
-      <c r="K13" s="23">
-        <v>0</v>
-      </c>
+      <c r="I13" s="80">
+        <v>0</v>
+      </c>
+      <c r="J13" s="81">
+        <v>0</v>
+      </c>
+      <c r="K13" s="82"/>
       <c r="L13" s="23">
         <v>0</v>
       </c>
-      <c r="M13" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" ht="28.8" hidden="1" spans="1:13">
+      <c r="M13" s="23">
+        <v>0</v>
+      </c>
+      <c r="N13" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="28.8" spans="1:14">
       <c r="A14" s="10" t="s">
         <v>44</v>
       </c>
@@ -8586,23 +8728,26 @@
       <c r="H14" s="24">
         <v>48</v>
       </c>
-      <c r="I14" s="72">
+      <c r="I14" s="67">
         <v>2</v>
       </c>
-      <c r="J14" s="73">
-        <v>0</v>
-      </c>
-      <c r="K14" s="24">
-        <v>1</v>
-      </c>
-      <c r="L14" s="74">
-        <v>1</v>
-      </c>
-      <c r="M14" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" ht="28.8" hidden="1" spans="1:13">
+      <c r="J14" s="68">
+        <v>0</v>
+      </c>
+      <c r="K14" s="69">
+        <v>0</v>
+      </c>
+      <c r="L14" s="70">
+        <v>1</v>
+      </c>
+      <c r="M14" s="83">
+        <v>1</v>
+      </c>
+      <c r="N14" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="28.8" spans="1:14">
       <c r="A15" s="10" t="s">
         <v>44</v>
       </c>
@@ -8627,23 +8772,26 @@
       <c r="H15" s="24">
         <v>32</v>
       </c>
-      <c r="I15" s="72">
-        <v>0</v>
-      </c>
-      <c r="J15" s="67">
-        <v>0</v>
-      </c>
-      <c r="K15" s="11">
-        <v>0</v>
-      </c>
-      <c r="L15" s="11">
-        <v>0</v>
-      </c>
-      <c r="M15" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" ht="29.55" hidden="1" spans="1:13">
+      <c r="I15" s="67">
+        <v>0</v>
+      </c>
+      <c r="J15" s="68">
+        <v>0</v>
+      </c>
+      <c r="K15" s="69">
+        <v>0</v>
+      </c>
+      <c r="L15" s="70">
+        <v>0</v>
+      </c>
+      <c r="M15" s="70">
+        <v>0</v>
+      </c>
+      <c r="N15" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="29.55" spans="1:14">
       <c r="A16" s="14" t="s">
         <v>44</v>
       </c>
@@ -8668,23 +8816,26 @@
       <c r="H16" s="25">
         <v>32</v>
       </c>
-      <c r="I16" s="76">
-        <v>0</v>
-      </c>
-      <c r="J16" s="68">
-        <v>0</v>
-      </c>
-      <c r="K16" s="7">
-        <v>0</v>
-      </c>
-      <c r="L16" s="7">
-        <v>0</v>
-      </c>
-      <c r="M16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" ht="28.8" spans="1:13">
+      <c r="I16" s="72">
+        <v>0</v>
+      </c>
+      <c r="J16" s="73">
+        <v>0</v>
+      </c>
+      <c r="K16" s="69">
+        <v>0</v>
+      </c>
+      <c r="L16" s="74">
+        <v>0</v>
+      </c>
+      <c r="M16" s="74">
+        <v>0</v>
+      </c>
+      <c r="N16" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="28.8" hidden="1" spans="1:14">
       <c r="A17" s="10" t="s">
         <v>51</v>
       </c>
@@ -8709,23 +8860,24 @@
       <c r="H17" s="28">
         <v>64</v>
       </c>
-      <c r="I17" s="77">
-        <v>1</v>
-      </c>
-      <c r="J17" s="78">
-        <v>0</v>
-      </c>
-      <c r="K17" s="34">
-        <v>1</v>
-      </c>
+      <c r="I17" s="85">
+        <v>1</v>
+      </c>
+      <c r="J17" s="86">
+        <v>0</v>
+      </c>
+      <c r="K17" s="87"/>
       <c r="L17" s="34">
-        <v>0</v>
-      </c>
-      <c r="M17" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" ht="28.8" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="M17" s="34">
+        <v>0</v>
+      </c>
+      <c r="N17" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="28.8" hidden="1" spans="1:14">
       <c r="A18" s="10" t="s">
         <v>51</v>
       </c>
@@ -8750,23 +8902,24 @@
       <c r="H18" s="24">
         <v>78</v>
       </c>
-      <c r="I18" s="72">
+      <c r="I18" s="88">
         <v>4</v>
       </c>
-      <c r="J18" s="73">
+      <c r="J18" s="89">
         <v>2</v>
       </c>
-      <c r="K18" s="24">
-        <v>1</v>
-      </c>
+      <c r="K18" s="90"/>
       <c r="L18" s="24">
         <v>1</v>
       </c>
-      <c r="M18" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" ht="29.55" spans="1:13">
+      <c r="M18" s="24">
+        <v>1</v>
+      </c>
+      <c r="N18" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="28.8" hidden="1" spans="1:14">
       <c r="A19" s="10" t="s">
         <v>51</v>
       </c>
@@ -8791,23 +8944,24 @@
       <c r="H19" s="24">
         <v>88</v>
       </c>
-      <c r="I19" s="79">
+      <c r="I19" s="91">
         <v>2</v>
       </c>
-      <c r="J19" s="80">
+      <c r="J19" s="92">
         <v>2</v>
       </c>
-      <c r="K19" s="81">
-        <v>0</v>
-      </c>
-      <c r="L19" s="81">
-        <v>0</v>
-      </c>
-      <c r="M19" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" ht="28.8" hidden="1" spans="1:13">
+      <c r="K19" s="93"/>
+      <c r="L19" s="94">
+        <v>0</v>
+      </c>
+      <c r="M19" s="94">
+        <v>0</v>
+      </c>
+      <c r="N19" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="28.8" spans="1:14">
       <c r="A20" s="10" t="s">
         <v>51</v>
       </c>
@@ -8832,23 +8986,26 @@
       <c r="H20" s="26">
         <v>32</v>
       </c>
-      <c r="I20" s="72">
+      <c r="I20" s="67">
         <v>3</v>
       </c>
-      <c r="J20" s="73">
-        <v>0</v>
-      </c>
-      <c r="K20" s="24">
-        <v>0</v>
-      </c>
-      <c r="L20" s="11">
-        <v>0</v>
-      </c>
-      <c r="M20" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" ht="28.8" hidden="1" spans="1:13">
+      <c r="J20" s="68">
+        <v>0</v>
+      </c>
+      <c r="K20" s="69">
+        <v>0</v>
+      </c>
+      <c r="L20" s="70">
+        <v>1</v>
+      </c>
+      <c r="M20" s="70">
+        <v>0</v>
+      </c>
+      <c r="N20" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="28.8" spans="1:14">
       <c r="A21" s="10" t="s">
         <v>51</v>
       </c>
@@ -8873,23 +9030,26 @@
       <c r="H21" s="11">
         <v>32</v>
       </c>
-      <c r="I21" s="72">
+      <c r="I21" s="67">
         <v>3</v>
       </c>
-      <c r="J21" s="73">
-        <v>0</v>
-      </c>
-      <c r="K21" s="24">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11">
-        <v>2</v>
-      </c>
-      <c r="M21" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="29.55" hidden="1" spans="1:13">
+      <c r="J21" s="68">
+        <v>0</v>
+      </c>
+      <c r="K21" s="69">
+        <v>0</v>
+      </c>
+      <c r="L21" s="70">
+        <v>0</v>
+      </c>
+      <c r="M21" s="70">
+        <v>3</v>
+      </c>
+      <c r="N21" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="28.8" spans="1:14">
       <c r="A22" s="10" t="s">
         <v>51</v>
       </c>
@@ -8914,23 +9074,26 @@
       <c r="H22" s="11">
         <v>32</v>
       </c>
-      <c r="I22" s="72">
+      <c r="I22" s="67">
         <v>5</v>
       </c>
-      <c r="J22" s="73">
-        <v>0</v>
-      </c>
-      <c r="K22" s="24">
-        <v>0</v>
-      </c>
-      <c r="L22" s="11">
-        <v>4</v>
-      </c>
-      <c r="M22" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" ht="28.8" spans="1:13">
+      <c r="J22" s="68">
+        <v>0</v>
+      </c>
+      <c r="K22" s="69">
+        <v>0</v>
+      </c>
+      <c r="L22" s="70">
+        <v>0</v>
+      </c>
+      <c r="M22" s="70">
+        <v>5</v>
+      </c>
+      <c r="N22" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="29.55" hidden="1" spans="1:14">
       <c r="A23" s="29" t="s">
         <v>65</v>
       </c>
@@ -8955,23 +9118,24 @@
       <c r="H23" s="34">
         <v>64</v>
       </c>
-      <c r="I23" s="82">
-        <v>1</v>
-      </c>
-      <c r="J23" s="83">
-        <v>0</v>
-      </c>
-      <c r="K23" s="57">
-        <v>1</v>
-      </c>
+      <c r="I23" s="95">
+        <v>1</v>
+      </c>
+      <c r="J23" s="96">
+        <v>0</v>
+      </c>
+      <c r="K23" s="97"/>
       <c r="L23" s="57">
-        <v>0</v>
-      </c>
-      <c r="M23" s="58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="M23" s="57">
+        <v>0</v>
+      </c>
+      <c r="N23" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" hidden="1" spans="1:14">
       <c r="A24" s="2" t="s">
         <v>67</v>
       </c>
@@ -8996,23 +9160,24 @@
       <c r="H24" s="35">
         <v>64</v>
       </c>
-      <c r="I24" s="77">
+      <c r="I24" s="85">
         <v>2</v>
       </c>
-      <c r="J24" s="78">
-        <v>1</v>
-      </c>
-      <c r="K24" s="34">
-        <v>1</v>
-      </c>
+      <c r="J24" s="86">
+        <v>1</v>
+      </c>
+      <c r="K24" s="87"/>
       <c r="L24" s="34">
-        <v>0</v>
-      </c>
-      <c r="M24" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.15" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="M24" s="34">
+        <v>0</v>
+      </c>
+      <c r="N24" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" hidden="1" spans="1:14">
       <c r="A25" s="17" t="s">
         <v>67</v>
       </c>
@@ -9037,23 +9202,24 @@
       <c r="H25" s="38">
         <v>99</v>
       </c>
-      <c r="I25" s="79">
+      <c r="I25" s="91">
         <v>6</v>
       </c>
-      <c r="J25" s="80">
-        <v>1</v>
-      </c>
-      <c r="K25" s="81">
+      <c r="J25" s="92">
+        <v>1</v>
+      </c>
+      <c r="K25" s="93"/>
+      <c r="L25" s="94">
         <v>3</v>
       </c>
-      <c r="L25" s="81">
+      <c r="M25" s="94">
         <v>2</v>
       </c>
-      <c r="M25" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" hidden="1" spans="1:13">
+      <c r="N25" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="17" t="s">
         <v>67</v>
       </c>
@@ -9078,23 +9244,26 @@
       <c r="H26" s="40">
         <v>32</v>
       </c>
-      <c r="I26" s="72">
-        <v>0</v>
-      </c>
-      <c r="J26" s="73">
-        <v>0</v>
-      </c>
-      <c r="K26" s="24">
-        <v>0</v>
-      </c>
-      <c r="L26" s="24">
-        <v>0</v>
-      </c>
-      <c r="M26" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" hidden="1" spans="1:13">
+      <c r="I26" s="67">
+        <v>0</v>
+      </c>
+      <c r="J26" s="68">
+        <v>0</v>
+      </c>
+      <c r="K26" s="69">
+        <v>0</v>
+      </c>
+      <c r="L26" s="70">
+        <v>0</v>
+      </c>
+      <c r="M26" s="70">
+        <v>0</v>
+      </c>
+      <c r="N26" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="17" t="s">
         <v>67</v>
       </c>
@@ -9119,23 +9288,26 @@
       <c r="H27" s="40">
         <v>32</v>
       </c>
-      <c r="I27" s="72">
-        <v>0</v>
-      </c>
-      <c r="J27" s="73">
-        <v>0</v>
-      </c>
-      <c r="K27" s="24">
-        <v>0</v>
-      </c>
-      <c r="L27" s="24">
-        <v>0</v>
-      </c>
-      <c r="M27" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" hidden="1" spans="1:13">
+      <c r="I27" s="67">
+        <v>0</v>
+      </c>
+      <c r="J27" s="68">
+        <v>0</v>
+      </c>
+      <c r="K27" s="69">
+        <v>0</v>
+      </c>
+      <c r="L27" s="70">
+        <v>0</v>
+      </c>
+      <c r="M27" s="70">
+        <v>0</v>
+      </c>
+      <c r="N27" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="17" t="s">
         <v>67</v>
       </c>
@@ -9160,23 +9332,26 @@
       <c r="H28" s="40">
         <v>32</v>
       </c>
-      <c r="I28" s="72">
+      <c r="I28" s="67">
         <v>2</v>
       </c>
-      <c r="J28" s="73">
-        <v>1</v>
-      </c>
-      <c r="K28" s="24">
-        <v>1</v>
-      </c>
-      <c r="L28" s="24">
-        <v>0</v>
-      </c>
-      <c r="M28" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" hidden="1" spans="1:13">
+      <c r="J28" s="68">
+        <v>1</v>
+      </c>
+      <c r="K28" s="69">
+        <v>0</v>
+      </c>
+      <c r="L28" s="70">
+        <v>1</v>
+      </c>
+      <c r="M28" s="70">
+        <v>0</v>
+      </c>
+      <c r="N28" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="17" t="s">
         <v>67</v>
       </c>
@@ -9201,23 +9376,26 @@
       <c r="H29" s="40">
         <v>32</v>
       </c>
-      <c r="I29" s="72">
+      <c r="I29" s="67">
         <v>2</v>
       </c>
-      <c r="J29" s="73">
-        <v>0</v>
-      </c>
-      <c r="K29" s="24">
-        <v>1</v>
-      </c>
-      <c r="L29" s="11">
-        <v>1</v>
-      </c>
-      <c r="M29" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.15" hidden="1" spans="1:13">
+      <c r="J29" s="68">
+        <v>0</v>
+      </c>
+      <c r="K29" s="69">
+        <v>0</v>
+      </c>
+      <c r="L29" s="70">
+        <v>1</v>
+      </c>
+      <c r="M29" s="70">
+        <v>1</v>
+      </c>
+      <c r="N29" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="15.15" spans="1:14">
       <c r="A30" s="17" t="s">
         <v>67</v>
       </c>
@@ -9242,23 +9420,26 @@
       <c r="H30" s="40">
         <v>32</v>
       </c>
-      <c r="I30" s="76">
-        <v>1</v>
-      </c>
-      <c r="J30" s="84">
-        <v>1</v>
-      </c>
-      <c r="K30" s="25">
-        <v>0</v>
-      </c>
-      <c r="L30" s="7">
-        <v>0</v>
-      </c>
-      <c r="M30" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" ht="28.8" spans="1:13">
+      <c r="I30" s="72">
+        <v>1</v>
+      </c>
+      <c r="J30" s="73">
+        <v>1</v>
+      </c>
+      <c r="K30" s="69">
+        <v>0</v>
+      </c>
+      <c r="L30" s="74">
+        <v>0</v>
+      </c>
+      <c r="M30" s="74">
+        <v>0</v>
+      </c>
+      <c r="N30" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" ht="28.8" hidden="1" spans="1:14">
       <c r="A31" s="9" t="s">
         <v>78</v>
       </c>
@@ -9283,23 +9464,24 @@
       <c r="H31" s="35">
         <v>64</v>
       </c>
-      <c r="I31" s="77">
-        <v>1</v>
-      </c>
-      <c r="J31" s="78">
-        <v>1</v>
-      </c>
-      <c r="K31" s="34">
-        <v>0</v>
-      </c>
+      <c r="I31" s="85">
+        <v>1</v>
+      </c>
+      <c r="J31" s="86">
+        <v>1</v>
+      </c>
+      <c r="K31" s="87"/>
       <c r="L31" s="34">
         <v>0</v>
       </c>
-      <c r="M31" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" ht="29.55" spans="1:13">
+      <c r="M31" s="34">
+        <v>0</v>
+      </c>
+      <c r="N31" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="29.55" hidden="1" spans="1:14">
       <c r="A32" s="14" t="s">
         <v>78</v>
       </c>
@@ -9324,23 +9506,24 @@
       <c r="H32" s="44">
         <v>100</v>
       </c>
-      <c r="I32" s="72">
-        <v>0</v>
-      </c>
-      <c r="J32" s="73">
-        <v>0</v>
-      </c>
-      <c r="K32" s="24">
-        <v>0</v>
-      </c>
+      <c r="I32" s="88">
+        <v>0</v>
+      </c>
+      <c r="J32" s="89">
+        <v>0</v>
+      </c>
+      <c r="K32" s="90"/>
       <c r="L32" s="24">
         <v>0</v>
       </c>
-      <c r="M32" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" ht="29.55" spans="1:13">
+      <c r="M32" s="24">
+        <v>0</v>
+      </c>
+      <c r="N32" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="28.8" hidden="1" spans="1:14">
       <c r="A33" s="10" t="s">
         <v>80</v>
       </c>
@@ -9365,23 +9548,24 @@
       <c r="H33" s="38">
         <v>64</v>
       </c>
-      <c r="I33" s="70">
+      <c r="I33" s="80">
         <v>3</v>
       </c>
-      <c r="J33" s="71">
-        <v>1</v>
-      </c>
-      <c r="K33" s="23">
-        <v>0</v>
-      </c>
+      <c r="J33" s="81">
+        <v>1</v>
+      </c>
+      <c r="K33" s="82"/>
       <c r="L33" s="23">
         <v>0</v>
       </c>
-      <c r="M33" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" ht="28.8" hidden="1" spans="1:13">
+      <c r="M33" s="23">
+        <v>0</v>
+      </c>
+      <c r="N33" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="28.8" spans="1:14">
       <c r="A34" s="10" t="s">
         <v>80</v>
       </c>
@@ -9406,23 +9590,26 @@
       <c r="H34" s="46">
         <v>32</v>
       </c>
-      <c r="I34" s="72">
-        <v>1</v>
-      </c>
-      <c r="J34" s="73">
-        <v>0</v>
-      </c>
-      <c r="K34" s="24">
-        <v>0</v>
-      </c>
-      <c r="L34" s="11">
-        <v>0</v>
-      </c>
-      <c r="M34" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" ht="28.8" hidden="1" spans="1:13">
+      <c r="I34" s="67">
+        <v>1</v>
+      </c>
+      <c r="J34" s="68">
+        <v>0</v>
+      </c>
+      <c r="K34" s="69">
+        <v>0</v>
+      </c>
+      <c r="L34" s="70">
+        <v>0</v>
+      </c>
+      <c r="M34" s="70">
+        <v>0</v>
+      </c>
+      <c r="N34" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" ht="28.8" spans="1:14">
       <c r="A35" s="10" t="s">
         <v>80</v>
       </c>
@@ -9447,23 +9634,26 @@
       <c r="H35" s="40">
         <v>32</v>
       </c>
-      <c r="I35" s="72">
-        <v>1</v>
-      </c>
-      <c r="J35" s="73">
-        <v>1</v>
-      </c>
-      <c r="K35" s="24">
-        <v>0</v>
-      </c>
-      <c r="L35" s="11">
-        <v>0</v>
-      </c>
-      <c r="M35" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" ht="29.55" hidden="1" spans="1:13">
+      <c r="I35" s="67">
+        <v>1</v>
+      </c>
+      <c r="J35" s="68">
+        <v>1</v>
+      </c>
+      <c r="K35" s="69">
+        <v>0</v>
+      </c>
+      <c r="L35" s="70">
+        <v>0</v>
+      </c>
+      <c r="M35" s="70">
+        <v>0</v>
+      </c>
+      <c r="N35" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="29.55" spans="1:14">
       <c r="A36" s="14" t="s">
         <v>80</v>
       </c>
@@ -9488,23 +9678,26 @@
       <c r="H36" s="44">
         <v>32</v>
       </c>
-      <c r="I36" s="76">
-        <v>0</v>
-      </c>
-      <c r="J36" s="84">
-        <v>0</v>
-      </c>
-      <c r="K36" s="25">
-        <v>0</v>
-      </c>
-      <c r="L36" s="7">
-        <v>0</v>
-      </c>
-      <c r="M36" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" hidden="1" spans="1:13">
+      <c r="I36" s="72">
+        <v>0</v>
+      </c>
+      <c r="J36" s="73">
+        <v>0</v>
+      </c>
+      <c r="K36" s="69">
+        <v>0</v>
+      </c>
+      <c r="L36" s="74">
+        <v>0</v>
+      </c>
+      <c r="M36" s="74">
+        <v>0</v>
+      </c>
+      <c r="N36" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="2" t="s">
         <v>85</v>
       </c>
@@ -9529,23 +9722,26 @@
       <c r="H37" s="35">
         <v>32</v>
       </c>
-      <c r="I37" s="77">
-        <v>0</v>
-      </c>
-      <c r="J37" s="69">
-        <v>0</v>
-      </c>
-      <c r="K37" s="3">
-        <v>0</v>
-      </c>
-      <c r="L37" s="3">
-        <v>0</v>
-      </c>
-      <c r="M37" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" hidden="1" spans="1:13">
+      <c r="I37" s="75">
+        <v>0</v>
+      </c>
+      <c r="J37" s="76">
+        <v>0</v>
+      </c>
+      <c r="K37" s="69">
+        <v>0</v>
+      </c>
+      <c r="L37" s="77">
+        <v>0</v>
+      </c>
+      <c r="M37" s="77">
+        <v>0</v>
+      </c>
+      <c r="N37" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="17" t="s">
         <v>85</v>
       </c>
@@ -9570,23 +9766,26 @@
       <c r="H38" s="40">
         <v>32</v>
       </c>
-      <c r="I38" s="72">
-        <v>0</v>
-      </c>
-      <c r="J38" s="67">
-        <v>0</v>
-      </c>
-      <c r="K38" s="11">
-        <v>0</v>
-      </c>
-      <c r="L38" s="11">
-        <v>0</v>
-      </c>
-      <c r="M38" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" ht="15.15" hidden="1" spans="1:13">
+      <c r="I38" s="67">
+        <v>0</v>
+      </c>
+      <c r="J38" s="68">
+        <v>0</v>
+      </c>
+      <c r="K38" s="69">
+        <v>0</v>
+      </c>
+      <c r="L38" s="70">
+        <v>0</v>
+      </c>
+      <c r="M38" s="70">
+        <v>0</v>
+      </c>
+      <c r="N38" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" ht="15.15" spans="1:14">
       <c r="A39" s="17" t="s">
         <v>85</v>
       </c>
@@ -9611,23 +9810,26 @@
       <c r="H39" s="40">
         <v>32</v>
       </c>
-      <c r="I39" s="76">
-        <v>0</v>
-      </c>
-      <c r="J39" s="68">
-        <v>0</v>
-      </c>
-      <c r="K39" s="7">
-        <v>0</v>
-      </c>
-      <c r="L39" s="7">
-        <v>0</v>
-      </c>
-      <c r="M39" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" ht="29.55" spans="1:13">
+      <c r="I39" s="72">
+        <v>0</v>
+      </c>
+      <c r="J39" s="73">
+        <v>0</v>
+      </c>
+      <c r="K39" s="69">
+        <v>0</v>
+      </c>
+      <c r="L39" s="74">
+        <v>0</v>
+      </c>
+      <c r="M39" s="74">
+        <v>0</v>
+      </c>
+      <c r="N39" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" ht="28.8" hidden="1" spans="1:14">
       <c r="A40" s="9" t="s">
         <v>87</v>
       </c>
@@ -9652,23 +9854,24 @@
       <c r="H40" s="49">
         <v>64</v>
       </c>
-      <c r="I40" s="70">
+      <c r="I40" s="80">
         <v>3</v>
       </c>
-      <c r="J40" s="71">
+      <c r="J40" s="81">
         <v>3</v>
       </c>
-      <c r="K40" s="23">
-        <v>0</v>
-      </c>
+      <c r="K40" s="82"/>
       <c r="L40" s="23">
         <v>0</v>
       </c>
-      <c r="M40" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" ht="28.8" hidden="1" spans="1:13">
+      <c r="M40" s="23">
+        <v>0</v>
+      </c>
+      <c r="N40" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" ht="28.8" spans="1:14">
       <c r="A41" s="10" t="s">
         <v>87</v>
       </c>
@@ -9693,23 +9896,26 @@
       <c r="H41" s="40">
         <v>32</v>
       </c>
-      <c r="I41" s="72">
-        <v>0</v>
-      </c>
-      <c r="J41" s="73">
-        <v>0</v>
-      </c>
-      <c r="K41" s="24">
-        <v>0</v>
-      </c>
-      <c r="L41" s="24">
-        <v>0</v>
-      </c>
-      <c r="M41" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" ht="28.8" hidden="1" spans="1:13">
+      <c r="I41" s="67">
+        <v>0</v>
+      </c>
+      <c r="J41" s="68">
+        <v>0</v>
+      </c>
+      <c r="K41" s="69">
+        <v>0</v>
+      </c>
+      <c r="L41" s="70">
+        <v>0</v>
+      </c>
+      <c r="M41" s="70">
+        <v>0</v>
+      </c>
+      <c r="N41" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" ht="28.8" spans="1:14">
       <c r="A42" s="10" t="s">
         <v>87</v>
       </c>
@@ -9734,23 +9940,26 @@
       <c r="H42" s="40">
         <v>32</v>
       </c>
-      <c r="I42" s="72">
-        <v>1</v>
-      </c>
-      <c r="J42" s="73">
-        <v>1</v>
-      </c>
-      <c r="K42" s="24">
-        <v>0</v>
-      </c>
-      <c r="L42" s="24">
-        <v>0</v>
-      </c>
-      <c r="M42" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" ht="29.55" hidden="1" spans="1:13">
+      <c r="I42" s="67">
+        <v>1</v>
+      </c>
+      <c r="J42" s="68">
+        <v>1</v>
+      </c>
+      <c r="K42" s="69">
+        <v>0</v>
+      </c>
+      <c r="L42" s="70">
+        <v>0</v>
+      </c>
+      <c r="M42" s="70">
+        <v>0</v>
+      </c>
+      <c r="N42" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" ht="29.55" spans="1:14">
       <c r="A43" s="14" t="s">
         <v>87</v>
       </c>
@@ -9775,23 +9984,26 @@
       <c r="H43" s="44">
         <v>32</v>
       </c>
-      <c r="I43" s="76">
-        <v>1</v>
-      </c>
-      <c r="J43" s="84">
-        <v>0</v>
-      </c>
-      <c r="K43" s="25">
-        <v>1</v>
-      </c>
-      <c r="L43" s="25">
-        <v>0</v>
-      </c>
-      <c r="M43" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" ht="29.55" spans="1:13">
+      <c r="I43" s="72">
+        <v>1</v>
+      </c>
+      <c r="J43" s="73">
+        <v>0</v>
+      </c>
+      <c r="K43" s="69">
+        <v>0</v>
+      </c>
+      <c r="L43" s="74">
+        <v>1</v>
+      </c>
+      <c r="M43" s="74">
+        <v>0</v>
+      </c>
+      <c r="N43" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" ht="29.55" hidden="1" spans="1:14">
       <c r="A44" s="29" t="s">
         <v>91</v>
       </c>
@@ -9816,23 +10028,24 @@
       <c r="H44" s="58">
         <v>64</v>
       </c>
-      <c r="I44" s="82">
+      <c r="I44" s="95">
         <v>6</v>
       </c>
-      <c r="J44" s="83">
+      <c r="J44" s="96">
         <v>3</v>
       </c>
-      <c r="K44" s="57">
+      <c r="K44" s="97"/>
+      <c r="L44" s="57">
         <v>2</v>
       </c>
-      <c r="L44" s="57">
-        <v>1</v>
-      </c>
-      <c r="M44" s="58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" hidden="1" spans="1:13">
+      <c r="M44" s="57">
+        <v>1</v>
+      </c>
+      <c r="N44" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="17" t="s">
         <v>95</v>
       </c>
@@ -9857,23 +10070,26 @@
       <c r="H45" s="40">
         <v>32</v>
       </c>
-      <c r="I45" s="77">
-        <v>0</v>
-      </c>
-      <c r="J45" s="78">
-        <v>0</v>
-      </c>
-      <c r="K45" s="34">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" hidden="1" spans="1:13">
+      <c r="I45" s="75">
+        <v>0</v>
+      </c>
+      <c r="J45" s="76">
+        <v>0</v>
+      </c>
+      <c r="K45" s="69">
+        <v>0</v>
+      </c>
+      <c r="L45" s="77">
+        <v>0</v>
+      </c>
+      <c r="M45" s="77">
+        <v>0</v>
+      </c>
+      <c r="N45" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="17" t="s">
         <v>95</v>
       </c>
@@ -9898,23 +10114,26 @@
       <c r="H46" s="40">
         <v>32</v>
       </c>
-      <c r="I46" s="72">
+      <c r="I46" s="67">
         <v>7</v>
       </c>
-      <c r="J46" s="73">
+      <c r="J46" s="68">
         <v>4</v>
       </c>
-      <c r="K46" s="24">
+      <c r="K46" s="69">
+        <v>0</v>
+      </c>
+      <c r="L46" s="70">
         <v>2</v>
       </c>
-      <c r="L46" s="11">
-        <v>1</v>
-      </c>
-      <c r="M46" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" ht="15.15" hidden="1" spans="1:13">
+      <c r="M46" s="70">
+        <v>1</v>
+      </c>
+      <c r="N46" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" ht="15.15" spans="1:14">
       <c r="A47" s="6" t="s">
         <v>95</v>
       </c>
@@ -9939,23 +10158,26 @@
       <c r="H47" s="44">
         <v>32</v>
       </c>
-      <c r="I47" s="76">
-        <v>1</v>
-      </c>
-      <c r="J47" s="84">
-        <v>1</v>
-      </c>
-      <c r="K47" s="25">
-        <v>0</v>
-      </c>
-      <c r="L47" s="7">
-        <v>0</v>
-      </c>
-      <c r="M47" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" hidden="1" spans="1:13">
+      <c r="I47" s="72">
+        <v>1</v>
+      </c>
+      <c r="J47" s="73">
+        <v>1</v>
+      </c>
+      <c r="K47" s="69">
+        <v>0</v>
+      </c>
+      <c r="L47" s="74">
+        <v>0</v>
+      </c>
+      <c r="M47" s="74">
+        <v>0</v>
+      </c>
+      <c r="N47" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="2" t="s">
         <v>101</v>
       </c>
@@ -9980,23 +10202,24 @@
       <c r="H48" s="35">
         <v>32</v>
       </c>
-      <c r="I48" s="77">
+      <c r="I48" s="75">
         <v>4</v>
       </c>
-      <c r="J48" s="78">
-        <v>3</v>
-      </c>
-      <c r="K48" s="34">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" hidden="1" spans="1:13">
+      <c r="J48" s="76">
+        <v>4</v>
+      </c>
+      <c r="K48" s="98"/>
+      <c r="L48" s="77">
+        <v>0</v>
+      </c>
+      <c r="M48" s="77">
+        <v>0</v>
+      </c>
+      <c r="N48" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="17" t="s">
         <v>101</v>
       </c>
@@ -10021,23 +10244,24 @@
       <c r="H49" s="40">
         <v>32</v>
       </c>
-      <c r="I49" s="72">
-        <v>1</v>
-      </c>
-      <c r="J49" s="73">
-        <v>0</v>
-      </c>
-      <c r="K49" s="24">
-        <v>1</v>
-      </c>
-      <c r="L49" s="11">
-        <v>0</v>
-      </c>
-      <c r="M49" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" ht="15.15" hidden="1" spans="1:13">
+      <c r="I49" s="67">
+        <v>1</v>
+      </c>
+      <c r="J49" s="68">
+        <v>0</v>
+      </c>
+      <c r="K49" s="69"/>
+      <c r="L49" s="70">
+        <v>1</v>
+      </c>
+      <c r="M49" s="70">
+        <v>0</v>
+      </c>
+      <c r="N49" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" ht="15.15" spans="1:14">
       <c r="A50" s="6" t="s">
         <v>101</v>
       </c>
@@ -10062,23 +10286,26 @@
       <c r="H50" s="44">
         <v>32</v>
       </c>
-      <c r="I50" s="76">
+      <c r="I50" s="72">
         <v>2</v>
       </c>
-      <c r="J50" s="84">
-        <v>1</v>
-      </c>
-      <c r="K50" s="25">
-        <v>0</v>
-      </c>
-      <c r="L50" s="7">
-        <v>0</v>
-      </c>
-      <c r="M50" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" ht="43.2" hidden="1" spans="1:13">
+      <c r="J50" s="73">
+        <v>1</v>
+      </c>
+      <c r="K50" s="99">
+        <v>1</v>
+      </c>
+      <c r="L50" s="74">
+        <v>0</v>
+      </c>
+      <c r="M50" s="74">
+        <v>0</v>
+      </c>
+      <c r="N50" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" ht="43.2" spans="1:14">
       <c r="A51" s="9" t="s">
         <v>108</v>
       </c>
@@ -10103,23 +10330,26 @@
       <c r="H51" s="35">
         <v>32</v>
       </c>
-      <c r="I51" s="77">
+      <c r="I51" s="75">
         <v>6</v>
       </c>
-      <c r="J51" s="78">
-        <v>4</v>
-      </c>
-      <c r="K51" s="34">
-        <v>1</v>
-      </c>
-      <c r="L51" s="3">
+      <c r="J51" s="76">
+        <v>3</v>
+      </c>
+      <c r="K51" s="98">
+        <v>1</v>
+      </c>
+      <c r="L51" s="77">
+        <v>0</v>
+      </c>
+      <c r="M51" s="77">
         <v>2</v>
       </c>
-      <c r="M51" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" ht="43.2" hidden="1" spans="1:13">
+      <c r="N51" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" ht="43.2" spans="1:14">
       <c r="A52" s="10" t="s">
         <v>108</v>
       </c>
@@ -10144,23 +10374,26 @@
       <c r="H52" s="40">
         <v>32</v>
       </c>
-      <c r="I52" s="72">
+      <c r="I52" s="67">
         <v>2</v>
       </c>
-      <c r="J52" s="73">
-        <v>0</v>
-      </c>
-      <c r="K52" s="24">
-        <v>1</v>
-      </c>
-      <c r="L52" s="11">
-        <v>0</v>
-      </c>
-      <c r="M52" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" ht="43.95" hidden="1" spans="1:13">
+      <c r="J52" s="68">
+        <v>1</v>
+      </c>
+      <c r="K52" s="69">
+        <v>0</v>
+      </c>
+      <c r="L52" s="70">
+        <v>1</v>
+      </c>
+      <c r="M52" s="70">
+        <v>0</v>
+      </c>
+      <c r="N52" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" ht="43.95" spans="1:14">
       <c r="A53" s="14" t="s">
         <v>108</v>
       </c>
@@ -10185,23 +10418,26 @@
       <c r="H53" s="44">
         <v>32</v>
       </c>
-      <c r="I53" s="76">
+      <c r="I53" s="72">
         <v>3</v>
       </c>
-      <c r="J53" s="84">
+      <c r="J53" s="73">
         <v>3</v>
       </c>
-      <c r="K53" s="25">
-        <v>0</v>
-      </c>
-      <c r="L53" s="7">
-        <v>0</v>
-      </c>
-      <c r="M53" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" hidden="1" spans="1:13">
+      <c r="K53" s="69">
+        <v>0</v>
+      </c>
+      <c r="L53" s="74">
+        <v>0</v>
+      </c>
+      <c r="M53" s="74">
+        <v>0</v>
+      </c>
+      <c r="N53" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="2" t="s">
         <v>115</v>
       </c>
@@ -10226,23 +10462,26 @@
       <c r="H54" s="35">
         <v>32</v>
       </c>
-      <c r="I54" s="77">
+      <c r="I54" s="75">
         <v>2</v>
       </c>
-      <c r="J54" s="78">
-        <v>0</v>
-      </c>
-      <c r="K54" s="34">
-        <v>1</v>
-      </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-      <c r="M54" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" hidden="1" spans="1:13">
+      <c r="J54" s="76">
+        <v>0</v>
+      </c>
+      <c r="K54" s="69">
+        <v>0</v>
+      </c>
+      <c r="L54" s="77">
+        <v>2</v>
+      </c>
+      <c r="M54" s="77">
+        <v>0</v>
+      </c>
+      <c r="N54" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="17" t="s">
         <v>115</v>
       </c>
@@ -10267,23 +10506,26 @@
       <c r="H55" s="40">
         <v>32</v>
       </c>
-      <c r="I55" s="72">
-        <v>1</v>
-      </c>
-      <c r="J55" s="73">
-        <v>0</v>
-      </c>
-      <c r="K55" s="24">
-        <v>1</v>
-      </c>
-      <c r="L55" s="11">
-        <v>0</v>
-      </c>
-      <c r="M55" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" ht="15.15" hidden="1" spans="1:13">
+      <c r="I55" s="67">
+        <v>1</v>
+      </c>
+      <c r="J55" s="68">
+        <v>0</v>
+      </c>
+      <c r="K55" s="69">
+        <v>0</v>
+      </c>
+      <c r="L55" s="70">
+        <v>1</v>
+      </c>
+      <c r="M55" s="70">
+        <v>0</v>
+      </c>
+      <c r="N55" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" ht="15.15" spans="1:14">
       <c r="A56" s="6" t="s">
         <v>115</v>
       </c>
@@ -10308,23 +10550,26 @@
       <c r="H56" s="44">
         <v>32</v>
       </c>
-      <c r="I56" s="76">
+      <c r="I56" s="72">
         <v>5</v>
       </c>
-      <c r="J56" s="84">
-        <v>1</v>
-      </c>
-      <c r="K56" s="25">
+      <c r="J56" s="73">
+        <v>1</v>
+      </c>
+      <c r="K56" s="69">
+        <v>0</v>
+      </c>
+      <c r="L56" s="74">
         <v>2</v>
       </c>
-      <c r="L56" s="7">
-        <v>0</v>
-      </c>
-      <c r="M56" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" ht="28.8" hidden="1" spans="1:13">
+      <c r="M56" s="74">
+        <v>0</v>
+      </c>
+      <c r="N56" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" ht="28.8" spans="1:14">
       <c r="A57" s="9" t="s">
         <v>122</v>
       </c>
@@ -10349,23 +10594,26 @@
       <c r="H57" s="35">
         <v>32</v>
       </c>
-      <c r="I57" s="77">
+      <c r="I57" s="75">
         <v>6</v>
       </c>
-      <c r="J57" s="78">
+      <c r="J57" s="76">
+        <v>3</v>
+      </c>
+      <c r="K57" s="69">
+        <v>0</v>
+      </c>
+      <c r="L57" s="77">
         <v>2</v>
       </c>
-      <c r="K57" s="34">
-        <v>2</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1</v>
-      </c>
-      <c r="M57" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" ht="28.8" hidden="1" spans="1:13">
+      <c r="M57" s="77">
+        <v>1</v>
+      </c>
+      <c r="N57" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" ht="28.8" spans="1:14">
       <c r="A58" s="10" t="s">
         <v>122</v>
       </c>
@@ -10390,23 +10638,26 @@
       <c r="H58" s="40">
         <v>32</v>
       </c>
-      <c r="I58" s="72">
-        <v>1</v>
-      </c>
-      <c r="J58" s="73">
-        <v>0</v>
-      </c>
-      <c r="K58" s="24">
-        <v>0</v>
-      </c>
-      <c r="L58" s="11">
-        <v>1</v>
-      </c>
-      <c r="M58" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" ht="29.55" hidden="1" spans="1:13">
+      <c r="I58" s="67">
+        <v>1</v>
+      </c>
+      <c r="J58" s="68">
+        <v>0</v>
+      </c>
+      <c r="K58" s="69">
+        <v>0</v>
+      </c>
+      <c r="L58" s="70">
+        <v>0</v>
+      </c>
+      <c r="M58" s="70">
+        <v>1</v>
+      </c>
+      <c r="N58" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" ht="29.55" spans="1:14">
       <c r="A59" s="10" t="s">
         <v>122</v>
       </c>
@@ -10431,23 +10682,26 @@
       <c r="H59" s="40">
         <v>32</v>
       </c>
-      <c r="I59" s="76">
-        <v>0</v>
-      </c>
-      <c r="J59" s="84">
-        <v>1</v>
-      </c>
-      <c r="K59" s="25">
-        <v>0</v>
-      </c>
-      <c r="L59" s="7">
-        <v>0</v>
-      </c>
-      <c r="M59" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="I59" s="100">
+        <v>0</v>
+      </c>
+      <c r="J59" s="73">
+        <v>1</v>
+      </c>
+      <c r="K59" s="69">
+        <v>0</v>
+      </c>
+      <c r="L59" s="74">
+        <v>0</v>
+      </c>
+      <c r="M59" s="74">
+        <v>0</v>
+      </c>
+      <c r="N59" s="79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" hidden="1" spans="1:14">
       <c r="A60" s="2" t="s">
         <v>130</v>
       </c>
@@ -10472,23 +10726,24 @@
       <c r="H60" s="35">
         <v>64</v>
       </c>
-      <c r="I60" s="77">
+      <c r="I60" s="85">
         <v>2</v>
       </c>
-      <c r="J60" s="78">
-        <v>1</v>
-      </c>
-      <c r="K60" s="34">
-        <v>1</v>
-      </c>
-      <c r="L60" s="85">
-        <v>0</v>
-      </c>
-      <c r="M60" s="86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="J60" s="86">
+        <v>1</v>
+      </c>
+      <c r="K60" s="87"/>
+      <c r="L60" s="34">
+        <v>1</v>
+      </c>
+      <c r="M60" s="101">
+        <v>0</v>
+      </c>
+      <c r="N60" s="102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" hidden="1" spans="1:14">
       <c r="A61" s="17" t="s">
         <v>130</v>
       </c>
@@ -10513,23 +10768,24 @@
       <c r="H61" s="40">
         <v>60</v>
       </c>
-      <c r="I61" s="72">
+      <c r="I61" s="88">
         <v>12</v>
       </c>
-      <c r="J61" s="73">
+      <c r="J61" s="89">
         <v>9</v>
       </c>
-      <c r="K61" s="24">
+      <c r="K61" s="90"/>
+      <c r="L61" s="24">
         <v>2</v>
       </c>
-      <c r="L61" s="11">
-        <v>1</v>
-      </c>
-      <c r="M61" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" ht="15.15" spans="1:13">
+      <c r="M61" s="11">
+        <v>1</v>
+      </c>
+      <c r="N61" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" hidden="1" spans="1:14">
       <c r="A62" s="17" t="s">
         <v>130</v>
       </c>
@@ -10554,23 +10810,24 @@
       <c r="H62" s="38">
         <v>70</v>
       </c>
-      <c r="I62" s="79">
+      <c r="I62" s="91">
         <v>5</v>
       </c>
-      <c r="J62" s="80">
+      <c r="J62" s="92">
         <v>2</v>
       </c>
-      <c r="K62" s="81">
-        <v>1</v>
-      </c>
-      <c r="L62" s="87">
+      <c r="K62" s="93"/>
+      <c r="L62" s="94">
+        <v>1</v>
+      </c>
+      <c r="M62" s="103">
         <v>2</v>
       </c>
-      <c r="M62" s="88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" hidden="1" spans="1:13">
+      <c r="N62" s="104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="17" t="s">
         <v>130</v>
       </c>
@@ -10595,23 +10852,26 @@
       <c r="H63" s="64">
         <v>53</v>
       </c>
-      <c r="I63" s="89">
+      <c r="I63" s="105">
         <v>5</v>
       </c>
-      <c r="J63" s="90">
-        <v>1</v>
-      </c>
-      <c r="K63" s="18">
+      <c r="J63" s="106">
+        <v>1</v>
+      </c>
+      <c r="K63" s="69">
+        <v>0</v>
+      </c>
+      <c r="L63" s="107">
         <v>3</v>
       </c>
-      <c r="L63" s="18">
-        <v>0</v>
-      </c>
-      <c r="M63" s="64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" hidden="1" spans="1:13">
+      <c r="M63" s="107">
+        <v>1</v>
+      </c>
+      <c r="N63" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" s="17" t="s">
         <v>130</v>
       </c>
@@ -10636,23 +10896,26 @@
       <c r="H64" s="64">
         <v>54</v>
       </c>
-      <c r="I64" s="89">
+      <c r="I64" s="105">
         <v>3</v>
       </c>
-      <c r="J64" s="90">
-        <v>1</v>
-      </c>
-      <c r="K64" s="18">
-        <v>0</v>
-      </c>
-      <c r="L64" s="18">
-        <v>0</v>
-      </c>
-      <c r="M64" s="64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" ht="15.15" hidden="1" spans="1:13">
+      <c r="J64" s="106">
+        <v>1</v>
+      </c>
+      <c r="K64" s="69">
+        <v>0</v>
+      </c>
+      <c r="L64" s="107">
+        <v>0</v>
+      </c>
+      <c r="M64" s="107">
+        <v>1</v>
+      </c>
+      <c r="N64" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" ht="15.15" spans="1:14">
       <c r="A65" s="6" t="s">
         <v>130</v>
       </c>
@@ -10674,26 +10937,29 @@
       <c r="G65" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H65" s="91">
+      <c r="H65" s="109">
         <v>41</v>
       </c>
-      <c r="I65" s="97">
-        <v>7</v>
-      </c>
-      <c r="J65" s="98">
-        <v>2</v>
-      </c>
-      <c r="K65" s="19">
-        <v>0</v>
-      </c>
-      <c r="L65" s="19">
-        <v>0</v>
-      </c>
-      <c r="M65" s="99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" ht="29.55" spans="1:13">
+      <c r="I65" s="115">
+        <v>4</v>
+      </c>
+      <c r="J65" s="116">
+        <v>4</v>
+      </c>
+      <c r="K65" s="69">
+        <v>0</v>
+      </c>
+      <c r="L65" s="117">
+        <v>0</v>
+      </c>
+      <c r="M65" s="117">
+        <v>0</v>
+      </c>
+      <c r="N65" s="118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" ht="29.55" hidden="1" spans="1:14">
       <c r="A66" s="29" t="s">
         <v>140</v>
       </c>
@@ -10703,10 +10969,10 @@
       <c r="C66" s="55">
         <v>59.56098</v>
       </c>
-      <c r="D66" s="92">
+      <c r="D66" s="110">
         <v>150.924676</v>
       </c>
-      <c r="E66" s="93">
+      <c r="E66" s="111">
         <v>2021</v>
       </c>
       <c r="F66" s="56">
@@ -10715,39 +10981,40 @@
       <c r="G66" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="H66" s="92">
+      <c r="H66" s="110">
         <v>64</v>
       </c>
-      <c r="I66" s="93">
-        <v>1</v>
-      </c>
-      <c r="J66" s="100">
-        <v>1</v>
-      </c>
-      <c r="K66" s="55">
-        <v>0</v>
-      </c>
+      <c r="I66" s="111">
+        <v>1</v>
+      </c>
+      <c r="J66" s="119">
+        <v>1</v>
+      </c>
+      <c r="K66" s="120"/>
       <c r="L66" s="55">
         <v>0</v>
       </c>
-      <c r="M66" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" ht="15.15" spans="1:13">
-      <c r="A67" s="94" t="s">
+      <c r="M66" s="55">
+        <v>0</v>
+      </c>
+      <c r="N66" s="110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" ht="15.15" hidden="1" spans="1:14">
+      <c r="A67" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="B67" s="95" t="s">
+      <c r="B67" s="113" t="s">
         <v>143</v>
       </c>
-      <c r="C67" s="95">
+      <c r="C67" s="113">
         <v>59.558174</v>
       </c>
-      <c r="D67" s="96">
+      <c r="D67" s="114">
         <v>150.929357</v>
       </c>
-      <c r="E67" s="93">
+      <c r="E67" s="111">
         <v>2021</v>
       </c>
       <c r="F67" s="56">
@@ -10756,30 +11023,31 @@
       <c r="G67" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="H67" s="92">
+      <c r="H67" s="110">
         <v>64</v>
       </c>
-      <c r="I67" s="93">
+      <c r="I67" s="111">
         <v>2</v>
       </c>
-      <c r="J67" s="100">
-        <v>1</v>
-      </c>
-      <c r="K67" s="55">
-        <v>0</v>
-      </c>
-      <c r="L67" s="30">
-        <v>0</v>
-      </c>
-      <c r="M67" s="101">
+      <c r="J67" s="119">
+        <v>1</v>
+      </c>
+      <c r="K67" s="120"/>
+      <c r="L67" s="55">
+        <v>0</v>
+      </c>
+      <c r="M67" s="30">
+        <v>0</v>
+      </c>
+      <c r="N67" s="121">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:M67" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:N67" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="4">
       <filters>
-        <filter val="2021"/>
+        <filter val="2023"/>
       </filters>
     </filterColumn>
     <extLst/>
